--- a/CorpusA_BERT_Test_Results.xlsx
+++ b/CorpusA_BERT_Test_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\20240720_金先生\20240817File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\20240720_金先生\github_En\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{97C0CF4F-959A-4AE4-912A-66EB4068C145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FBA338-2D33-43B8-B330-7EB2A5A582C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2745" windowWidth="36480" windowHeight="17535" xr2:uid="{24FBCBFC-8EB1-4366-9FE5-B672386408CD}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" firstSheet="1" activeTab="4" xr2:uid="{24FBCBFC-8EB1-4366-9FE5-B672386408CD}"/>
   </bookViews>
   <sheets>
     <sheet name="CorpusA_TohokuBert" sheetId="2" r:id="rId1"/>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8138B3FA-674E-4B6D-BD97-E4121D245E04}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -11520,8 +11520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662DE834-0479-4ECB-9F64-0552FB0B5EE5}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11531,34 +11531,34 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.52813136599999999</v>
+        <v>0.87183582800000003</v>
       </c>
       <c r="C1">
-        <v>2.5324811999999999E-2</v>
+        <v>1.1169916E-2</v>
       </c>
       <c r="D1">
-        <v>3.8852520000000001E-2</v>
+        <v>1.5694554999999999E-2</v>
       </c>
       <c r="E1">
-        <v>0.118426368</v>
+        <v>3.0178137000000001E-2</v>
       </c>
       <c r="F1">
-        <v>6.6079147000000005E-2</v>
+        <v>1.320824E-2</v>
       </c>
       <c r="G1">
-        <v>2.7879286999999999E-2</v>
+        <v>1.0516126000000001E-2</v>
       </c>
       <c r="H1">
-        <v>4.3331112999999997E-2</v>
+        <v>9.3846959999999997E-3</v>
       </c>
       <c r="I1">
-        <v>4.4510323999999997E-2</v>
+        <v>9.0793109999999996E-3</v>
       </c>
       <c r="J1">
-        <v>5.5705051999999998E-2</v>
+        <v>1.6846085E-2</v>
       </c>
       <c r="K1">
-        <v>5.1760022000000003E-2</v>
+        <v>1.208711E-2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -11566,34 +11566,34 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1.1168206999999999E-2</v>
+        <v>5.6299914E-2</v>
       </c>
       <c r="C2">
-        <v>7.64294E-3</v>
+        <v>1.7798238000000001E-2</v>
       </c>
       <c r="D2">
-        <v>7.7196490000000003E-3</v>
+        <v>1.8713134999999999E-2</v>
       </c>
       <c r="E2">
-        <v>0.91707110400000003</v>
+        <v>0.14373940199999999</v>
       </c>
       <c r="F2">
-        <v>9.8062129999999994E-3</v>
+        <v>1.5601762E-2</v>
       </c>
       <c r="G2">
-        <v>8.1239699999999995E-3</v>
+        <v>2.0832066999999999E-2</v>
       </c>
       <c r="H2">
-        <v>8.8292370000000002E-3</v>
+        <v>1.7163741999999999E-2</v>
       </c>
       <c r="I2">
-        <v>1.3105792E-2</v>
+        <v>1.4503208E-2</v>
       </c>
       <c r="J2">
-        <v>7.7717180000000004E-3</v>
+        <v>0.67990320900000001</v>
       </c>
       <c r="K2">
-        <v>8.7611949999999994E-3</v>
+        <v>1.5445277E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -11601,34 +11601,34 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.1469894999999999E-2</v>
+        <v>0.109013177</v>
       </c>
       <c r="C3">
-        <v>2.4686639999999999E-2</v>
+        <v>3.9669721999999998E-2</v>
       </c>
       <c r="D3">
-        <v>0.149749205</v>
+        <v>2.9288659000000002E-2</v>
       </c>
       <c r="E3">
-        <v>4.0888584999999998E-2</v>
+        <v>7.4973158999999998E-2</v>
       </c>
       <c r="F3">
-        <v>3.5466897999999997E-2</v>
+        <v>1.7442228000000001E-2</v>
       </c>
       <c r="G3">
-        <v>2.4213867E-2</v>
+        <v>2.9857908999999998E-2</v>
       </c>
       <c r="H3">
-        <v>6.4632787999999997E-2</v>
+        <v>8.3741105999999996E-2</v>
       </c>
       <c r="I3">
-        <v>0.20858241599999999</v>
+        <v>0.52008789799999999</v>
       </c>
       <c r="J3">
-        <v>0.40476491999999997</v>
+        <v>5.2247386E-2</v>
       </c>
       <c r="K3">
-        <v>2.5544744000000001E-2</v>
+        <v>4.3678749000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -11636,34 +11636,34 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.7263094E-2</v>
+        <v>8.7554521999999996E-2</v>
       </c>
       <c r="C4">
-        <v>2.7484989000000001E-2</v>
+        <v>7.1896932999999996E-2</v>
       </c>
       <c r="D4">
-        <v>2.1072107999999999E-2</v>
+        <v>2.9852231999999999E-2</v>
       </c>
       <c r="E4">
-        <v>0.13577102099999999</v>
+        <v>0.30930307499999998</v>
       </c>
       <c r="F4">
-        <v>0.50335764900000002</v>
+        <v>0.189426914</v>
       </c>
       <c r="G4">
-        <v>2.9552156E-2</v>
+        <v>3.8274322E-2</v>
       </c>
       <c r="H4">
-        <v>6.6315821999999996E-2</v>
+        <v>0.13243651400000001</v>
       </c>
       <c r="I4">
-        <v>2.9287984999999999E-2</v>
+        <v>6.3662684999999997E-2</v>
       </c>
       <c r="J4">
-        <v>0.14984031</v>
+        <v>4.7728858999999998E-2</v>
       </c>
       <c r="K4">
-        <v>2.0054866000000001E-2</v>
+        <v>2.9863919999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -11671,34 +11671,34 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.49648550200000002</v>
+        <v>0.58094483600000002</v>
       </c>
       <c r="C5">
-        <v>2.8046589E-2</v>
+        <v>2.3172483000000001E-2</v>
       </c>
       <c r="D5">
-        <v>6.0559007999999998E-2</v>
+        <v>7.9421892999999993E-2</v>
       </c>
       <c r="E5">
-        <v>1.8145037999999999E-2</v>
+        <v>5.0326365999999997E-2</v>
       </c>
       <c r="F5">
-        <v>2.2740270999999999E-2</v>
+        <v>2.3720851000000001E-2</v>
       </c>
       <c r="G5">
-        <v>2.7449731000000002E-2</v>
+        <v>2.0509603000000001E-2</v>
       </c>
       <c r="H5">
-        <v>2.4858655E-2</v>
+        <v>1.2606862999999999E-2</v>
       </c>
       <c r="I5">
-        <v>0.103128999</v>
+        <v>2.6227798E-2</v>
       </c>
       <c r="J5">
-        <v>2.6150375999999999E-2</v>
+        <v>1.4359691000000001E-2</v>
       </c>
       <c r="K5">
-        <v>0.19243590499999999</v>
+        <v>0.16870966600000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -11706,34 +11706,34 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.56411522599999997</v>
+        <v>7.3161185000000004E-2</v>
       </c>
       <c r="C6">
-        <v>1.8301304000000001E-2</v>
+        <v>2.7046272999999999E-2</v>
       </c>
       <c r="D6">
-        <v>2.244005E-2</v>
+        <v>6.1072249000000002E-2</v>
       </c>
       <c r="E6">
-        <v>0.195876628</v>
+        <v>0.46165603399999999</v>
       </c>
       <c r="F6">
-        <v>2.6643337999999999E-2</v>
+        <v>2.4977565E-2</v>
       </c>
       <c r="G6">
-        <v>2.2894276000000002E-2</v>
+        <v>3.1433827999999997E-2</v>
       </c>
       <c r="H6">
-        <v>1.9785251E-2</v>
+        <v>1.3224553999999999E-2</v>
       </c>
       <c r="I6">
-        <v>7.5191311999999996E-2</v>
+        <v>0.14899721699999999</v>
       </c>
       <c r="J6">
-        <v>1.5537649000000001E-2</v>
+        <v>2.1369081000000002E-2</v>
       </c>
       <c r="K6">
-        <v>3.9214954000000003E-2</v>
+        <v>0.13706204299999999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -11741,34 +11741,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.3997368000000002E-2</v>
+        <v>3.1147951E-2</v>
       </c>
       <c r="C7">
-        <v>2.8553980999999999E-2</v>
+        <v>2.0563917000000001E-2</v>
       </c>
       <c r="D7">
-        <v>0.26512613899999998</v>
+        <v>6.8252972999999995E-2</v>
       </c>
       <c r="E7">
-        <v>3.0632803E-2</v>
+        <v>3.1609457000000001E-2</v>
       </c>
       <c r="F7">
-        <v>3.1026835999999999E-2</v>
+        <v>1.6322852999999998E-2</v>
       </c>
       <c r="G7">
-        <v>2.3326229E-2</v>
+        <v>1.5242637999999999E-2</v>
       </c>
       <c r="H7">
-        <v>2.0740740000000001E-2</v>
+        <v>1.1698414000000001E-2</v>
       </c>
       <c r="I7">
-        <v>5.0128411999999997E-2</v>
+        <v>1.6405909999999999E-2</v>
       </c>
       <c r="J7">
-        <v>0.25369140499999998</v>
+        <v>4.0848545999999999E-2</v>
       </c>
       <c r="K7">
-        <v>0.27277603700000003</v>
+        <v>0.7479074</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -11776,34 +11776,34 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>8.3785509999999997E-3</v>
+        <v>0.27913528700000001</v>
       </c>
       <c r="C8">
-        <v>7.0673660000000003E-3</v>
+        <v>1.6738784E-2</v>
       </c>
       <c r="D8">
-        <v>6.2806390000000002E-3</v>
+        <v>2.5940845000000001E-2</v>
       </c>
       <c r="E8">
-        <v>0.928623796</v>
+        <v>0.59512555599999994</v>
       </c>
       <c r="F8">
-        <v>9.8359899999999993E-3</v>
+        <v>1.5213166E-2</v>
       </c>
       <c r="G8">
-        <v>7.3634169999999997E-3</v>
+        <v>1.8314985999999998E-2</v>
       </c>
       <c r="H8">
-        <v>1.0075213E-2</v>
+        <v>7.5928530000000001E-3</v>
       </c>
       <c r="I8">
-        <v>9.4208599999999997E-3</v>
+        <v>1.4635878999999999E-2</v>
       </c>
       <c r="J8">
-        <v>5.2221120000000001E-3</v>
+        <v>1.5429979999999999E-2</v>
       </c>
       <c r="K8">
-        <v>7.731974E-3</v>
+        <v>1.1872661E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -11811,34 +11811,34 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3.1467710000000003E-2</v>
+        <v>0.10702822400000001</v>
       </c>
       <c r="C9">
-        <v>2.6576381E-2</v>
+        <v>3.0208380999999999E-2</v>
       </c>
       <c r="D9">
-        <v>0.182234481</v>
+        <v>0.50955635300000002</v>
       </c>
       <c r="E9">
-        <v>5.0457864999999998E-2</v>
+        <v>0.13278853900000001</v>
       </c>
       <c r="F9">
-        <v>8.7887145999999999E-2</v>
+        <v>2.5275697999999999E-2</v>
       </c>
       <c r="G9">
-        <v>2.4620672999999999E-2</v>
+        <v>2.9941876999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0.17198538799999999</v>
+        <v>1.0347864E-2</v>
       </c>
       <c r="I9">
-        <v>3.0381972E-2</v>
+        <v>5.3799E-2</v>
       </c>
       <c r="J9">
-        <v>0.35065823800000001</v>
+        <v>6.4059644999999998E-2</v>
       </c>
       <c r="K9">
-        <v>4.3730120999999997E-2</v>
+        <v>3.6994449999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -11846,34 +11846,34 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2.2983496999999999E-2</v>
+        <v>2.7637717999999999E-2</v>
       </c>
       <c r="C10">
-        <v>1.6234868999999999E-2</v>
+        <v>2.0692891000000001E-2</v>
       </c>
       <c r="D10">
-        <v>4.7289937999999997E-2</v>
+        <v>2.3630849999999998E-2</v>
       </c>
       <c r="E10">
-        <v>3.5933725999999999E-2</v>
+        <v>4.2267027999999998E-2</v>
       </c>
       <c r="F10">
-        <v>2.3195871999999999E-2</v>
+        <v>1.3934644E-2</v>
       </c>
       <c r="G10">
-        <v>2.0229725E-2</v>
+        <v>1.6803301999999999E-2</v>
       </c>
       <c r="H10">
-        <v>0.64322835199999995</v>
+        <v>0.73345685000000005</v>
       </c>
       <c r="I10">
-        <v>1.6818434E-2</v>
+        <v>3.2587666000000001E-2</v>
       </c>
       <c r="J10">
-        <v>0.14593703999999999</v>
+        <v>1.8518671E-2</v>
       </c>
       <c r="K10">
-        <v>2.8148469999999998E-2</v>
+        <v>7.0470466999999995E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -11881,34 +11881,34 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>3.3581857E-2</v>
+        <v>3.6482472000000002E-2</v>
       </c>
       <c r="C11">
-        <v>1.3318E-2</v>
+        <v>9.7889480000000004E-3</v>
       </c>
       <c r="D11">
-        <v>2.1212226000000001E-2</v>
+        <v>1.2720360999999999E-2</v>
       </c>
       <c r="E11">
-        <v>0.76936423799999998</v>
+        <v>0.86334657699999995</v>
       </c>
       <c r="F11">
-        <v>5.7096906000000003E-2</v>
+        <v>1.3157534E-2</v>
       </c>
       <c r="G11">
-        <v>1.8985505999999999E-2</v>
+        <v>1.1877805E-2</v>
       </c>
       <c r="H11">
-        <v>3.5331718999999998E-2</v>
+        <v>3.0458834000000001E-2</v>
       </c>
       <c r="I11">
-        <v>2.1732497999999999E-2</v>
+        <v>9.7062369999999995E-3</v>
       </c>
       <c r="J11">
-        <v>1.116373E-2</v>
+        <v>7.5503230000000003E-3</v>
       </c>
       <c r="K11">
-        <v>1.8213271999999999E-2</v>
+        <v>4.9108010000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -11916,34 +11916,34 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>2.2415669999999999E-2</v>
+        <v>2.9299753000000001E-2</v>
       </c>
       <c r="C12">
-        <v>8.6957809999999996E-3</v>
+        <v>1.2375667E-2</v>
       </c>
       <c r="D12">
-        <v>3.9738639999999999E-2</v>
+        <v>9.0998290000000003E-3</v>
       </c>
       <c r="E12">
-        <v>2.2046764999999999E-2</v>
+        <v>3.1701684000000001E-2</v>
       </c>
       <c r="F12">
-        <v>1.4798683E-2</v>
+        <v>9.7144250000000005E-3</v>
       </c>
       <c r="G12">
-        <v>1.1172464999999999E-2</v>
+        <v>1.0875816999999999E-2</v>
       </c>
       <c r="H12">
-        <v>0.83992105699999997</v>
+        <v>0.85750520200000002</v>
       </c>
       <c r="I12">
-        <v>1.3432675E-2</v>
+        <v>1.4858860999999999E-2</v>
       </c>
       <c r="J12">
-        <v>1.4390536000000001E-2</v>
+        <v>9.0433800000000002E-3</v>
       </c>
       <c r="K12">
-        <v>1.3387817E-2</v>
+        <v>1.5525361999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -11951,34 +11951,34 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>1.6093418000000002E-2</v>
+        <v>8.4191076000000004E-2</v>
       </c>
       <c r="C13">
-        <v>1.3348193E-2</v>
+        <v>2.4560668000000001E-2</v>
       </c>
       <c r="D13">
-        <v>1.9035738E-2</v>
+        <v>1.8714173000000001E-2</v>
       </c>
       <c r="E13">
-        <v>0.78627520799999995</v>
+        <v>0.10307142900000001</v>
       </c>
       <c r="F13">
-        <v>3.2371367999999998E-2</v>
+        <v>1.6981310999999999E-2</v>
       </c>
       <c r="G13">
-        <v>1.2799420000000001E-2</v>
+        <v>1.9116865E-2</v>
       </c>
       <c r="H13">
-        <v>2.2738912999999999E-2</v>
+        <v>1.6661671999999999E-2</v>
       </c>
       <c r="I13">
-        <v>1.7143179000000001E-2</v>
+        <v>1.7878119000000001E-2</v>
       </c>
       <c r="J13">
-        <v>6.5841518000000002E-2</v>
+        <v>0.68054831000000005</v>
       </c>
       <c r="K13">
-        <v>1.4353014000000001E-2</v>
+        <v>1.8276312999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -11986,34 +11986,34 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.39102721200000001</v>
+        <v>0.26524671900000002</v>
       </c>
       <c r="C14">
-        <v>5.2457615999999999E-2</v>
+        <v>4.3761029999999999E-2</v>
       </c>
       <c r="D14">
-        <v>2.4285207999999999E-2</v>
+        <v>1.3350238E-2</v>
       </c>
       <c r="E14">
-        <v>0.106066205</v>
+        <v>8.6686574000000002E-2</v>
       </c>
       <c r="F14">
-        <v>0.129534543</v>
+        <v>2.3383006000000001E-2</v>
       </c>
       <c r="G14">
-        <v>3.6039821999999999E-2</v>
+        <v>3.0470850000000001E-2</v>
       </c>
       <c r="H14">
-        <v>0.10138008699999999</v>
+        <v>0.28605571400000002</v>
       </c>
       <c r="I14">
-        <v>4.3706842000000003E-2</v>
+        <v>0.10750778800000001</v>
       </c>
       <c r="J14">
-        <v>5.8474961999999998E-2</v>
+        <v>8.5018463000000002E-2</v>
       </c>
       <c r="K14">
-        <v>5.7027507999999998E-2</v>
+        <v>5.8519565000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -12021,34 +12021,34 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>1.8307440000000001E-2</v>
+        <v>1.5444575E-2</v>
       </c>
       <c r="C15">
-        <v>2.0126930000000001E-2</v>
+        <v>2.3138157999999999E-2</v>
       </c>
       <c r="D15">
-        <v>3.0874055000000001E-2</v>
+        <v>5.4727241000000003E-2</v>
       </c>
       <c r="E15">
-        <v>1.4319238E-2</v>
+        <v>2.6853268999999999E-2</v>
       </c>
       <c r="F15">
-        <v>2.2191282E-2</v>
+        <v>2.1145153999999999E-2</v>
       </c>
       <c r="G15">
-        <v>0.50163549200000002</v>
+        <v>0.57705342800000003</v>
       </c>
       <c r="H15">
-        <v>2.8418075000000001E-2</v>
+        <v>2.0845545E-2</v>
       </c>
       <c r="I15">
-        <v>2.2498850000000001E-2</v>
+        <v>1.6399924E-2</v>
       </c>
       <c r="J15">
-        <v>0.32364714100000003</v>
+        <v>0.18737484500000001</v>
       </c>
       <c r="K15">
-        <v>1.7981431999999999E-2</v>
+        <v>5.7017878000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -12056,34 +12056,34 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.86365145399999999</v>
+        <v>0.90560787899999995</v>
       </c>
       <c r="C16">
-        <v>1.0307102E-2</v>
+        <v>8.7290149999999997E-3</v>
       </c>
       <c r="D16">
-        <v>2.3195187999999999E-2</v>
+        <v>1.0985322E-2</v>
       </c>
       <c r="E16">
-        <v>3.2044354999999997E-2</v>
+        <v>1.6649055999999999E-2</v>
       </c>
       <c r="F16">
-        <v>9.4167420000000005E-3</v>
+        <v>7.7674600000000003E-3</v>
       </c>
       <c r="G16">
-        <v>1.1963787E-2</v>
+        <v>9.4117760000000002E-3</v>
       </c>
       <c r="H16">
-        <v>1.2368387E-2</v>
+        <v>8.2735020000000003E-3</v>
       </c>
       <c r="I16">
-        <v>1.2881543000000001E-2</v>
+        <v>9.5083359999999992E-3</v>
       </c>
       <c r="J16">
-        <v>1.1158088E-2</v>
+        <v>1.1914519E-2</v>
       </c>
       <c r="K16">
-        <v>1.301338E-2</v>
+        <v>1.1152954E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -12091,34 +12091,34 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>7.7866760000000002E-3</v>
+        <v>1.4029389999999999E-2</v>
       </c>
       <c r="C17">
-        <v>8.2505249999999999E-3</v>
+        <v>1.9847482E-2</v>
       </c>
       <c r="D17">
-        <v>0.899041176</v>
+        <v>0.67408478299999997</v>
       </c>
       <c r="E17">
-        <v>1.7243885E-2</v>
+        <v>0.15448153000000001</v>
       </c>
       <c r="F17">
-        <v>8.4891540000000005E-3</v>
+        <v>1.4437976E-2</v>
       </c>
       <c r="G17">
-        <v>7.7547370000000003E-3</v>
+        <v>2.2462655000000002E-2</v>
       </c>
       <c r="H17">
-        <v>1.9304721E-2</v>
+        <v>1.6716129999999999E-2</v>
       </c>
       <c r="I17">
-        <v>7.36282E-3</v>
+        <v>2.3869860999999999E-2</v>
       </c>
       <c r="J17">
-        <v>1.5784744E-2</v>
+        <v>2.1119563000000001E-2</v>
       </c>
       <c r="K17">
-        <v>8.9815929999999995E-3</v>
+        <v>3.8950589000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -12126,34 +12126,34 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>9.0900119999999997E-3</v>
+        <v>6.6446389999999999E-3</v>
       </c>
       <c r="C18">
-        <v>9.6082159999999993E-3</v>
+        <v>6.7300650000000004E-3</v>
       </c>
       <c r="D18">
-        <v>7.7368799999999998E-3</v>
+        <v>6.1221979999999997E-3</v>
       </c>
       <c r="E18">
-        <v>8.5947339999999997E-3</v>
+        <v>8.6449170000000002E-3</v>
       </c>
       <c r="F18">
-        <v>9.3753929999999992E-3</v>
+        <v>6.324344E-3</v>
       </c>
       <c r="G18">
-        <v>0.91763460600000002</v>
+        <v>0.93511164199999997</v>
       </c>
       <c r="H18">
-        <v>9.1543579999999996E-3</v>
+        <v>6.2567639999999997E-3</v>
       </c>
       <c r="I18">
-        <v>1.0488103E-2</v>
+        <v>6.2929420000000002E-3</v>
       </c>
       <c r="J18">
-        <v>8.0421950000000002E-3</v>
+        <v>1.1500731E-2</v>
       </c>
       <c r="K18">
-        <v>1.0275496E-2</v>
+        <v>6.3717640000000002E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -12161,34 +12161,34 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>2.2127930000000001E-2</v>
+        <v>3.3545297000000002E-2</v>
       </c>
       <c r="C19">
-        <v>0.48136422000000001</v>
+        <v>0.55900633300000002</v>
       </c>
       <c r="D19">
-        <v>4.2354345000000002E-2</v>
+        <v>2.3556893999999998E-2</v>
       </c>
       <c r="E19">
-        <v>3.1273372000000001E-2</v>
+        <v>4.2926233000000001E-2</v>
       </c>
       <c r="F19">
-        <v>6.3438535000000004E-2</v>
+        <v>0.119808175</v>
       </c>
       <c r="G19">
-        <v>2.6959351999999999E-2</v>
+        <v>2.3515739000000001E-2</v>
       </c>
       <c r="H19">
-        <v>0.25105026400000002</v>
+        <v>4.5877966999999999E-2</v>
       </c>
       <c r="I19">
-        <v>2.062978E-2</v>
+        <v>0.110130899</v>
       </c>
       <c r="J19">
-        <v>3.4737740000000003E-2</v>
+        <v>2.1676376000000001E-2</v>
       </c>
       <c r="K19">
-        <v>2.6064413000000002E-2</v>
+        <v>1.9956127000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -12196,34 +12196,34 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>5.0654515999999997E-2</v>
+        <v>3.0081665E-2</v>
       </c>
       <c r="C20">
-        <v>2.2389414E-2</v>
+        <v>2.5837631999999999E-2</v>
       </c>
       <c r="D20">
-        <v>2.7296493000000002E-2</v>
+        <v>2.7285697000000001E-2</v>
       </c>
       <c r="E20">
-        <v>0.30314460399999998</v>
+        <v>0.34085840000000001</v>
       </c>
       <c r="F20">
-        <v>0.453899622</v>
+        <v>0.434555888</v>
       </c>
       <c r="G20">
-        <v>2.3320718000000001E-2</v>
+        <v>2.5707056999999998E-2</v>
       </c>
       <c r="H20">
-        <v>5.8097760999999998E-2</v>
+        <v>3.6605856999999999E-2</v>
       </c>
       <c r="I20">
-        <v>2.0233667E-2</v>
+        <v>4.5655541000000001E-2</v>
       </c>
       <c r="J20">
-        <v>1.2028944E-2</v>
+        <v>1.3839124E-2</v>
       </c>
       <c r="K20">
-        <v>2.8934224000000001E-2</v>
+        <v>1.9573104000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -12231,34 +12231,34 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0.58474773199999996</v>
+        <v>0.86958563300000002</v>
       </c>
       <c r="C21">
-        <v>3.1552656999999998E-2</v>
+        <v>9.1220910000000006E-3</v>
       </c>
       <c r="D21">
-        <v>8.1432708000000006E-2</v>
+        <v>2.1509317999999999E-2</v>
       </c>
       <c r="E21">
-        <v>0.14824725699999999</v>
+        <v>1.5408635E-2</v>
       </c>
       <c r="F21">
-        <v>1.5984662E-2</v>
+        <v>7.8233780000000006E-3</v>
       </c>
       <c r="G21">
-        <v>2.2410985000000001E-2</v>
+        <v>1.4201972E-2</v>
       </c>
       <c r="H21">
-        <v>2.7722362E-2</v>
+        <v>1.0670369000000001E-2</v>
       </c>
       <c r="I21">
-        <v>2.6189318E-2</v>
+        <v>1.0291068E-2</v>
       </c>
       <c r="J21">
-        <v>4.3206684000000002E-2</v>
+        <v>1.557508E-2</v>
       </c>
       <c r="K21">
-        <v>1.8505573000000001E-2</v>
+        <v>2.5812360999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -12266,34 +12266,34 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>3.2263909999999999E-3</v>
+        <v>7.9083069999999998E-3</v>
       </c>
       <c r="C22">
-        <v>7.6841019999999999E-3</v>
+        <v>7.4136530000000001E-3</v>
       </c>
       <c r="D22">
-        <v>7.5959640000000002E-3</v>
+        <v>2.9635458999999999E-2</v>
       </c>
       <c r="E22">
-        <v>1.8259872E-2</v>
+        <v>1.1070214E-2</v>
       </c>
       <c r="F22">
-        <v>6.8040430000000001E-3</v>
+        <v>5.8532250000000001E-3</v>
       </c>
       <c r="G22">
-        <v>6.3219749999999996E-3</v>
+        <v>7.9414150000000003E-3</v>
       </c>
       <c r="H22">
-        <v>1.6800931000000002E-2</v>
+        <v>1.1950575999999999E-2</v>
       </c>
       <c r="I22">
-        <v>8.0345160000000002E-3</v>
+        <v>1.445491E-2</v>
       </c>
       <c r="J22">
-        <v>0.917403996</v>
+        <v>0.88940006500000002</v>
       </c>
       <c r="K22">
-        <v>7.8681470000000007E-3</v>
+        <v>1.4372228000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -12301,34 +12301,34 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>5.5056602000000003E-2</v>
+        <v>1.0387787000000001E-2</v>
       </c>
       <c r="C23">
-        <v>3.0972499000000001E-2</v>
+        <v>1.181929E-2</v>
       </c>
       <c r="D23">
-        <v>8.9302069999999997E-2</v>
+        <v>2.8666625000000001E-2</v>
       </c>
       <c r="E23">
-        <v>4.3315294999999997E-2</v>
+        <v>1.0650741E-2</v>
       </c>
       <c r="F23">
-        <v>4.9007694999999997E-2</v>
+        <v>7.8797520000000003E-3</v>
       </c>
       <c r="G23">
-        <v>1.5836080999999998E-2</v>
+        <v>8.5462920000000005E-3</v>
       </c>
       <c r="H23">
-        <v>0.16614489299999999</v>
+        <v>1.0715301E-2</v>
       </c>
       <c r="I23">
-        <v>0.48827502099999998</v>
+        <v>0.89258342999999996</v>
       </c>
       <c r="J23">
-        <v>4.4393334999999999E-2</v>
+        <v>9.6852099999999997E-3</v>
       </c>
       <c r="K23">
-        <v>1.7696514999999999E-2</v>
+        <v>9.0655949999999992E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -12336,34 +12336,34 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0.10783079299999999</v>
+        <v>8.5227780000000003E-2</v>
       </c>
       <c r="C24">
-        <v>5.305957E-2</v>
+        <v>1.3405023E-2</v>
       </c>
       <c r="D24">
-        <v>3.6214478000000001E-2</v>
+        <v>1.6850858999999999E-2</v>
       </c>
       <c r="E24">
-        <v>0.51564359699999995</v>
+        <v>0.71496385299999998</v>
       </c>
       <c r="F24">
-        <v>0.13691787399999999</v>
+        <v>6.9360271000000001E-2</v>
       </c>
       <c r="G24">
-        <v>2.5682627999999999E-2</v>
+        <v>1.5218438000000001E-2</v>
       </c>
       <c r="H24">
-        <v>4.3436310999999998E-2</v>
+        <v>3.7299647999999998E-2</v>
       </c>
       <c r="I24">
-        <v>2.7387682E-2</v>
+        <v>1.9494606000000001E-2</v>
       </c>
       <c r="J24">
-        <v>2.6704770999999999E-2</v>
+        <v>1.2644871E-2</v>
       </c>
       <c r="K24">
-        <v>2.7122268000000001E-2</v>
+        <v>1.5534704999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -12371,34 +12371,34 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>7.4707947999999996E-2</v>
+        <v>3.8104776E-2</v>
       </c>
       <c r="C25">
-        <v>2.7290933E-2</v>
+        <v>9.5622239999999994E-3</v>
       </c>
       <c r="D25">
-        <v>2.6586019999999998E-2</v>
+        <v>2.1133401999999999E-2</v>
       </c>
       <c r="E25">
-        <v>8.3404674999999998E-2</v>
+        <v>1.3814877E-2</v>
       </c>
       <c r="F25">
-        <v>6.0796010999999997E-2</v>
+        <v>1.0421046E-2</v>
       </c>
       <c r="G25">
-        <v>2.9305353999999999E-2</v>
+        <v>1.1092315E-2</v>
       </c>
       <c r="H25">
-        <v>0.18886819499999999</v>
+        <v>1.3783310999999999E-2</v>
       </c>
       <c r="I25">
-        <v>7.9325803E-2</v>
+        <v>1.0729926000000001E-2</v>
       </c>
       <c r="J25">
-        <v>0.12710137699999999</v>
+        <v>2.1698404000000001E-2</v>
       </c>
       <c r="K25">
-        <v>0.30261364600000001</v>
+        <v>0.84965980100000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -12406,34 +12406,34 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>1.6627579999999999E-2</v>
+        <v>7.8381340000000001E-3</v>
       </c>
       <c r="C26">
-        <v>1.2753921999999999E-2</v>
+        <v>7.3202349999999996E-3</v>
       </c>
       <c r="D26">
-        <v>3.5436428999999998E-2</v>
+        <v>1.9118050000000001E-2</v>
       </c>
       <c r="E26">
-        <v>1.4410455000000001E-2</v>
+        <v>8.0182310000000007E-3</v>
       </c>
       <c r="F26">
-        <v>1.1708820999999999E-2</v>
+        <v>6.6034809999999996E-3</v>
       </c>
       <c r="G26">
-        <v>8.9114109999999993E-3</v>
+        <v>8.4064599999999993E-3</v>
       </c>
       <c r="H26">
-        <v>1.5247487000000001E-2</v>
+        <v>8.7910200000000001E-3</v>
       </c>
       <c r="I26">
-        <v>0.86003756499999995</v>
+        <v>0.91134649499999998</v>
       </c>
       <c r="J26">
-        <v>1.2848596E-2</v>
+        <v>8.120314E-3</v>
       </c>
       <c r="K26">
-        <v>1.2017730000000001E-2</v>
+        <v>1.4437524E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -12441,34 +12441,34 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.25200021299999997</v>
+        <v>0.12507976600000001</v>
       </c>
       <c r="C27">
-        <v>1.9995466E-2</v>
+        <v>1.8909414999999999E-2</v>
       </c>
       <c r="D27">
-        <v>3.5767157000000001E-2</v>
+        <v>1.9535971999999999E-2</v>
       </c>
       <c r="E27">
-        <v>3.4612954000000001E-2</v>
+        <v>1.8709290999999999E-2</v>
       </c>
       <c r="F27">
-        <v>3.2846276000000001E-2</v>
+        <v>2.2131845000000001E-2</v>
       </c>
       <c r="G27">
-        <v>2.3026094E-2</v>
+        <v>1.8327273000000002E-2</v>
       </c>
       <c r="H27">
-        <v>5.5959024000000003E-2</v>
+        <v>2.0086553E-2</v>
       </c>
       <c r="I27">
-        <v>2.8263804999999999E-2</v>
+        <v>2.0974711E-2</v>
       </c>
       <c r="J27">
-        <v>4.5665259999999999E-2</v>
+        <v>2.4116005999999999E-2</v>
       </c>
       <c r="K27">
-        <v>0.471863747</v>
+        <v>0.71212917600000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -12476,34 +12476,34 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>2.946439E-2</v>
+        <v>1.6723604999999999E-2</v>
       </c>
       <c r="C28">
-        <v>1.5745032999999999E-2</v>
+        <v>1.0290216E-2</v>
       </c>
       <c r="D28">
-        <v>1.5349804999999999E-2</v>
+        <v>1.471512E-2</v>
       </c>
       <c r="E28">
-        <v>6.6812098E-2</v>
+        <v>9.4730205999999997E-2</v>
       </c>
       <c r="F28">
-        <v>0.76379823700000005</v>
+        <v>0.73394602499999995</v>
       </c>
       <c r="G28">
-        <v>1.7435893000000001E-2</v>
+        <v>1.6371954000000001E-2</v>
       </c>
       <c r="H28">
-        <v>2.2034465999999999E-2</v>
+        <v>4.8543311999999998E-2</v>
       </c>
       <c r="I28">
-        <v>2.0607385999999998E-2</v>
+        <v>2.8538166E-2</v>
       </c>
       <c r="J28">
-        <v>2.7374612E-2</v>
+        <v>1.6242431000000002E-2</v>
       </c>
       <c r="K28">
-        <v>2.1378066000000001E-2</v>
+        <v>1.9898951000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -12511,34 +12511,34 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>0.100422651</v>
+        <v>3.9824110000000003E-2</v>
       </c>
       <c r="C29">
-        <v>1.9972779E-2</v>
+        <v>2.2108618E-2</v>
       </c>
       <c r="D29">
-        <v>0.54264962699999997</v>
+        <v>0.33192440899999998</v>
       </c>
       <c r="E29">
-        <v>3.6192286999999997E-2</v>
+        <v>1.5090177999999999E-2</v>
       </c>
       <c r="F29">
-        <v>2.0670991E-2</v>
+        <v>1.5333792000000001E-2</v>
       </c>
       <c r="G29">
-        <v>1.4962194E-2</v>
+        <v>1.5374893000000001E-2</v>
       </c>
       <c r="H29">
-        <v>4.2105826999999998E-2</v>
+        <v>1.9145716E-2</v>
       </c>
       <c r="I29">
-        <v>4.9352825000000003E-2</v>
+        <v>1.9438844E-2</v>
       </c>
       <c r="J29">
-        <v>1.5403918000000001E-2</v>
+        <v>2.3247704000000001E-2</v>
       </c>
       <c r="K29">
-        <v>0.15826694699999999</v>
+        <v>0.498511761</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -12546,34 +12546,34 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>6.3798852000000003E-2</v>
+        <v>0.38680312</v>
       </c>
       <c r="C30">
-        <v>2.4282727E-2</v>
+        <v>2.5761428999999999E-2</v>
       </c>
       <c r="D30">
-        <v>6.4624920000000002E-2</v>
+        <v>3.2694503999999999E-2</v>
       </c>
       <c r="E30">
-        <v>5.2174884999999997E-2</v>
+        <v>3.4745906E-2</v>
       </c>
       <c r="F30">
-        <v>6.9471828999999999E-2</v>
+        <v>2.9709036000000001E-2</v>
       </c>
       <c r="G30">
-        <v>2.0669364999999999E-2</v>
+        <v>2.9522027999999999E-2</v>
       </c>
       <c r="H30">
-        <v>0.60719341000000004</v>
+        <v>0.197265103</v>
       </c>
       <c r="I30">
-        <v>4.9236305000000001E-2</v>
+        <v>3.5127349000000002E-2</v>
       </c>
       <c r="J30">
-        <v>1.7872214000000001E-2</v>
+        <v>2.6859523999999999E-2</v>
       </c>
       <c r="K30">
-        <v>3.0675493000000002E-2</v>
+        <v>0.20151196399999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -12581,34 +12581,34 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>7.5583524999999999E-2</v>
+        <v>5.7951279000000001E-2</v>
       </c>
       <c r="C31">
-        <v>2.3570510999999999E-2</v>
+        <v>1.6260989E-2</v>
       </c>
       <c r="D31">
-        <v>1.8669616E-2</v>
+        <v>2.9120403999999999E-2</v>
       </c>
       <c r="E31">
-        <v>0.62800574300000001</v>
+        <v>0.56213438500000001</v>
       </c>
       <c r="F31">
-        <v>1.5607065E-2</v>
+        <v>2.3937527E-2</v>
       </c>
       <c r="G31">
-        <v>1.7755858999999999E-2</v>
+        <v>1.9788630000000001E-2</v>
       </c>
       <c r="H31">
-        <v>2.2525872999999998E-2</v>
+        <v>7.6157539999999996E-2</v>
       </c>
       <c r="I31">
-        <v>3.2062243999999997E-2</v>
+        <v>2.3954704E-2</v>
       </c>
       <c r="J31">
-        <v>0.146516174</v>
+        <v>0.14555600299999999</v>
       </c>
       <c r="K31">
-        <v>1.9703460999999999E-2</v>
+        <v>4.5138493000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -12616,34 +12616,34 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>1.3347832E-2</v>
+        <v>0.33935090899999998</v>
       </c>
       <c r="C32">
-        <v>9.6158700000000003E-3</v>
+        <v>1.7758030000000001E-2</v>
       </c>
       <c r="D32">
-        <v>2.5968036E-2</v>
+        <v>3.3824049000000002E-2</v>
       </c>
       <c r="E32">
-        <v>0.88024312299999996</v>
+        <v>0.41973572999999997</v>
       </c>
       <c r="F32">
-        <v>7.6264389999999996E-3</v>
+        <v>1.5297666E-2</v>
       </c>
       <c r="G32">
-        <v>7.8952510000000007E-3</v>
+        <v>2.4046971E-2</v>
       </c>
       <c r="H32">
-        <v>2.5314422E-2</v>
+        <v>7.4353746999999998E-2</v>
       </c>
       <c r="I32">
-        <v>1.0170123E-2</v>
+        <v>1.7797500000000001E-2</v>
       </c>
       <c r="J32">
-        <v>1.0138964E-2</v>
+        <v>2.3992645999999999E-2</v>
       </c>
       <c r="K32">
-        <v>9.6798630000000004E-3</v>
+        <v>3.3842783000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -12651,34 +12651,34 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>3.4185328000000001E-2</v>
+        <v>2.6039848000000001E-2</v>
       </c>
       <c r="C33">
-        <v>2.6620425E-2</v>
+        <v>3.0989388E-2</v>
       </c>
       <c r="D33">
-        <v>3.6199261000000003E-2</v>
+        <v>0.108372442</v>
       </c>
       <c r="E33">
-        <v>0.26735958500000001</v>
+        <v>0.59696221400000005</v>
       </c>
       <c r="F33">
-        <v>8.5503379999999993E-3</v>
+        <v>1.6143790000000002E-2</v>
       </c>
       <c r="G33">
-        <v>2.0452735999999999E-2</v>
+        <v>3.1101265999999999E-2</v>
       </c>
       <c r="H33">
-        <v>2.3773439E-2</v>
+        <v>2.7616398E-2</v>
       </c>
       <c r="I33">
-        <v>2.1568554E-2</v>
+        <v>4.2274385999999997E-2</v>
       </c>
       <c r="J33">
-        <v>0.54190439000000001</v>
+        <v>8.7480783000000006E-2</v>
       </c>
       <c r="K33">
-        <v>1.9386008E-2</v>
+        <v>3.3019513E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -12686,34 +12686,34 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0.22735960799999999</v>
+        <v>3.0694572E-2</v>
       </c>
       <c r="C34">
-        <v>0.47734940100000001</v>
+        <v>0.65628182899999998</v>
       </c>
       <c r="D34">
-        <v>3.9242573000000003E-2</v>
+        <v>0.105964102</v>
       </c>
       <c r="E34">
-        <v>5.5592503000000001E-2</v>
+        <v>9.1915182999999998E-2</v>
       </c>
       <c r="F34">
-        <v>2.5267643999999999E-2</v>
+        <v>1.5922114000000001E-2</v>
       </c>
       <c r="G34">
-        <v>1.9001486000000001E-2</v>
+        <v>1.5978590000000001E-2</v>
       </c>
       <c r="H34">
-        <v>7.0675797999999998E-2</v>
+        <v>1.4064066E-2</v>
       </c>
       <c r="I34">
-        <v>2.4677495000000001E-2</v>
+        <v>2.6192948000000001E-2</v>
       </c>
       <c r="J34">
-        <v>4.0080596000000003E-2</v>
+        <v>2.3542374000000001E-2</v>
       </c>
       <c r="K34">
-        <v>2.0752916E-2</v>
+        <v>1.9444156000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -12721,34 +12721,34 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>9.86537E-3</v>
+        <v>9.3390350000000007E-3</v>
       </c>
       <c r="C35">
-        <v>2.4320288999999998E-2</v>
+        <v>1.0972357E-2</v>
       </c>
       <c r="D35">
-        <v>1.6245066999999998E-2</v>
+        <v>1.0793822999999999E-2</v>
       </c>
       <c r="E35">
-        <v>1.498386E-2</v>
+        <v>1.2811095999999999E-2</v>
       </c>
       <c r="F35">
-        <v>1.8546048999999998E-2</v>
+        <v>1.1469826000000001E-2</v>
       </c>
       <c r="G35">
-        <v>0.70559448000000002</v>
+        <v>0.89822697600000001</v>
       </c>
       <c r="H35">
-        <v>2.6006387999999998E-2</v>
+        <v>9.1960319999999998E-3</v>
       </c>
       <c r="I35">
-        <v>1.6654631E-2</v>
+        <v>1.3178362000000001E-2</v>
       </c>
       <c r="J35">
-        <v>0.142872736</v>
+        <v>1.3326572E-2</v>
       </c>
       <c r="K35">
-        <v>2.4911084999999999E-2</v>
+        <v>1.0686012999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -12756,34 +12756,34 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>7.0034496000000002E-2</v>
+        <v>0.87352651400000003</v>
       </c>
       <c r="C36">
-        <v>2.2949256000000001E-2</v>
+        <v>1.2816561000000001E-2</v>
       </c>
       <c r="D36">
-        <v>5.6332093E-2</v>
+        <v>3.0177012E-2</v>
       </c>
       <c r="E36">
-        <v>0.69194704299999998</v>
+        <v>2.2351583000000001E-2</v>
       </c>
       <c r="F36">
-        <v>1.3008604E-2</v>
+        <v>6.5375900000000002E-3</v>
       </c>
       <c r="G36">
-        <v>1.7332327000000002E-2</v>
+        <v>1.0909412E-2</v>
       </c>
       <c r="H36">
-        <v>5.8030489999999997E-2</v>
+        <v>1.3859031000000001E-2</v>
       </c>
       <c r="I36">
-        <v>2.1092115000000002E-2</v>
+        <v>9.4782700000000004E-3</v>
       </c>
       <c r="J36">
-        <v>3.4935236000000001E-2</v>
+        <v>1.1564039E-2</v>
       </c>
       <c r="K36">
-        <v>1.4338358000000001E-2</v>
+        <v>8.7800399999999994E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -12791,34 +12791,34 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>2.6435844999999999E-2</v>
+        <v>3.1371489000000002E-2</v>
       </c>
       <c r="C37">
-        <v>2.5252515E-2</v>
+        <v>1.8038228E-2</v>
       </c>
       <c r="D37">
-        <v>0.41864255099999997</v>
+        <v>0.80631220299999995</v>
       </c>
       <c r="E37">
-        <v>0.25018322500000001</v>
+        <v>6.4294777999999997E-2</v>
       </c>
       <c r="F37">
-        <v>3.6729179000000001E-2</v>
+        <v>1.1668962999999999E-2</v>
       </c>
       <c r="G37">
-        <v>2.1870699E-2</v>
+        <v>1.1263468E-2</v>
       </c>
       <c r="H37">
-        <v>0.14742527899999999</v>
+        <v>1.9508915000000002E-2</v>
       </c>
       <c r="I37">
-        <v>2.6812604E-2</v>
+        <v>1.4291290999999999E-2</v>
       </c>
       <c r="J37">
-        <v>3.0085207999999999E-2</v>
+        <v>1.2946351E-2</v>
       </c>
       <c r="K37">
-        <v>1.6562912999999999E-2</v>
+        <v>1.0304391E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -12826,34 +12826,34 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>1.1833086E-2</v>
+        <v>1.4483988E-2</v>
       </c>
       <c r="C38">
-        <v>1.1040098E-2</v>
+        <v>1.740966E-2</v>
       </c>
       <c r="D38">
-        <v>1.5682226E-2</v>
+        <v>1.8802461999999999E-2</v>
       </c>
       <c r="E38">
-        <v>1.2232401E-2</v>
+        <v>1.4961505E-2</v>
       </c>
       <c r="F38">
-        <v>1.0794129E-2</v>
+        <v>1.4866374E-2</v>
       </c>
       <c r="G38">
-        <v>0.88813722100000003</v>
+        <v>0.81015074300000001</v>
       </c>
       <c r="H38">
-        <v>1.1924046000000001E-2</v>
+        <v>1.1642301000000001E-2</v>
       </c>
       <c r="I38">
-        <v>1.2097791E-2</v>
+        <v>5.3503334999999999E-2</v>
       </c>
       <c r="J38">
-        <v>1.261872E-2</v>
+        <v>1.7670155E-2</v>
       </c>
       <c r="K38">
-        <v>1.3640285E-2</v>
+        <v>2.6509439999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -12861,34 +12861,34 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>3.2692354E-2</v>
+        <v>2.5595974000000001E-2</v>
       </c>
       <c r="C39">
-        <v>5.9103861000000001E-2</v>
+        <v>0.25529444200000001</v>
       </c>
       <c r="D39">
-        <v>0.128403768</v>
+        <v>9.1337613999999998E-2</v>
       </c>
       <c r="E39">
-        <v>5.9392608999999999E-2</v>
+        <v>0.28724524400000001</v>
       </c>
       <c r="F39">
-        <v>0.19227865299999999</v>
+        <v>7.5219042999999999E-2</v>
       </c>
       <c r="G39">
-        <v>7.2854236000000003E-2</v>
+        <v>5.6688062999999997E-2</v>
       </c>
       <c r="H39">
-        <v>0.136307597</v>
+        <v>3.1527299000000002E-2</v>
       </c>
       <c r="I39">
-        <v>2.8592821000000001E-2</v>
+        <v>4.6834379000000002E-2</v>
       </c>
       <c r="J39">
-        <v>0.25095757800000001</v>
+        <v>7.6960869000000001E-2</v>
       </c>
       <c r="K39">
-        <v>3.941654E-2</v>
+        <v>5.3297073E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -12896,34 +12896,34 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>2.9854318000000001E-2</v>
+        <v>1.6233889000000001E-2</v>
       </c>
       <c r="C40">
-        <v>3.5306413000000002E-2</v>
+        <v>1.6149002999999999E-2</v>
       </c>
       <c r="D40">
-        <v>1.9835306E-2</v>
+        <v>1.3758807E-2</v>
       </c>
       <c r="E40">
-        <v>2.0246934000000001E-2</v>
+        <v>2.2626691000000001E-2</v>
       </c>
       <c r="F40">
-        <v>0.82560145900000004</v>
+        <v>0.84910988799999998</v>
       </c>
       <c r="G40">
-        <v>1.2205176999999999E-2</v>
+        <v>1.1014034000000001E-2</v>
       </c>
       <c r="H40">
-        <v>1.8145372999999999E-2</v>
+        <v>1.9337354000000001E-2</v>
       </c>
       <c r="I40">
-        <v>1.3114357E-2</v>
+        <v>2.3408983000000001E-2</v>
       </c>
       <c r="J40">
-        <v>9.6562909999999991E-3</v>
+        <v>1.027134E-2</v>
       </c>
       <c r="K40">
-        <v>1.6034247000000001E-2</v>
+        <v>1.8089992999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -12931,34 +12931,34 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>0.25198674199999999</v>
+        <v>0.26856225700000003</v>
       </c>
       <c r="C41">
-        <v>0.120009854</v>
+        <v>2.5685237999999999E-2</v>
       </c>
       <c r="D41">
-        <v>3.8293265E-2</v>
+        <v>3.7130833000000002E-2</v>
       </c>
       <c r="E41">
-        <v>0.207114786</v>
+        <v>0.53138196500000001</v>
       </c>
       <c r="F41">
-        <v>0.19878210099999999</v>
+        <v>2.0245315999999999E-2</v>
       </c>
       <c r="G41">
-        <v>2.8589683000000001E-2</v>
+        <v>2.2346554000000001E-2</v>
       </c>
       <c r="H41">
-        <v>7.7086090999999995E-2</v>
+        <v>2.4255734000000001E-2</v>
       </c>
       <c r="I41">
-        <v>2.7297135E-2</v>
+        <v>2.3394979999999999E-2</v>
       </c>
       <c r="J41">
-        <v>2.3870130999999999E-2</v>
+        <v>2.0309770000000001E-2</v>
       </c>
       <c r="K41">
-        <v>2.6970211000000001E-2</v>
+        <v>2.6687493999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -12966,34 +12966,34 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>4.6631049000000001E-2</v>
+        <v>1.6040683E-2</v>
       </c>
       <c r="C42">
-        <v>2.5815368000000002E-2</v>
+        <v>7.4475369999999997E-3</v>
       </c>
       <c r="D42">
-        <v>8.4815009999999996E-2</v>
+        <v>2.3954567E-2</v>
       </c>
       <c r="E42">
-        <v>2.5381892999999999E-2</v>
+        <v>7.3726010000000003E-3</v>
       </c>
       <c r="F42">
-        <v>4.0310401000000003E-2</v>
+        <v>1.0584932999999999E-2</v>
       </c>
       <c r="G42">
-        <v>9.8686448999999996E-2</v>
+        <v>2.0121212999999999E-2</v>
       </c>
       <c r="H42">
-        <v>4.3166135000000001E-2</v>
+        <v>8.2686900000000004E-3</v>
       </c>
       <c r="I42">
-        <v>4.0503262999999998E-2</v>
+        <v>1.1694700000000001E-2</v>
       </c>
       <c r="J42">
-        <v>0.317884475</v>
+        <v>0.87654191299999995</v>
       </c>
       <c r="K42">
-        <v>0.27680590700000002</v>
+        <v>1.7973151E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -13001,34 +13001,34 @@
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1.6027422999999999E-2</v>
+        <v>2.0719811000000001E-2</v>
       </c>
       <c r="C43">
-        <v>1.6964005000000001E-2</v>
+        <v>3.5297789000000003E-2</v>
       </c>
       <c r="D43">
-        <v>8.0331563999999994E-2</v>
+        <v>0.26698544600000002</v>
       </c>
       <c r="E43">
-        <v>1.5039200000000001E-2</v>
+        <v>1.8187089E-2</v>
       </c>
       <c r="F43">
-        <v>1.7644791E-2</v>
+        <v>0.305798709</v>
       </c>
       <c r="G43">
-        <v>1.4320822E-2</v>
+        <v>2.3160968000000001E-2</v>
       </c>
       <c r="H43">
-        <v>1.693855E-2</v>
+        <v>5.2909441000000001E-2</v>
       </c>
       <c r="I43">
-        <v>0.79278570400000004</v>
+        <v>0.209146202</v>
       </c>
       <c r="J43">
-        <v>1.7240050999999999E-2</v>
+        <v>2.9340653000000001E-2</v>
       </c>
       <c r="K43">
-        <v>1.2707978999999999E-2</v>
+        <v>3.8453855000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -13036,34 +13036,34 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>3.3645872E-2</v>
+        <v>1.889712E-2</v>
       </c>
       <c r="C44">
-        <v>1.2913160999999999E-2</v>
+        <v>1.0728685999999999E-2</v>
       </c>
       <c r="D44">
-        <v>1.1395765E-2</v>
+        <v>1.7116103000000001E-2</v>
       </c>
       <c r="E44">
-        <v>1.258249E-2</v>
+        <v>1.1818917E-2</v>
       </c>
       <c r="F44">
-        <v>0.86336702099999996</v>
+        <v>0.87993806600000002</v>
       </c>
       <c r="G44">
-        <v>9.4011570000000003E-3</v>
+        <v>9.9785570000000007E-3</v>
       </c>
       <c r="H44">
-        <v>2.6749153000000001E-2</v>
+        <v>1.6784368000000001E-2</v>
       </c>
       <c r="I44">
-        <v>8.2728969999999995E-3</v>
+        <v>7.8239250000000007E-3</v>
       </c>
       <c r="J44">
-        <v>1.0208705E-2</v>
+        <v>1.0868189E-2</v>
       </c>
       <c r="K44">
-        <v>1.1463783999999999E-2</v>
+        <v>1.6046050999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -13071,34 +13071,34 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>4.4599198E-2</v>
+        <v>6.0218818E-2</v>
       </c>
       <c r="C45">
-        <v>1.8229496000000001E-2</v>
+        <v>1.3683291E-2</v>
       </c>
       <c r="D45">
-        <v>3.3891092999999997E-2</v>
+        <v>3.0050614999999999E-2</v>
       </c>
       <c r="E45">
-        <v>2.2766934999999999E-2</v>
+        <v>1.6466643999999999E-2</v>
       </c>
       <c r="F45">
-        <v>4.0001106000000002E-2</v>
+        <v>1.7554713E-2</v>
       </c>
       <c r="G45">
-        <v>2.4656932999999999E-2</v>
+        <v>1.0500157E-2</v>
       </c>
       <c r="H45">
-        <v>2.9980034999999999E-2</v>
+        <v>3.2929624999999997E-2</v>
       </c>
       <c r="I45">
-        <v>2.0036803999999998E-2</v>
+        <v>2.2986237E-2</v>
       </c>
       <c r="J45">
-        <v>0.61497390299999999</v>
+        <v>1.7515168000000001E-2</v>
       </c>
       <c r="K45">
-        <v>0.150864571</v>
+        <v>0.778094709</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -13106,34 +13106,34 @@
         <v>7</v>
       </c>
       <c r="B46">
-        <v>3.1277802E-2</v>
+        <v>2.0589761000000002E-2</v>
       </c>
       <c r="C46">
-        <v>2.3893554000000001E-2</v>
+        <v>1.2289503E-2</v>
       </c>
       <c r="D46">
-        <v>0.31546017500000001</v>
+        <v>3.3748067999999999E-2</v>
       </c>
       <c r="E46">
-        <v>2.4363367E-2</v>
+        <v>1.165413E-2</v>
       </c>
       <c r="F46">
-        <v>2.9236623999999999E-2</v>
+        <v>1.7109408999999999E-2</v>
       </c>
       <c r="G46">
-        <v>2.3014728000000002E-2</v>
+        <v>1.2531462E-2</v>
       </c>
       <c r="H46">
-        <v>3.3121411000000003E-2</v>
+        <v>3.8378905999999997E-2</v>
       </c>
       <c r="I46">
-        <v>0.41184309099999999</v>
+        <v>0.81127786599999996</v>
       </c>
       <c r="J46">
-        <v>3.1879092999999997E-2</v>
+        <v>1.556046E-2</v>
       </c>
       <c r="K46">
-        <v>7.5910150999999995E-2</v>
+        <v>2.6860399E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -13141,34 +13141,34 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>6.2981023999999997E-2</v>
+        <v>0.75022411300000003</v>
       </c>
       <c r="C47">
-        <v>0.13542973999999999</v>
+        <v>1.3099497E-2</v>
       </c>
       <c r="D47">
-        <v>0.155701548</v>
+        <v>2.1434795E-2</v>
       </c>
       <c r="E47">
-        <v>5.4466840000000002E-2</v>
+        <v>3.6934368000000002E-2</v>
       </c>
       <c r="F47">
-        <v>0.131272167</v>
+        <v>1.6892126E-2</v>
       </c>
       <c r="G47">
-        <v>3.6150590000000003E-2</v>
+        <v>1.5472292E-2</v>
       </c>
       <c r="H47">
-        <v>0.20480810099999999</v>
+        <v>4.3316845E-2</v>
       </c>
       <c r="I47">
-        <v>0.113081001</v>
+        <v>1.9869395000000001E-2</v>
       </c>
       <c r="J47">
-        <v>5.0452023999999998E-2</v>
+        <v>3.5572356999999999E-2</v>
       </c>
       <c r="K47">
-        <v>5.565697E-2</v>
+        <v>4.7184194999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -13176,34 +13176,34 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.317718685</v>
+        <v>0.34819549300000002</v>
       </c>
       <c r="C48">
-        <v>2.5750838000000002E-2</v>
+        <v>3.8499697999999999E-2</v>
       </c>
       <c r="D48">
-        <v>2.1518003000000001E-2</v>
+        <v>4.2099803999999998E-2</v>
       </c>
       <c r="E48">
-        <v>0.48376298000000001</v>
+        <v>0.190533534</v>
       </c>
       <c r="F48">
-        <v>3.9641297999999998E-2</v>
+        <v>0.13079898100000001</v>
       </c>
       <c r="G48">
-        <v>2.2746563000000001E-2</v>
+        <v>2.3375636000000002E-2</v>
       </c>
       <c r="H48">
-        <v>2.3487623999999999E-2</v>
+        <v>0.123348445</v>
       </c>
       <c r="I48">
-        <v>1.9310672000000001E-2</v>
+        <v>3.1927586000000001E-2</v>
       </c>
       <c r="J48">
-        <v>2.3412097E-2</v>
+        <v>3.8359514999999997E-2</v>
       </c>
       <c r="K48">
-        <v>2.2651233E-2</v>
+        <v>3.2861315000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -13211,34 +13211,34 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>0.53232705599999997</v>
+        <v>4.2572423999999998E-2</v>
       </c>
       <c r="C49">
-        <v>2.3254732E-2</v>
+        <v>2.5303955999999999E-2</v>
       </c>
       <c r="D49">
-        <v>3.3297255999999997E-2</v>
+        <v>4.0878764999999997E-2</v>
       </c>
       <c r="E49">
-        <v>0.25997683399999999</v>
+        <v>0.45948684200000001</v>
       </c>
       <c r="F49">
-        <v>1.9028692E-2</v>
+        <v>1.4936197999999999E-2</v>
       </c>
       <c r="G49">
-        <v>2.1774767E-2</v>
+        <v>3.5759009000000001E-2</v>
       </c>
       <c r="H49">
-        <v>2.4427859E-2</v>
+        <v>3.940304E-2</v>
       </c>
       <c r="I49">
-        <v>2.1334079999999998E-2</v>
+        <v>2.3255069E-2</v>
       </c>
       <c r="J49">
-        <v>4.2753438999999997E-2</v>
+        <v>0.28763541599999998</v>
       </c>
       <c r="K49">
-        <v>2.1825265E-2</v>
+        <v>3.0769318E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -13246,34 +13246,34 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>1.2425932000000001E-2</v>
+        <v>2.8472496E-2</v>
       </c>
       <c r="C50">
-        <v>9.5173580000000001E-3</v>
+        <v>1.0655260999999999E-2</v>
       </c>
       <c r="D50">
-        <v>1.0448103E-2</v>
+        <v>2.6910860000000002E-2</v>
       </c>
       <c r="E50">
-        <v>8.9312790000000003E-3</v>
+        <v>1.5947651E-2</v>
       </c>
       <c r="F50">
-        <v>8.9247819999999992E-3</v>
+        <v>1.2790825E-2</v>
       </c>
       <c r="G50">
-        <v>9.8143780000000003E-3</v>
+        <v>1.0126539E-2</v>
       </c>
       <c r="H50">
-        <v>0.90907895599999999</v>
+        <v>0.83848375100000005</v>
       </c>
       <c r="I50">
-        <v>1.0369252000000001E-2</v>
+        <v>1.656593E-2</v>
       </c>
       <c r="J50">
-        <v>1.1356543E-2</v>
+        <v>2.6586243999999998E-2</v>
       </c>
       <c r="K50">
-        <v>9.1334569999999993E-3</v>
+        <v>1.3460438999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -13281,34 +13281,34 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>0.13174599400000001</v>
+        <v>7.2609863999999996E-2</v>
       </c>
       <c r="C51">
-        <v>6.7780367999999994E-2</v>
+        <v>3.5739988E-2</v>
       </c>
       <c r="D51">
-        <v>4.4991571000000001E-2</v>
+        <v>2.3524283999999999E-2</v>
       </c>
       <c r="E51">
-        <v>0.30898976299999997</v>
+        <v>7.6301440999999998E-2</v>
       </c>
       <c r="F51">
-        <v>7.1850829000000005E-2</v>
+        <v>5.8835476999999997E-2</v>
       </c>
       <c r="G51">
-        <v>2.7119687E-2</v>
+        <v>1.9397719000000001E-2</v>
       </c>
       <c r="H51">
-        <v>0.26209217299999998</v>
+        <v>0.65018492900000002</v>
       </c>
       <c r="I51">
-        <v>3.1021167999999998E-2</v>
+        <v>2.3112891E-2</v>
       </c>
       <c r="J51">
-        <v>2.6608654999999998E-2</v>
+        <v>2.0876028000000001E-2</v>
       </c>
       <c r="K51">
-        <v>2.7799760999999999E-2</v>
+        <v>1.9417357E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -13316,34 +13316,34 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>2.1681700000000002E-2</v>
+        <v>1.1879081E-2</v>
       </c>
       <c r="C52">
-        <v>1.22185E-2</v>
+        <v>1.0029094000000001E-2</v>
       </c>
       <c r="D52">
-        <v>1.4940091000000001E-2</v>
+        <v>1.2720703E-2</v>
       </c>
       <c r="E52">
-        <v>0.81924301399999999</v>
+        <v>1.4034089E-2</v>
       </c>
       <c r="F52">
-        <v>1.2998608E-2</v>
+        <v>3.0894805000000001E-2</v>
       </c>
       <c r="G52">
-        <v>1.4362326999999999E-2</v>
+        <v>8.1628320000000001E-3</v>
       </c>
       <c r="H52">
-        <v>6.0002469000000003E-2</v>
+        <v>0.87614124999999998</v>
       </c>
       <c r="I52">
-        <v>1.3860694E-2</v>
+        <v>1.2037084E-2</v>
       </c>
       <c r="J52">
-        <v>1.6121494E-2</v>
+        <v>1.3454961E-2</v>
       </c>
       <c r="K52">
-        <v>1.4571064E-2</v>
+        <v>1.0646106000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -13351,34 +13351,34 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>9.1949977000000002E-2</v>
+        <v>0.37537375099999998</v>
       </c>
       <c r="C53">
-        <v>1.9099806E-2</v>
+        <v>2.1839971E-2</v>
       </c>
       <c r="D53">
-        <v>3.2962094999999997E-2</v>
+        <v>2.8857507000000001E-2</v>
       </c>
       <c r="E53">
-        <v>1.3937089999999999E-2</v>
+        <v>3.6494437999999997E-2</v>
       </c>
       <c r="F53">
-        <v>1.4116708E-2</v>
+        <v>1.6858130999999998E-2</v>
       </c>
       <c r="G53">
-        <v>2.3029913999999999E-2</v>
+        <v>1.8790601000000001E-2</v>
       </c>
       <c r="H53">
-        <v>0.70790344500000002</v>
+        <v>0.17059397700000001</v>
       </c>
       <c r="I53">
-        <v>2.3290592999999998E-2</v>
+        <v>4.4305004000000002E-2</v>
       </c>
       <c r="J53">
-        <v>4.6484917000000001E-2</v>
+        <v>0.23481629800000001</v>
       </c>
       <c r="K53">
-        <v>2.7225376999999999E-2</v>
+        <v>5.2070248999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -13386,34 +13386,34 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>4.0515702000000001E-2</v>
+        <v>1.7448299E-2</v>
       </c>
       <c r="C54">
-        <v>0.82723730799999995</v>
+        <v>0.87143874200000004</v>
       </c>
       <c r="D54">
-        <v>1.7180230000000001E-2</v>
+        <v>9.2771899999999994E-3</v>
       </c>
       <c r="E54">
-        <v>2.2981881999999999E-2</v>
+        <v>1.4408120999999999E-2</v>
       </c>
       <c r="F54">
-        <v>1.8247260000000001E-2</v>
+        <v>2.0235276E-2</v>
       </c>
       <c r="G54">
-        <v>1.2017673E-2</v>
+        <v>9.4362349999999994E-3</v>
       </c>
       <c r="H54">
-        <v>2.3888218999999999E-2</v>
+        <v>2.2732675000000001E-2</v>
       </c>
       <c r="I54">
-        <v>1.4583548999999999E-2</v>
+        <v>1.3834473999999999E-2</v>
       </c>
       <c r="J54">
-        <v>1.1819942999999999E-2</v>
+        <v>8.9187510000000008E-3</v>
       </c>
       <c r="K54">
-        <v>1.152826E-2</v>
+        <v>1.2270237E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -13421,34 +13421,34 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>1.1808882E-2</v>
+        <v>1.0632041E-2</v>
       </c>
       <c r="C55">
-        <v>9.4556620000000001E-3</v>
+        <v>1.0094059000000001E-2</v>
       </c>
       <c r="D55">
-        <v>9.1448099999999997E-3</v>
+        <v>7.3066470000000003E-3</v>
       </c>
       <c r="E55">
-        <v>1.0277753000000001E-2</v>
+        <v>7.4572470000000002E-3</v>
       </c>
       <c r="F55">
-        <v>8.006506E-3</v>
+        <v>6.7571469999999998E-3</v>
       </c>
       <c r="G55">
-        <v>0.90944844499999999</v>
+        <v>0.91035813099999996</v>
       </c>
       <c r="H55">
-        <v>1.081468E-2</v>
+        <v>7.6816669999999997E-3</v>
       </c>
       <c r="I55">
-        <v>8.4662139999999997E-3</v>
+        <v>1.3047885E-2</v>
       </c>
       <c r="J55">
-        <v>1.4479349000000001E-2</v>
+        <v>1.9235757999999999E-2</v>
       </c>
       <c r="K55">
-        <v>8.0977779999999999E-3</v>
+        <v>7.4293390000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -13456,34 +13456,34 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>0.26365020900000002</v>
+        <v>0.17285373800000001</v>
       </c>
       <c r="C56">
-        <v>2.3350619E-2</v>
+        <v>2.0349272000000002E-2</v>
       </c>
       <c r="D56">
-        <v>0.236711696</v>
+        <v>0.55480921299999997</v>
       </c>
       <c r="E56">
-        <v>3.663462E-2</v>
+        <v>1.6452544999999999E-2</v>
       </c>
       <c r="F56">
-        <v>4.1038454000000002E-2</v>
+        <v>4.5751508000000003E-2</v>
       </c>
       <c r="G56">
-        <v>3.4061863999999997E-2</v>
+        <v>1.53382E-2</v>
       </c>
       <c r="H56">
-        <v>0.17091266799999999</v>
+        <v>6.0450553999999997E-2</v>
       </c>
       <c r="I56">
-        <v>3.0671352999999998E-2</v>
+        <v>3.8855646000000001E-2</v>
       </c>
       <c r="J56">
-        <v>0.119119629</v>
+        <v>3.4631301000000003E-2</v>
       </c>
       <c r="K56">
-        <v>4.3848856999999998E-2</v>
+        <v>4.0507991E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -13491,34 +13491,34 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>1.6318616000000001E-2</v>
+        <v>1.2579234999999999E-2</v>
       </c>
       <c r="C57">
-        <v>1.6659882000000001E-2</v>
+        <v>8.8857290000000002E-3</v>
       </c>
       <c r="D57">
-        <v>0.87954282800000005</v>
+        <v>0.86233943700000004</v>
       </c>
       <c r="E57">
-        <v>1.3892154E-2</v>
+        <v>7.2864189999999997E-3</v>
       </c>
       <c r="F57">
-        <v>1.8486697E-2</v>
+        <v>4.2209201000000002E-2</v>
       </c>
       <c r="G57">
-        <v>1.0115808E-2</v>
+        <v>9.8226600000000004E-3</v>
       </c>
       <c r="H57">
-        <v>1.3687444E-2</v>
+        <v>1.1765737E-2</v>
       </c>
       <c r="I57">
-        <v>1.1739965E-2</v>
+        <v>2.1124044000000002E-2</v>
       </c>
       <c r="J57">
-        <v>8.5072979999999999E-3</v>
+        <v>7.4701209999999997E-3</v>
       </c>
       <c r="K57">
-        <v>1.1049316999999999E-2</v>
+        <v>1.6517323E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -13526,34 +13526,34 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>1.4523869999999999E-2</v>
+        <v>1.2010915E-2</v>
       </c>
       <c r="C58">
-        <v>1.0625607E-2</v>
+        <v>7.8139060000000007E-3</v>
       </c>
       <c r="D58">
-        <v>1.1144157E-2</v>
+        <v>1.2705783E-2</v>
       </c>
       <c r="E58">
-        <v>1.1671961E-2</v>
+        <v>1.0383375E-2</v>
       </c>
       <c r="F58">
-        <v>1.1503833E-2</v>
+        <v>8.8843859999999993E-3</v>
       </c>
       <c r="G58">
-        <v>0.87782949200000004</v>
+        <v>0.87510776499999998</v>
       </c>
       <c r="H58">
-        <v>1.4650198999999999E-2</v>
+        <v>1.0919089999999999E-2</v>
       </c>
       <c r="I58">
-        <v>1.0264377999999999E-2</v>
+        <v>2.0301876999999999E-2</v>
       </c>
       <c r="J58">
-        <v>2.3493592000000001E-2</v>
+        <v>1.6850594E-2</v>
       </c>
       <c r="K58">
-        <v>1.4292993E-2</v>
+        <v>2.5022309E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
@@ -13561,34 +13561,34 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>7.5174609999999996E-3</v>
+        <v>1.2475958000000001E-2</v>
       </c>
       <c r="C59">
-        <v>0.93805402500000001</v>
+        <v>0.90746700800000002</v>
       </c>
       <c r="D59">
-        <v>7.7443750000000004E-3</v>
+        <v>8.0681769999999993E-3</v>
       </c>
       <c r="E59">
-        <v>7.8504549999999992E-3</v>
+        <v>8.6792420000000002E-3</v>
       </c>
       <c r="F59">
-        <v>6.592372E-3</v>
+        <v>1.0966432999999999E-2</v>
       </c>
       <c r="G59">
-        <v>5.7048849999999998E-3</v>
+        <v>9.6523609999999999E-3</v>
       </c>
       <c r="H59">
-        <v>6.8015389999999997E-3</v>
+        <v>1.0102887E-2</v>
       </c>
       <c r="I59">
-        <v>7.5533029999999999E-3</v>
+        <v>1.5785293999999998E-2</v>
       </c>
       <c r="J59">
-        <v>6.0621080000000001E-3</v>
+        <v>6.9652860000000002E-3</v>
       </c>
       <c r="K59">
-        <v>6.1194559999999997E-3</v>
+        <v>9.8373650000000007E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -13596,34 +13596,34 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>6.0343817000000001E-2</v>
+        <v>9.9808737999999994E-2</v>
       </c>
       <c r="C60">
-        <v>2.4187206999999999E-2</v>
+        <v>1.8428904999999999E-2</v>
       </c>
       <c r="D60">
-        <v>2.8312054E-2</v>
+        <v>3.6673590999999998E-2</v>
       </c>
       <c r="E60">
-        <v>0.51291608799999999</v>
+        <v>0.70426893199999996</v>
       </c>
       <c r="F60">
-        <v>0.25693893400000001</v>
+        <v>3.9473999000000003E-2</v>
       </c>
       <c r="G60">
-        <v>2.3698751000000001E-2</v>
+        <v>1.7982939E-2</v>
       </c>
       <c r="H60">
-        <v>2.6182207999999998E-2</v>
+        <v>1.85769E-2</v>
       </c>
       <c r="I60">
-        <v>2.2821806E-2</v>
+        <v>1.8248098000000001E-2</v>
       </c>
       <c r="J60">
-        <v>2.285148E-2</v>
+        <v>2.5566693000000001E-2</v>
       </c>
       <c r="K60">
-        <v>2.1747595000000002E-2</v>
+        <v>2.0971142000000002E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -13631,34 +13631,34 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>0.10832222599999999</v>
+        <v>4.6507284000000003E-2</v>
       </c>
       <c r="C61">
-        <v>0.56054031800000004</v>
+        <v>0.82219064200000003</v>
       </c>
       <c r="D61">
-        <v>3.6786433E-2</v>
+        <v>2.3591502E-2</v>
       </c>
       <c r="E61">
-        <v>2.8973544E-2</v>
+        <v>2.1426238E-2</v>
       </c>
       <c r="F61">
-        <v>0.103082627</v>
+        <v>1.2388074000000001E-2</v>
       </c>
       <c r="G61">
-        <v>2.0417325E-2</v>
+        <v>1.2788981E-2</v>
       </c>
       <c r="H61">
-        <v>5.2497732999999998E-2</v>
+        <v>1.0378527E-2</v>
       </c>
       <c r="I61">
-        <v>2.4677431E-2</v>
+        <v>1.6918933000000001E-2</v>
       </c>
       <c r="J61">
-        <v>4.3358654000000003E-2</v>
+        <v>1.9649966000000001E-2</v>
       </c>
       <c r="K61">
-        <v>2.1343764000000001E-2</v>
+        <v>1.4159873E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -13666,34 +13666,34 @@
         <v>8</v>
       </c>
       <c r="B62">
-        <v>0.67011416000000001</v>
+        <v>7.8538469999999999E-2</v>
       </c>
       <c r="C62">
-        <v>2.0104164000000001E-2</v>
+        <v>2.7385762000000001E-2</v>
       </c>
       <c r="D62">
-        <v>4.2893994999999997E-2</v>
+        <v>5.4937686999999999E-2</v>
       </c>
       <c r="E62">
-        <v>0.11738807699999999</v>
+        <v>3.4523230000000002E-2</v>
       </c>
       <c r="F62">
-        <v>2.3662480999999999E-2</v>
+        <v>1.5759448999999998E-2</v>
       </c>
       <c r="G62">
-        <v>1.8115190999999999E-2</v>
+        <v>1.8504255000000001E-2</v>
       </c>
       <c r="H62">
-        <v>2.7914042E-2</v>
+        <v>1.8282105999999999E-2</v>
       </c>
       <c r="I62">
-        <v>2.1060957000000002E-2</v>
+        <v>2.5997975999999999E-2</v>
       </c>
       <c r="J62">
-        <v>4.0747276999999998E-2</v>
+        <v>0.70192563500000005</v>
       </c>
       <c r="K62">
-        <v>1.7999669999999999E-2</v>
+        <v>2.4145382E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -13701,34 +13701,34 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>3.1304404000000001E-2</v>
+        <v>0.12140967699999999</v>
       </c>
       <c r="C63">
-        <v>2.775321E-2</v>
+        <v>3.1820192999999997E-2</v>
       </c>
       <c r="D63">
-        <v>2.7942783999999998E-2</v>
+        <v>6.3000098000000004E-2</v>
       </c>
       <c r="E63">
-        <v>0.25760567200000001</v>
+        <v>0.28041508799999998</v>
       </c>
       <c r="F63">
-        <v>3.5728681999999998E-2</v>
+        <v>4.6744543999999999E-2</v>
       </c>
       <c r="G63">
-        <v>1.7296592E-2</v>
+        <v>3.3210895999999997E-2</v>
       </c>
       <c r="H63">
-        <v>6.3370019E-2</v>
+        <v>3.6675915000000003E-2</v>
       </c>
       <c r="I63">
-        <v>2.8202531999999999E-2</v>
+        <v>0.13195914</v>
       </c>
       <c r="J63">
-        <v>0.488162398</v>
+        <v>0.16897590500000001</v>
       </c>
       <c r="K63">
-        <v>2.2633672000000001E-2</v>
+        <v>8.5788548000000006E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -13736,34 +13736,34 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>6.2877156000000003E-2</v>
+        <v>2.8722461000000001E-2</v>
       </c>
       <c r="C64">
-        <v>1.5911633000000001E-2</v>
+        <v>9.7279570000000006E-3</v>
       </c>
       <c r="D64">
-        <v>1.4101114999999999E-2</v>
+        <v>1.0214066000000001E-2</v>
       </c>
       <c r="E64">
-        <v>3.8302712000000003E-2</v>
+        <v>1.3516245E-2</v>
       </c>
       <c r="F64">
-        <v>0.784598291</v>
+        <v>0.86522865299999996</v>
       </c>
       <c r="G64">
-        <v>1.6963562000000001E-2</v>
+        <v>1.1515485000000001E-2</v>
       </c>
       <c r="H64">
-        <v>1.9266950000000001E-2</v>
+        <v>2.6157336E-2</v>
       </c>
       <c r="I64">
-        <v>1.1562879999999999E-2</v>
+        <v>1.3247683999999999E-2</v>
       </c>
       <c r="J64">
-        <v>1.8645209999999999E-2</v>
+        <v>1.2357635E-2</v>
       </c>
       <c r="K64">
-        <v>1.7770503E-2</v>
+        <v>9.3125039999999992E-3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
@@ -13771,34 +13771,34 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>2.7714893000000001E-2</v>
+        <v>6.9977120000000004E-2</v>
       </c>
       <c r="C65">
-        <v>2.0160879999999999E-2</v>
+        <v>1.8600093000000002E-2</v>
       </c>
       <c r="D65">
-        <v>0.20378696900000001</v>
+        <v>0.62264317300000005</v>
       </c>
       <c r="E65">
-        <v>1.9130853999999999E-2</v>
+        <v>1.9482406000000001E-2</v>
       </c>
       <c r="F65">
-        <v>2.1450542E-2</v>
+        <v>1.8163691999999999E-2</v>
       </c>
       <c r="G65">
-        <v>2.0705771000000001E-2</v>
+        <v>2.0039566000000002E-2</v>
       </c>
       <c r="H65">
-        <v>2.4085445E-2</v>
+        <v>1.4510264E-2</v>
       </c>
       <c r="I65">
-        <v>3.6482385999999999E-2</v>
+        <v>4.8915188999999998E-2</v>
       </c>
       <c r="J65">
-        <v>3.0074456999999999E-2</v>
+        <v>1.9467157999999998E-2</v>
       </c>
       <c r="K65">
-        <v>0.59640777099999998</v>
+        <v>0.14820128699999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -13806,34 +13806,34 @@
         <v>7</v>
       </c>
       <c r="B66">
-        <v>1.4836894E-2</v>
+        <v>1.0366953E-2</v>
       </c>
       <c r="C66">
-        <v>0.77311086699999998</v>
+        <v>0.83224731699999999</v>
       </c>
       <c r="D66">
-        <v>1.8660995999999999E-2</v>
+        <v>1.5920902000000001E-2</v>
       </c>
       <c r="E66">
-        <v>1.3830031E-2</v>
+        <v>9.1069930000000007E-3</v>
       </c>
       <c r="F66">
-        <v>1.7923735E-2</v>
+        <v>1.0924811E-2</v>
       </c>
       <c r="G66">
-        <v>2.1197420000000002E-2</v>
+        <v>2.1927919000000001E-2</v>
       </c>
       <c r="H66">
-        <v>1.5791861000000001E-2</v>
+        <v>8.6505699999999998E-3</v>
       </c>
       <c r="I66">
-        <v>9.5187463E-2</v>
+        <v>5.8156463999999998E-2</v>
       </c>
       <c r="J66">
-        <v>1.1799015E-2</v>
+        <v>1.4067263E-2</v>
       </c>
       <c r="K66">
-        <v>1.7661693999999999E-2</v>
+        <v>1.8630717000000001E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -13841,34 +13841,34 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>3.8488152999999997E-2</v>
+        <v>1.7099713999999998E-2</v>
       </c>
       <c r="C67">
-        <v>2.0671314999999999E-2</v>
+        <v>2.2548816999999999E-2</v>
       </c>
       <c r="D67">
-        <v>5.2894167999999998E-2</v>
+        <v>3.6073133E-2</v>
       </c>
       <c r="E67">
-        <v>2.8382428000000001E-2</v>
+        <v>3.0963382000000001E-2</v>
       </c>
       <c r="F67">
-        <v>2.7312185999999999E-2</v>
+        <v>1.7957145000000001E-2</v>
       </c>
       <c r="G67">
-        <v>0.19668664</v>
+        <v>0.22943778300000001</v>
       </c>
       <c r="H67">
-        <v>3.5200503000000001E-2</v>
+        <v>2.5917169E-2</v>
       </c>
       <c r="I67">
-        <v>0.107798882</v>
+        <v>6.1023813000000003E-2</v>
       </c>
       <c r="J67">
-        <v>4.0639937000000001E-2</v>
+        <v>3.8818142999999999E-2</v>
       </c>
       <c r="K67">
-        <v>0.45192575499999998</v>
+        <v>0.520160913</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
@@ -13876,34 +13876,34 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>9.4289500000000002E-3</v>
+        <v>2.3166553999999999E-2</v>
       </c>
       <c r="C68">
-        <v>8.3203530000000008E-3</v>
+        <v>1.3951725E-2</v>
       </c>
       <c r="D68">
-        <v>6.4798269999999996E-3</v>
+        <v>2.0357627E-2</v>
       </c>
       <c r="E68">
-        <v>0.92460101800000005</v>
+        <v>0.77456533900000002</v>
       </c>
       <c r="F68">
-        <v>1.4078448E-2</v>
+        <v>1.2669501999999999E-2</v>
       </c>
       <c r="G68">
-        <v>7.24948E-3</v>
+        <v>1.2189284E-2</v>
       </c>
       <c r="H68">
-        <v>7.3461000000000004E-3</v>
+        <v>1.2269828E-2</v>
       </c>
       <c r="I68">
-        <v>7.1133180000000004E-3</v>
+        <v>1.4274261999999999E-2</v>
       </c>
       <c r="J68">
-        <v>6.711E-3</v>
+        <v>9.9923126000000001E-2</v>
       </c>
       <c r="K68">
-        <v>8.67157E-3</v>
+        <v>1.6632708E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -13911,34 +13911,34 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>0.14342424300000001</v>
+        <v>0.62744390999999999</v>
       </c>
       <c r="C69">
-        <v>3.00576E-2</v>
+        <v>2.0202960999999998E-2</v>
       </c>
       <c r="D69">
-        <v>5.3508396999999999E-2</v>
+        <v>8.0097875999999998E-2</v>
       </c>
       <c r="E69">
-        <v>0.31515127399999998</v>
+        <v>3.9585490000000001E-2</v>
       </c>
       <c r="F69">
-        <v>4.3803986000000003E-2</v>
+        <v>2.3493025000000001E-2</v>
       </c>
       <c r="G69">
-        <v>2.0029159000000001E-2</v>
+        <v>2.8594211000000001E-2</v>
       </c>
       <c r="H69">
-        <v>4.4340352999999999E-2</v>
+        <v>3.6857918000000003E-2</v>
       </c>
       <c r="I69">
-        <v>3.3671521000000003E-2</v>
+        <v>3.3746287E-2</v>
       </c>
       <c r="J69">
-        <v>0.28942483699999999</v>
+        <v>4.9403998999999997E-2</v>
       </c>
       <c r="K69">
-        <v>2.6588687999999999E-2</v>
+        <v>6.0574342000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
@@ -13946,34 +13946,34 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>1.1794162E-2</v>
+        <v>0.29992765199999999</v>
       </c>
       <c r="C70">
-        <v>1.4267541E-2</v>
+        <v>1.6633098999999998E-2</v>
       </c>
       <c r="D70">
-        <v>1.032953E-2</v>
+        <v>2.1708377000000001E-2</v>
       </c>
       <c r="E70">
-        <v>0.81614869800000001</v>
+        <v>0.38744029400000002</v>
       </c>
       <c r="F70">
-        <v>1.9578733000000001E-2</v>
+        <v>4.1130722000000002E-2</v>
       </c>
       <c r="G70">
-        <v>1.2918748000000001E-2</v>
+        <v>2.5996209999999999E-2</v>
       </c>
       <c r="H70">
-        <v>6.5830499000000001E-2</v>
+        <v>0.141545221</v>
       </c>
       <c r="I70">
-        <v>1.3923704E-2</v>
+        <v>1.7840703999999999E-2</v>
       </c>
       <c r="J70">
-        <v>1.9610929999999999E-2</v>
+        <v>2.7464986E-2</v>
       </c>
       <c r="K70">
-        <v>1.5597363E-2</v>
+        <v>2.0312812E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
@@ -13981,34 +13981,34 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>7.8856810999999999E-2</v>
+        <v>0.31699803500000001</v>
       </c>
       <c r="C71">
-        <v>2.3689233000000001E-2</v>
+        <v>1.6825092999999999E-2</v>
       </c>
       <c r="D71">
-        <v>7.7324404999999999E-2</v>
+        <v>0.14259381600000001</v>
       </c>
       <c r="E71">
-        <v>0.54898107100000004</v>
+        <v>0.32678145199999997</v>
       </c>
       <c r="F71">
-        <v>9.0582676000000001E-2</v>
+        <v>3.3182625E-2</v>
       </c>
       <c r="G71">
-        <v>2.0161566999999998E-2</v>
+        <v>2.1508545E-2</v>
       </c>
       <c r="H71">
-        <v>3.3064059999999999E-2</v>
+        <v>2.3220273E-2</v>
       </c>
       <c r="I71">
-        <v>4.3403361000000001E-2</v>
+        <v>5.1269098999999999E-2</v>
       </c>
       <c r="J71">
-        <v>4.2986888000000001E-2</v>
+        <v>1.8081255000000001E-2</v>
       </c>
       <c r="K71">
-        <v>4.0949970000000002E-2</v>
+        <v>4.9539864000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
@@ -14016,34 +14016,34 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>0.120248169</v>
+        <v>0.25340768699999999</v>
       </c>
       <c r="C72">
-        <v>2.6938090000000001E-2</v>
+        <v>3.1756263E-2</v>
       </c>
       <c r="D72">
-        <v>3.1714682000000001E-2</v>
+        <v>1.8788854000000001E-2</v>
       </c>
       <c r="E72">
-        <v>0.57651788000000004</v>
+        <v>0.384494752</v>
       </c>
       <c r="F72">
-        <v>5.3354137000000003E-2</v>
+        <v>2.6140739999999999E-2</v>
       </c>
       <c r="G72">
-        <v>2.3176014000000002E-2</v>
+        <v>2.5702869999999999E-2</v>
       </c>
       <c r="H72">
-        <v>8.4223591E-2</v>
+        <v>2.9227686999999999E-2</v>
       </c>
       <c r="I72">
-        <v>2.2779352999999999E-2</v>
+        <v>1.7214390999999999E-2</v>
       </c>
       <c r="J72">
-        <v>3.2230663999999999E-2</v>
+        <v>0.18887588399999999</v>
       </c>
       <c r="K72">
-        <v>2.8817466999999999E-2</v>
+        <v>2.4390912000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
@@ -14051,34 +14051,34 @@
         <v>8</v>
       </c>
       <c r="B73">
-        <v>5.5239476000000003E-2</v>
+        <v>6.3474081000000002E-2</v>
       </c>
       <c r="C73">
-        <v>1.9254461E-2</v>
+        <v>2.6812872000000001E-2</v>
       </c>
       <c r="D73">
-        <v>5.4816733999999999E-2</v>
+        <v>0.17371262600000001</v>
       </c>
       <c r="E73">
-        <v>4.4493261999999999E-2</v>
+        <v>5.1080380000000002E-2</v>
       </c>
       <c r="F73">
-        <v>3.7216838000000002E-2</v>
+        <v>2.7615707E-2</v>
       </c>
       <c r="G73">
-        <v>1.4588278999999999E-2</v>
+        <v>3.8368668000000002E-2</v>
       </c>
       <c r="H73">
-        <v>7.3586285000000001E-2</v>
+        <v>7.4091515999999996E-2</v>
       </c>
       <c r="I73">
-        <v>2.3328887E-2</v>
+        <v>5.7431365999999998E-2</v>
       </c>
       <c r="J73">
-        <v>0.65388512600000004</v>
+        <v>5.7665326000000003E-2</v>
       </c>
       <c r="K73">
-        <v>2.3590633999999999E-2</v>
+        <v>0.42974743199999998</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
@@ -14086,34 +14086,34 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>7.3862320000000004E-3</v>
+        <v>1.1352668999999999E-2</v>
       </c>
       <c r="C74">
-        <v>0.92947393700000003</v>
+        <v>0.87969887300000005</v>
       </c>
       <c r="D74">
-        <v>8.8103350000000007E-3</v>
+        <v>1.5585697000000001E-2</v>
       </c>
       <c r="E74">
-        <v>7.7887599999999996E-3</v>
+        <v>8.2659329999999996E-3</v>
       </c>
       <c r="F74">
-        <v>8.7153549999999993E-3</v>
+        <v>9.1920990000000004E-3</v>
       </c>
       <c r="G74">
-        <v>7.1314489999999998E-3</v>
+        <v>8.5443789999999995E-3</v>
       </c>
       <c r="H74">
-        <v>7.4949609999999996E-3</v>
+        <v>9.8018340000000006E-3</v>
       </c>
       <c r="I74">
-        <v>9.3720350000000008E-3</v>
+        <v>3.3463653000000003E-2</v>
       </c>
       <c r="J74">
-        <v>7.1880599999999996E-3</v>
+        <v>9.1162599999999993E-3</v>
       </c>
       <c r="K74">
-        <v>6.6389329999999996E-3</v>
+        <v>1.4978615000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -14121,34 +14121,34 @@
         <v>5</v>
       </c>
       <c r="B75">
-        <v>8.0478370000000004E-3</v>
+        <v>1.4931936E-2</v>
       </c>
       <c r="C75">
-        <v>1.1704922E-2</v>
+        <v>1.6310901999999999E-2</v>
       </c>
       <c r="D75">
-        <v>9.3434650000000005E-3</v>
+        <v>2.1721387000000002E-2</v>
       </c>
       <c r="E75">
-        <v>7.3420270000000001E-3</v>
+        <v>1.5377447000000001E-2</v>
       </c>
       <c r="F75">
-        <v>8.7391599999999993E-3</v>
+        <v>1.4690778E-2</v>
       </c>
       <c r="G75">
-        <v>0.91632616499999997</v>
+        <v>0.73292863399999997</v>
       </c>
       <c r="H75">
-        <v>9.9112409999999995E-3</v>
+        <v>1.3915228E-2</v>
       </c>
       <c r="I75">
-        <v>6.4997550000000003E-3</v>
+        <v>1.8015586E-2</v>
       </c>
       <c r="J75">
-        <v>1.4726806E-2</v>
+        <v>0.12766782900000001</v>
       </c>
       <c r="K75">
-        <v>7.3586329999999998E-3</v>
+        <v>2.4440281000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
@@ -14156,34 +14156,34 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>0.21955397700000001</v>
+        <v>0.70354479599999997</v>
       </c>
       <c r="C76">
-        <v>1.9773302999999999E-2</v>
+        <v>1.2551099E-2</v>
       </c>
       <c r="D76">
-        <v>2.393961E-2</v>
+        <v>1.8549643000000001E-2</v>
       </c>
       <c r="E76">
-        <v>0.58844739199999996</v>
+        <v>0.15391421299999999</v>
       </c>
       <c r="F76">
-        <v>2.7215118E-2</v>
+        <v>1.9978982999999999E-2</v>
       </c>
       <c r="G76">
-        <v>2.0172830999999999E-2</v>
+        <v>1.7644057000000001E-2</v>
       </c>
       <c r="H76">
-        <v>3.0059703E-2</v>
+        <v>2.3872451999999999E-2</v>
       </c>
       <c r="I76">
-        <v>1.8936980999999999E-2</v>
+        <v>1.1605112000000001E-2</v>
       </c>
       <c r="J76">
-        <v>3.0366542E-2</v>
+        <v>2.6816987E-2</v>
       </c>
       <c r="K76">
-        <v>2.1534524999999999E-2</v>
+        <v>1.1522678E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
@@ -14191,34 +14191,34 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>1.9482871999999998E-2</v>
+        <v>1.6901055000000002E-2</v>
       </c>
       <c r="C77">
-        <v>1.9681127999999999E-2</v>
+        <v>1.3903419E-2</v>
       </c>
       <c r="D77">
-        <v>0.72482758800000002</v>
+        <v>0.76291012800000002</v>
       </c>
       <c r="E77">
-        <v>1.2712375999999999E-2</v>
+        <v>1.7177166000000001E-2</v>
       </c>
       <c r="F77">
-        <v>1.6682460999999999E-2</v>
+        <v>1.5719671000000001E-2</v>
       </c>
       <c r="G77">
-        <v>2.1867108E-2</v>
+        <v>1.6459089E-2</v>
       </c>
       <c r="H77">
-        <v>7.0474006000000006E-2</v>
+        <v>3.6438963999999997E-2</v>
       </c>
       <c r="I77">
-        <v>3.2192193000000001E-2</v>
+        <v>4.9164113000000002E-2</v>
       </c>
       <c r="J77">
-        <v>5.1347445999999998E-2</v>
+        <v>1.52549E-2</v>
       </c>
       <c r="K77">
-        <v>3.0732836999999999E-2</v>
+        <v>5.6071501000000003E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
@@ -14226,34 +14226,34 @@
         <v>5</v>
       </c>
       <c r="B78">
-        <v>2.0741908E-2</v>
+        <v>9.6307470000000003E-3</v>
       </c>
       <c r="C78">
-        <v>2.3228228E-2</v>
+        <v>7.0090630000000003E-3</v>
       </c>
       <c r="D78">
-        <v>3.3028834E-2</v>
+        <v>1.184662E-2</v>
       </c>
       <c r="E78">
-        <v>1.6652285999999999E-2</v>
+        <v>8.7909500000000005E-3</v>
       </c>
       <c r="F78">
-        <v>2.1477703000000001E-2</v>
+        <v>9.3907709999999991E-3</v>
       </c>
       <c r="G78">
-        <v>0.68401873099999999</v>
+        <v>0.91588687899999999</v>
       </c>
       <c r="H78">
-        <v>2.228084E-2</v>
+        <v>6.765638E-3</v>
       </c>
       <c r="I78">
-        <v>1.7641141999999999E-2</v>
+        <v>8.8767659999999995E-3</v>
       </c>
       <c r="J78">
-        <v>0.139428422</v>
+        <v>1.0451874E-2</v>
       </c>
       <c r="K78">
-        <v>2.1501867000000001E-2</v>
+        <v>1.1350628999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -14261,34 +14261,34 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>1.059438E-2</v>
+        <v>1.5210379E-2</v>
       </c>
       <c r="C79">
-        <v>0.90362060099999997</v>
+        <v>0.86084747299999997</v>
       </c>
       <c r="D79">
-        <v>1.2405756E-2</v>
+        <v>1.6436622000000001E-2</v>
       </c>
       <c r="E79">
-        <v>9.9256550000000002E-3</v>
+        <v>1.6863006999999999E-2</v>
       </c>
       <c r="F79">
-        <v>1.7570760000000001E-2</v>
+        <v>2.8014362000000001E-2</v>
       </c>
       <c r="G79">
-        <v>8.7386749999999996E-3</v>
+        <v>9.914394E-3</v>
       </c>
       <c r="H79">
-        <v>9.9746190000000005E-3</v>
+        <v>9.3521660000000003E-3</v>
       </c>
       <c r="I79">
-        <v>1.0160517000000001E-2</v>
+        <v>1.5762242999999999E-2</v>
       </c>
       <c r="J79">
-        <v>9.0560950000000001E-3</v>
+        <v>1.031374E-2</v>
       </c>
       <c r="K79">
-        <v>7.9529300000000004E-3</v>
+        <v>1.7285569000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -14296,34 +14296,34 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>0.85593026900000002</v>
+        <v>0.17130631199999999</v>
       </c>
       <c r="C80">
-        <v>1.2984734E-2</v>
+        <v>7.9377875000000001E-2</v>
       </c>
       <c r="D80">
-        <v>1.5596362000000001E-2</v>
+        <v>4.4058981999999997E-2</v>
       </c>
       <c r="E80">
-        <v>1.8865388E-2</v>
+        <v>8.2021630999999998E-2</v>
       </c>
       <c r="F80">
-        <v>1.3454453999999999E-2</v>
+        <v>0.37420609599999999</v>
       </c>
       <c r="G80">
-        <v>1.1586502E-2</v>
+        <v>3.1066232999999999E-2</v>
       </c>
       <c r="H80">
-        <v>2.3520765999999999E-2</v>
+        <v>5.2754405999999997E-2</v>
       </c>
       <c r="I80">
-        <v>1.5711409999999999E-2</v>
+        <v>9.0492867000000005E-2</v>
       </c>
       <c r="J80">
-        <v>2.0034669000000001E-2</v>
+        <v>2.2650257E-2</v>
       </c>
       <c r="K80">
-        <v>1.2315583999999999E-2</v>
+        <v>5.2065267999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
@@ -14331,34 +14331,34 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>1.9763431000000001E-2</v>
+        <v>0.80925291799999999</v>
       </c>
       <c r="C81">
-        <v>1.1300124999999999E-2</v>
+        <v>7.7235250000000002E-3</v>
       </c>
       <c r="D81">
-        <v>1.2860678E-2</v>
+        <v>2.0296906999999999E-2</v>
       </c>
       <c r="E81">
-        <v>0.84516513299999996</v>
+        <v>8.1430256000000006E-2</v>
       </c>
       <c r="F81">
-        <v>3.6477758999999998E-2</v>
+        <v>1.4484779E-2</v>
       </c>
       <c r="G81">
-        <v>1.6393688999999999E-2</v>
+        <v>1.3338749E-2</v>
       </c>
       <c r="H81">
-        <v>1.5623744E-2</v>
+        <v>1.6932735000000001E-2</v>
       </c>
       <c r="I81">
-        <v>1.3310038999999999E-2</v>
+        <v>1.1828221E-2</v>
       </c>
       <c r="J81">
-        <v>1.8857769999999999E-2</v>
+        <v>1.0918305E-2</v>
       </c>
       <c r="K81">
-        <v>1.0247621E-2</v>
+        <v>1.379355E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -14366,34 +14366,34 @@
         <v>8</v>
       </c>
       <c r="B82">
-        <v>3.0345039000000001E-2</v>
+        <v>0.11786619600000001</v>
       </c>
       <c r="C82">
-        <v>3.8244061000000003E-2</v>
+        <v>3.6048721999999998E-2</v>
       </c>
       <c r="D82">
-        <v>4.1512039000000001E-2</v>
+        <v>0.132899716</v>
       </c>
       <c r="E82">
-        <v>4.6617790999999999E-2</v>
+        <v>3.2712064999999999E-2</v>
       </c>
       <c r="F82">
-        <v>1.9742854000000001E-2</v>
+        <v>1.8340392E-2</v>
       </c>
       <c r="G82">
-        <v>8.9425974000000005E-2</v>
+        <v>5.6424450000000001E-2</v>
       </c>
       <c r="H82">
-        <v>4.0792162999999999E-2</v>
+        <v>2.9345974E-2</v>
       </c>
       <c r="I82">
-        <v>4.3970302000000003E-2</v>
+        <v>3.2559451000000003E-2</v>
       </c>
       <c r="J82">
-        <v>0.16039823</v>
+        <v>0.51439875400000001</v>
       </c>
       <c r="K82">
-        <v>0.48895159399999999</v>
+        <v>2.9404283E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -14401,34 +14401,34 @@
         <v>7</v>
       </c>
       <c r="B83">
-        <v>3.7433903999999997E-2</v>
+        <v>0.111535177</v>
       </c>
       <c r="C83">
-        <v>3.9663101999999999E-2</v>
+        <v>0.28827196399999999</v>
       </c>
       <c r="D83">
-        <v>0.20272985099999999</v>
+        <v>0.15364615600000001</v>
       </c>
       <c r="E83">
-        <v>2.4287572E-2</v>
+        <v>0.125582308</v>
       </c>
       <c r="F83">
-        <v>2.3990932999999999E-2</v>
+        <v>2.4182174000000001E-2</v>
       </c>
       <c r="G83">
-        <v>2.0657200000000001E-2</v>
+        <v>3.2230969999999998E-2</v>
       </c>
       <c r="H83">
-        <v>1.9542067999999999E-2</v>
+        <v>3.5197958000000001E-2</v>
       </c>
       <c r="I83">
-        <v>0.58582067500000001</v>
+        <v>8.4974855000000002E-2</v>
       </c>
       <c r="J83">
-        <v>2.9651215000000002E-2</v>
+        <v>8.8560313000000002E-2</v>
       </c>
       <c r="K83">
-        <v>1.6223385999999999E-2</v>
+        <v>5.5818095999999998E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
@@ -14436,34 +14436,34 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>4.1246902000000002E-2</v>
+        <v>2.5753037999999999E-2</v>
       </c>
       <c r="C84">
-        <v>2.1369182E-2</v>
+        <v>3.3992752000000001E-2</v>
       </c>
       <c r="D84">
-        <v>2.2900268000000001E-2</v>
+        <v>2.8334726000000001E-2</v>
       </c>
       <c r="E84">
-        <v>0.284461617</v>
+        <v>0.11617889300000001</v>
       </c>
       <c r="F84">
-        <v>0.49361217000000002</v>
+        <v>0.57618170999999996</v>
       </c>
       <c r="G84">
-        <v>2.8756119E-2</v>
+        <v>2.6456242000000001E-2</v>
       </c>
       <c r="H84">
-        <v>3.5876192000000001E-2</v>
+        <v>0.118023925</v>
       </c>
       <c r="I84">
-        <v>2.4194587E-2</v>
+        <v>3.6846853999999998E-2</v>
       </c>
       <c r="J84">
-        <v>2.8175209E-2</v>
+        <v>1.8973961000000001E-2</v>
       </c>
       <c r="K84">
-        <v>1.9407746999999999E-2</v>
+        <v>1.9257814000000002E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
@@ -14471,34 +14471,34 @@
         <v>9</v>
       </c>
       <c r="B85">
-        <v>5.0946362000000002E-2</v>
+        <v>2.6664383999999999E-2</v>
       </c>
       <c r="C85">
-        <v>1.6403378999999999E-2</v>
+        <v>2.1632499999999999E-2</v>
       </c>
       <c r="D85">
-        <v>0.71137708399999999</v>
+        <v>0.27626100199999998</v>
       </c>
       <c r="E85">
-        <v>2.3637913E-2</v>
+        <v>2.7997699000000001E-2</v>
       </c>
       <c r="F85">
-        <v>1.2867318000000001E-2</v>
+        <v>1.2788758000000001E-2</v>
       </c>
       <c r="G85">
-        <v>2.1188192000000002E-2</v>
+        <v>1.4951513E-2</v>
       </c>
       <c r="H85">
-        <v>4.0374673999999999E-2</v>
+        <v>1.8281012999999999E-2</v>
       </c>
       <c r="I85">
-        <v>4.3187207999999998E-2</v>
+        <v>5.4904926999999999E-2</v>
       </c>
       <c r="J85">
-        <v>2.8292037999999999E-2</v>
+        <v>1.6967474E-2</v>
       </c>
       <c r="K85">
-        <v>5.1725808999999998E-2</v>
+        <v>0.52955067199999994</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -14506,34 +14506,34 @@
         <v>7</v>
       </c>
       <c r="B86">
-        <v>1.9327383E-2</v>
+        <v>2.0235159999999999E-2</v>
       </c>
       <c r="C86">
-        <v>8.5174259999999998E-3</v>
+        <v>1.1065288E-2</v>
       </c>
       <c r="D86">
-        <v>1.7494196E-2</v>
+        <v>2.7299016999999998E-2</v>
       </c>
       <c r="E86">
-        <v>1.2636803E-2</v>
+        <v>1.1303090999999999E-2</v>
       </c>
       <c r="F86">
-        <v>9.3462419999999994E-3</v>
+        <v>1.168074E-2</v>
       </c>
       <c r="G86">
-        <v>1.0188789E-2</v>
+        <v>1.0157556999999999E-2</v>
       </c>
       <c r="H86">
-        <v>1.1006816000000001E-2</v>
+        <v>1.2730381000000001E-2</v>
       </c>
       <c r="I86">
-        <v>0.88957834199999997</v>
+        <v>0.86453515299999995</v>
       </c>
       <c r="J86">
-        <v>1.2791377E-2</v>
+        <v>9.2056320000000001E-3</v>
       </c>
       <c r="K86">
-        <v>9.1126950000000005E-3</v>
+        <v>2.1787943000000001E-2</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -14541,34 +14541,34 @@
         <v>9</v>
       </c>
       <c r="B87">
-        <v>9.1284030000000002E-3</v>
+        <v>0.11819674099999999</v>
       </c>
       <c r="C87">
-        <v>7.9422030000000001E-3</v>
+        <v>1.6550572999999999E-2</v>
       </c>
       <c r="D87">
-        <v>7.9243089999999992E-3</v>
+        <v>6.5063514000000003E-2</v>
       </c>
       <c r="E87">
-        <v>9.1978890000000008E-3</v>
+        <v>2.9029768000000001E-2</v>
       </c>
       <c r="F87">
-        <v>6.0767809999999998E-3</v>
+        <v>1.8043627999999999E-2</v>
       </c>
       <c r="G87">
-        <v>9.1117030000000005E-3</v>
+        <v>1.4510745E-2</v>
       </c>
       <c r="H87">
-        <v>8.6579789999999997E-3</v>
+        <v>1.6731985000000001E-2</v>
       </c>
       <c r="I87">
-        <v>1.2219791000000001E-2</v>
+        <v>3.1021362E-2</v>
       </c>
       <c r="J87">
-        <v>9.9192399999999993E-3</v>
+        <v>1.8032652999999999E-2</v>
       </c>
       <c r="K87">
-        <v>0.91982173899999997</v>
+        <v>0.67281901799999999</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
@@ -14576,34 +14576,34 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>5.1331534999999998E-2</v>
+        <v>0.127147019</v>
       </c>
       <c r="C88">
-        <v>2.6807628999999999E-2</v>
+        <v>1.9121797999999999E-2</v>
       </c>
       <c r="D88">
-        <v>0.462738961</v>
+        <v>0.172449976</v>
       </c>
       <c r="E88">
-        <v>4.8219241000000003E-2</v>
+        <v>0.47276943900000001</v>
       </c>
       <c r="F88">
-        <v>2.0664683999999999E-2</v>
+        <v>1.5352229E-2</v>
       </c>
       <c r="G88">
-        <v>2.9754949999999999E-2</v>
+        <v>2.4300071999999999E-2</v>
       </c>
       <c r="H88">
-        <v>0.142867833</v>
+        <v>3.7747971999999998E-2</v>
       </c>
       <c r="I88">
-        <v>5.1267545999999997E-2</v>
+        <v>1.8978423000000001E-2</v>
       </c>
       <c r="J88">
-        <v>0.147140726</v>
+        <v>8.9377313999999999E-2</v>
       </c>
       <c r="K88">
-        <v>1.9206920999999998E-2</v>
+        <v>2.2755734999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
@@ -14611,34 +14611,34 @@
         <v>2</v>
       </c>
       <c r="B89">
-        <v>7.3127130000000002E-3</v>
+        <v>2.0999891999999999E-2</v>
       </c>
       <c r="C89">
-        <v>6.8487519999999996E-3</v>
+        <v>5.8845720000000002E-3</v>
       </c>
       <c r="D89">
-        <v>0.93240165699999999</v>
+        <v>0.90992146699999998</v>
       </c>
       <c r="E89">
-        <v>1.0501905000000001E-2</v>
+        <v>1.0392545E-2</v>
       </c>
       <c r="F89">
-        <v>5.9362479999999999E-3</v>
+        <v>7.3514100000000001E-3</v>
       </c>
       <c r="G89">
-        <v>8.4915040000000004E-3</v>
+        <v>7.5129690000000004E-3</v>
       </c>
       <c r="H89">
-        <v>7.1338210000000003E-3</v>
+        <v>8.9297709999999995E-3</v>
       </c>
       <c r="I89">
-        <v>6.8789869999999996E-3</v>
+        <v>7.0031169999999997E-3</v>
       </c>
       <c r="J89">
-        <v>8.0186860000000006E-3</v>
+        <v>1.0810614E-2</v>
       </c>
       <c r="K89">
-        <v>6.4757699999999996E-3</v>
+        <v>1.119356E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
@@ -14646,34 +14646,34 @@
         <v>6</v>
       </c>
       <c r="B90">
-        <v>7.1130626000000002E-2</v>
+        <v>2.0256502999999999E-2</v>
       </c>
       <c r="C90">
-        <v>3.4787397999999997E-2</v>
+        <v>2.5731651000000001E-2</v>
       </c>
       <c r="D90">
-        <v>0.16778662799999999</v>
+        <v>1.6906022999999999E-2</v>
       </c>
       <c r="E90">
-        <v>0.14399667099999999</v>
+        <v>0.705215394</v>
       </c>
       <c r="F90">
-        <v>1.9706043999999999E-2</v>
+        <v>2.6664E-2</v>
       </c>
       <c r="G90">
-        <v>3.5212602000000003E-2</v>
+        <v>1.7582634E-2</v>
       </c>
       <c r="H90">
-        <v>0.16866519999999999</v>
+        <v>9.8484546000000006E-2</v>
       </c>
       <c r="I90">
-        <v>3.6805591999999998E-2</v>
+        <v>2.1521181E-2</v>
       </c>
       <c r="J90">
-        <v>0.29624059800000002</v>
+        <v>4.6640980999999998E-2</v>
       </c>
       <c r="K90">
-        <v>2.5668653E-2</v>
+        <v>2.0997040000000002E-2</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
@@ -14681,34 +14681,34 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>1.5455435999999999E-2</v>
+        <v>5.2239303000000001E-2</v>
       </c>
       <c r="C91">
-        <v>1.2753405000000001E-2</v>
+        <v>1.3351075E-2</v>
       </c>
       <c r="D91">
-        <v>4.8932198000000003E-2</v>
+        <v>4.2302012E-2</v>
       </c>
       <c r="E91">
-        <v>0.84451246300000005</v>
+        <v>0.79358691000000003</v>
       </c>
       <c r="F91">
-        <v>9.5659109999999999E-3</v>
+        <v>1.3343495E-2</v>
       </c>
       <c r="G91">
-        <v>1.3709064999999999E-2</v>
+        <v>1.4418693E-2</v>
       </c>
       <c r="H91">
-        <v>1.2756142E-2</v>
+        <v>2.1450639000000001E-2</v>
       </c>
       <c r="I91">
-        <v>1.2544168E-2</v>
+        <v>1.1592847E-2</v>
       </c>
       <c r="J91">
-        <v>1.8446093E-2</v>
+        <v>1.8426508000000001E-2</v>
       </c>
       <c r="K91">
-        <v>1.1325142999999999E-2</v>
+        <v>1.9288590000000001E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
@@ -14716,34 +14716,34 @@
         <v>6</v>
       </c>
       <c r="B92">
-        <v>2.6447880999999999E-2</v>
+        <v>4.6008077000000001E-2</v>
       </c>
       <c r="C92">
-        <v>2.8320959E-2</v>
+        <v>1.724113E-2</v>
       </c>
       <c r="D92">
-        <v>0.113825299</v>
+        <v>2.6272126E-2</v>
       </c>
       <c r="E92">
-        <v>5.3758617000000002E-2</v>
+        <v>0.73703640699999995</v>
       </c>
       <c r="F92">
-        <v>2.4585468999999999E-2</v>
+        <v>1.3528365000000001E-2</v>
       </c>
       <c r="G92">
-        <v>3.3161148000000001E-2</v>
+        <v>2.1802854E-2</v>
       </c>
       <c r="H92">
-        <v>0.37687933400000001</v>
+        <v>5.9017733000000003E-2</v>
       </c>
       <c r="I92">
-        <v>3.2398946999999997E-2</v>
+        <v>1.5343258E-2</v>
       </c>
       <c r="J92">
-        <v>0.28896185800000002</v>
+        <v>3.4975952999999997E-2</v>
       </c>
       <c r="K92">
-        <v>2.1660532999999999E-2</v>
+        <v>2.8774066000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -14751,34 +14751,34 @@
         <v>8</v>
       </c>
       <c r="B93">
-        <v>1.1454067E-2</v>
+        <v>0.19074143499999999</v>
       </c>
       <c r="C93">
-        <v>1.0716203000000001E-2</v>
+        <v>2.0630975999999999E-2</v>
       </c>
       <c r="D93">
-        <v>1.1293515E-2</v>
+        <v>0.27938705699999999</v>
       </c>
       <c r="E93">
-        <v>1.4838766999999999E-2</v>
+        <v>0.13423612700000001</v>
       </c>
       <c r="F93">
-        <v>1.2404474E-2</v>
+        <v>2.1200139E-2</v>
       </c>
       <c r="G93">
-        <v>1.18131E-2</v>
+        <v>3.5738899999999997E-2</v>
       </c>
       <c r="H93">
-        <v>3.2413561E-2</v>
+        <v>4.0809359000000003E-2</v>
       </c>
       <c r="I93">
-        <v>1.1331911E-2</v>
+        <v>3.1899594000000003E-2</v>
       </c>
       <c r="J93">
-        <v>0.87583887599999999</v>
+        <v>0.20792403800000001</v>
       </c>
       <c r="K93">
-        <v>7.8953540000000003E-3</v>
+        <v>3.7432339000000002E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -14786,34 +14786,34 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>0.490703732</v>
+        <v>1.8431515999999998E-2</v>
       </c>
       <c r="C94">
-        <v>2.7238123E-2</v>
+        <v>0.76215714199999995</v>
       </c>
       <c r="D94">
-        <v>3.7700853999999999E-2</v>
+        <v>1.4427396E-2</v>
       </c>
       <c r="E94">
-        <v>7.0446827000000004E-2</v>
+        <v>1.9868163000000001E-2</v>
       </c>
       <c r="F94">
-        <v>8.8047213999999999E-2</v>
+        <v>0.104278013</v>
       </c>
       <c r="G94">
-        <v>3.2993126999999997E-2</v>
+        <v>1.4120466999999999E-2</v>
       </c>
       <c r="H94">
-        <v>7.8508668000000004E-2</v>
+        <v>1.6281322000000001E-2</v>
       </c>
       <c r="I94">
-        <v>2.8630057E-2</v>
+        <v>1.1822902E-2</v>
       </c>
       <c r="J94">
-        <v>0.120614819</v>
+        <v>2.0795263000000001E-2</v>
       </c>
       <c r="K94">
-        <v>2.5116645E-2</v>
+        <v>1.7817746999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
@@ -14821,34 +14821,34 @@
         <v>5</v>
       </c>
       <c r="B95">
-        <v>8.3855119999999995E-3</v>
+        <v>1.7528614000000001E-2</v>
       </c>
       <c r="C95">
-        <v>7.7239309999999999E-3</v>
+        <v>1.6397636E-2</v>
       </c>
       <c r="D95">
-        <v>8.2340439999999994E-3</v>
+        <v>2.8696177999999999E-2</v>
       </c>
       <c r="E95">
-        <v>8.3505999999999997E-3</v>
+        <v>1.6135377999999999E-2</v>
       </c>
       <c r="F95">
-        <v>7.337779E-3</v>
+        <v>1.2737877E-2</v>
       </c>
       <c r="G95">
-        <v>0.92781364899999996</v>
+        <v>0.80324685600000001</v>
       </c>
       <c r="H95">
-        <v>7.2739679999999996E-3</v>
+        <v>1.6990577999999999E-2</v>
       </c>
       <c r="I95">
-        <v>8.0714419999999999E-3</v>
+        <v>2.0284837E-2</v>
       </c>
       <c r="J95">
-        <v>9.3810149999999995E-3</v>
+        <v>4.9220338000000002E-2</v>
       </c>
       <c r="K95">
-        <v>7.4279929999999999E-3</v>
+        <v>1.8761665E-2</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -14856,34 +14856,34 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>0.71395504499999995</v>
+        <v>0.56630665099999999</v>
       </c>
       <c r="C96">
-        <v>1.7557256E-2</v>
+        <v>1.2916913E-2</v>
       </c>
       <c r="D96">
-        <v>3.4178682000000002E-2</v>
+        <v>0.256943792</v>
       </c>
       <c r="E96">
-        <v>8.3958520999999994E-2</v>
+        <v>1.8981888999999998E-2</v>
       </c>
       <c r="F96">
-        <v>1.5415831E-2</v>
+        <v>1.4804103000000001E-2</v>
       </c>
       <c r="G96">
-        <v>2.1648938E-2</v>
+        <v>1.7426495E-2</v>
       </c>
       <c r="H96">
-        <v>3.7182022000000002E-2</v>
+        <v>1.8428844999999999E-2</v>
       </c>
       <c r="I96">
-        <v>2.0087816000000001E-2</v>
+        <v>1.7010379999999999E-2</v>
       </c>
       <c r="J96">
-        <v>3.6363970000000002E-2</v>
+        <v>1.5627647000000001E-2</v>
       </c>
       <c r="K96">
-        <v>1.9651915999999998E-2</v>
+        <v>6.1553261999999997E-2</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
@@ -14891,34 +14891,34 @@
         <v>2</v>
       </c>
       <c r="B97">
-        <v>1.0866811000000001E-2</v>
+        <v>1.9434460000000001E-2</v>
       </c>
       <c r="C97">
-        <v>1.0819280000000001E-2</v>
+        <v>9.8861629999999999E-3</v>
       </c>
       <c r="D97">
-        <v>0.91447228199999997</v>
+        <v>0.907932878</v>
       </c>
       <c r="E97">
-        <v>9.4694280000000002E-3</v>
+        <v>9.9947309999999998E-3</v>
       </c>
       <c r="F97">
-        <v>7.2149620000000001E-3</v>
+        <v>8.4526459999999994E-3</v>
       </c>
       <c r="G97">
-        <v>8.6182389999999998E-3</v>
+        <v>6.4988199999999998E-3</v>
       </c>
       <c r="H97">
-        <v>8.646674E-3</v>
+        <v>1.0766576999999999E-2</v>
       </c>
       <c r="I97">
-        <v>1.2978506000000001E-2</v>
+        <v>1.0126906999999999E-2</v>
       </c>
       <c r="J97">
-        <v>1.0056111E-2</v>
+        <v>8.509829E-3</v>
       </c>
       <c r="K97">
-        <v>6.8576460000000002E-3</v>
+        <v>8.3969419999999993E-3</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
@@ -14926,34 +14926,34 @@
         <v>5</v>
       </c>
       <c r="B98">
-        <v>6.5237150000000002E-3</v>
+        <v>1.0868167E-2</v>
       </c>
       <c r="C98">
-        <v>6.0373839999999998E-3</v>
+        <v>8.3313229999999999E-3</v>
       </c>
       <c r="D98">
-        <v>7.39786E-3</v>
+        <v>1.36218E-2</v>
       </c>
       <c r="E98">
-        <v>7.5749249999999997E-3</v>
+        <v>1.1881422000000001E-2</v>
       </c>
       <c r="F98">
-        <v>6.4041610000000002E-3</v>
+        <v>8.932667E-3</v>
       </c>
       <c r="G98">
-        <v>0.93878674500000003</v>
+        <v>0.89843416200000004</v>
       </c>
       <c r="H98">
-        <v>6.7889140000000001E-3</v>
+        <v>1.0007432E-2</v>
       </c>
       <c r="I98">
-        <v>7.3068969999999997E-3</v>
+        <v>1.1480172E-2</v>
       </c>
       <c r="J98">
-        <v>7.5707429999999996E-3</v>
+        <v>1.3928117E-2</v>
       </c>
       <c r="K98">
-        <v>5.6085989999999997E-3</v>
+        <v>1.2514743E-2</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
@@ -14961,34 +14961,34 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>9.4800479999999996E-3</v>
+        <v>2.1415617000000001E-2</v>
       </c>
       <c r="C99">
-        <v>0.92072850500000003</v>
+        <v>0.76737886700000002</v>
       </c>
       <c r="D99">
-        <v>9.676825E-3</v>
+        <v>1.6002697999999999E-2</v>
       </c>
       <c r="E99">
-        <v>9.0074049999999996E-3</v>
+        <v>3.0179602999999999E-2</v>
       </c>
       <c r="F99">
-        <v>8.0218219999999996E-3</v>
+        <v>7.5997396999999994E-2</v>
       </c>
       <c r="G99">
-        <v>7.9895720000000003E-3</v>
+        <v>1.6175846000000001E-2</v>
       </c>
       <c r="H99">
-        <v>7.1694059999999997E-3</v>
+        <v>1.8652119000000002E-2</v>
       </c>
       <c r="I99">
-        <v>1.0849686000000001E-2</v>
+        <v>1.8415196000000002E-2</v>
       </c>
       <c r="J99">
-        <v>8.8459460000000004E-3</v>
+        <v>1.9294632999999999E-2</v>
       </c>
       <c r="K99">
-        <v>8.23079E-3</v>
+        <v>1.6488116000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -14996,34 +14996,34 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>0.123831704</v>
+        <v>3.2127256999999999E-2</v>
       </c>
       <c r="C100">
-        <v>2.0485478000000001E-2</v>
+        <v>1.3831665999999999E-2</v>
       </c>
       <c r="D100">
-        <v>2.1205481000000002E-2</v>
+        <v>1.5955301000000002E-2</v>
       </c>
       <c r="E100">
-        <v>5.7350709999999999E-2</v>
+        <v>3.8150594000000003E-2</v>
       </c>
       <c r="F100">
-        <v>0.65953612299999997</v>
+        <v>0.80352562699999996</v>
       </c>
       <c r="G100">
-        <v>2.3984124999999999E-2</v>
+        <v>1.4473437E-2</v>
       </c>
       <c r="H100">
-        <v>2.4979294999999999E-2</v>
+        <v>2.409362E-2</v>
       </c>
       <c r="I100">
-        <v>2.230211E-2</v>
+        <v>2.2906156E-2</v>
       </c>
       <c r="J100">
-        <v>2.5213523000000002E-2</v>
+        <v>1.6066823000000001E-2</v>
       </c>
       <c r="K100">
-        <v>2.1111425E-2</v>
+        <v>1.8869558000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15036,8 +15036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219B4DA2-5828-43F6-8800-1B906C468706}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15047,34 +15047,34 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.88090610504150302</v>
+        <v>0.74184530999999998</v>
       </c>
       <c r="C1">
-        <v>5.5595859885215699E-3</v>
+        <v>2.6728005999999999E-2</v>
       </c>
       <c r="D1">
-        <v>9.0162325650453498E-3</v>
+        <v>1.0355369999999999E-2</v>
       </c>
       <c r="E1">
-        <v>1.1502050794661E-2</v>
+        <v>0.13137613200000001</v>
       </c>
       <c r="F1">
-        <v>5.6546903215348703E-3</v>
+        <v>4.6070664999999997E-2</v>
       </c>
       <c r="G1">
-        <v>5.4779914207756502E-3</v>
+        <v>6.376306E-3</v>
       </c>
       <c r="H1">
-        <v>5.3926810622215202E-2</v>
+        <v>1.2874475999999999E-2</v>
       </c>
       <c r="I1">
-        <v>1.3699294999241799E-2</v>
+        <v>1.0340212999999999E-2</v>
       </c>
       <c r="J1">
-        <v>8.4121925756335206E-3</v>
+        <v>9.0017039999999993E-3</v>
       </c>
       <c r="K1">
-        <v>5.8450293727219096E-3</v>
+        <v>5.0318990000000003E-3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -15082,34 +15082,34 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.23487502336502</v>
+        <v>1.5862971999999999E-2</v>
       </c>
       <c r="C2">
-        <v>1.1782972142100299E-2</v>
+        <v>0.43791258300000002</v>
       </c>
       <c r="D2">
-        <v>3.3719979226589203E-2</v>
+        <v>1.9758359999999999E-2</v>
       </c>
       <c r="E2">
-        <v>0.14151225984096499</v>
+        <v>0.29945751999999998</v>
       </c>
       <c r="F2">
-        <v>1.44833410158753E-2</v>
+        <v>3.0482960999999999E-2</v>
       </c>
       <c r="G2">
-        <v>1.54064707458019E-2</v>
+        <v>3.5342014999999997E-2</v>
       </c>
       <c r="H2">
-        <v>0.48910576105117798</v>
+        <v>9.0875799999999996E-3</v>
       </c>
       <c r="I2">
-        <v>1.9096234813332499E-2</v>
+        <v>1.5711705999999999E-2</v>
       </c>
       <c r="J2">
-        <v>2.8627844527363701E-2</v>
+        <v>0.123986334</v>
       </c>
       <c r="K2">
-        <v>1.1390128172934E-2</v>
+        <v>1.2397887999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -15117,34 +15117,34 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.1968072056770297E-2</v>
+        <v>5.2613879999999997E-3</v>
       </c>
       <c r="C3">
-        <v>1.67048368602991E-2</v>
+        <v>6.547532E-3</v>
       </c>
       <c r="D3">
-        <v>2.6356976479291899E-2</v>
+        <v>7.6592700000000001E-3</v>
       </c>
       <c r="E3">
-        <v>4.7685030847787802E-2</v>
+        <v>9.4000620000000007E-3</v>
       </c>
       <c r="F3">
-        <v>1.5909051522612499E-2</v>
+        <v>2.4577915999999998E-2</v>
       </c>
       <c r="G3">
-        <v>2.0735500380396801E-2</v>
+        <v>1.9758824000000001E-2</v>
       </c>
       <c r="H3">
-        <v>0.29937103390693598</v>
+        <v>1.0600424000000001E-2</v>
       </c>
       <c r="I3">
-        <v>0.38734358549117998</v>
+        <v>0.88722538900000003</v>
       </c>
       <c r="J3">
-        <v>2.9656762257218298E-2</v>
+        <v>7.9017559999999994E-3</v>
       </c>
       <c r="K3">
-        <v>0.12426914274692499</v>
+        <v>2.1067460999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -15152,34 +15152,34 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.32814306020736E-2</v>
+        <v>1.3504151000000001E-2</v>
       </c>
       <c r="C4">
-        <v>3.2445777207612901E-2</v>
+        <v>8.6287059999999999E-3</v>
       </c>
       <c r="D4">
-        <v>7.8301854431629098E-2</v>
+        <v>9.8127100000000005E-3</v>
       </c>
       <c r="E4">
-        <v>3.3838365226984003E-2</v>
+        <v>9.8841055999999997E-2</v>
       </c>
       <c r="F4">
-        <v>0.72931838035583496</v>
+        <v>0.83106464099999999</v>
       </c>
       <c r="G4">
-        <v>1.6905443742871201E-2</v>
+        <v>7.1266769999999997E-3</v>
       </c>
       <c r="H4">
-        <v>3.7093717604875502E-2</v>
+        <v>7.9671759999999994E-3</v>
       </c>
       <c r="I4">
-        <v>1.19834188371896E-2</v>
+        <v>7.5879470000000003E-3</v>
       </c>
       <c r="J4">
-        <v>1.45183745771646E-2</v>
+        <v>9.4990149999999995E-3</v>
       </c>
       <c r="K4">
-        <v>1.2313205748796401E-2</v>
+        <v>5.9678509999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -15187,34 +15187,34 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.36504867672920199</v>
+        <v>3.3366196000000001E-2</v>
       </c>
       <c r="C5">
-        <v>0.147377774119377</v>
+        <v>1.3613671000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.21578527987003299</v>
+        <v>9.3579170000000003E-3</v>
       </c>
       <c r="E5">
-        <v>1.8418364226818001E-2</v>
+        <v>2.6171638000000001E-2</v>
       </c>
       <c r="F5">
-        <v>4.8797622323036097E-2</v>
+        <v>0.43828725800000001</v>
       </c>
       <c r="G5">
-        <v>2.44592074304819E-2</v>
+        <v>1.2741188000000001E-2</v>
       </c>
       <c r="H5">
-        <v>3.7464831024408299E-2</v>
+        <v>9.2426404000000004E-2</v>
       </c>
       <c r="I5">
-        <v>7.0529773831367396E-2</v>
+        <v>9.8672800000000008E-3</v>
       </c>
       <c r="J5">
-        <v>1.4276647940278E-2</v>
+        <v>1.2556652999999999E-2</v>
       </c>
       <c r="K5">
-        <v>5.7841822504997198E-2</v>
+        <v>0.35161176300000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -15222,34 +15222,34 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.8417408689856501E-2</v>
+        <v>2.3752308E-2</v>
       </c>
       <c r="C6">
-        <v>5.9086102992296202E-3</v>
+        <v>2.7625818E-2</v>
       </c>
       <c r="D6">
-        <v>4.13795933127403E-3</v>
+        <v>9.4317436000000004E-2</v>
       </c>
       <c r="E6">
-        <v>5.5504613555967799E-3</v>
+        <v>3.3092529000000002E-2</v>
       </c>
       <c r="F6">
-        <v>5.5767488665878703E-3</v>
+        <v>6.7516415999999996E-2</v>
       </c>
       <c r="G6">
-        <v>4.3793702498078303E-3</v>
+        <v>1.2153928E-2</v>
       </c>
       <c r="H6">
-        <v>4.4559543021023204E-3</v>
+        <v>1.9471958000000001E-2</v>
       </c>
       <c r="I6">
-        <v>0.94059383869171098</v>
+        <v>0.67579931000000004</v>
       </c>
       <c r="J6">
-        <v>3.36233782581985E-3</v>
+        <v>1.5922451000000001E-2</v>
       </c>
       <c r="K6">
-        <v>7.6173050329089104E-3</v>
+        <v>3.0347768000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -15257,34 +15257,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.0554224029183301E-2</v>
+        <v>4.0119741E-2</v>
       </c>
       <c r="C7">
-        <v>7.1278847754001604E-2</v>
+        <v>2.8856803E-2</v>
       </c>
       <c r="D7">
-        <v>8.0696046352386405E-2</v>
+        <v>9.5592952999999994E-2</v>
       </c>
       <c r="E7">
-        <v>1.8115272745490001E-2</v>
+        <v>0.62828803099999997</v>
       </c>
       <c r="F7">
-        <v>1.1632310226559601E-2</v>
+        <v>1.4351503E-2</v>
       </c>
       <c r="G7">
-        <v>2.8114434331655499E-2</v>
+        <v>1.2340494E-2</v>
       </c>
       <c r="H7">
-        <v>1.8619995564222301E-2</v>
+        <v>0.114550032</v>
       </c>
       <c r="I7">
-        <v>0.148641496896743</v>
+        <v>2.0760210000000001E-2</v>
       </c>
       <c r="J7">
-        <v>1.8611375242471601E-2</v>
+        <v>1.4391798000000001E-2</v>
       </c>
       <c r="K7">
-        <v>0.58373600244522095</v>
+        <v>3.0748445999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -15292,34 +15292,34 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.51080399751663197</v>
+        <v>1.4142406999999999E-2</v>
       </c>
       <c r="C8">
-        <v>8.3481865003705007E-3</v>
+        <v>9.7794319999999994E-3</v>
       </c>
       <c r="D8">
-        <v>1.08104022219777E-2</v>
+        <v>7.4649770000000002E-3</v>
       </c>
       <c r="E8">
-        <v>0.37757825851440402</v>
+        <v>0.94433808299999999</v>
       </c>
       <c r="F8">
-        <v>8.2502849400043401E-3</v>
+        <v>6.3966769999999999E-3</v>
       </c>
       <c r="G8">
-        <v>7.81103409826755E-3</v>
+        <v>3.5595650000000002E-3</v>
       </c>
       <c r="H8">
-        <v>3.4022297710180199E-2</v>
+        <v>4.3372510000000003E-3</v>
       </c>
       <c r="I8">
-        <v>1.42328757792711E-2</v>
+        <v>3.913443E-3</v>
       </c>
       <c r="J8">
-        <v>1.8194111064076399E-2</v>
+        <v>3.3519299999999999E-3</v>
       </c>
       <c r="K8">
-        <v>9.9485432729125006E-3</v>
+        <v>2.716272E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -15327,34 +15327,34 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2.8898250311613E-2</v>
+        <v>6.7923460000000003E-3</v>
       </c>
       <c r="C9">
-        <v>0.64547067880630404</v>
+        <v>0.21321619999999999</v>
       </c>
       <c r="D9">
-        <v>5.6086428463459001E-2</v>
+        <v>1.2385869000000001E-2</v>
       </c>
       <c r="E9">
-        <v>2.1815299987792899E-2</v>
+        <v>6.9534080000000003E-3</v>
       </c>
       <c r="F9">
-        <v>9.9722249433398195E-3</v>
+        <v>1.5605755000000001E-2</v>
       </c>
       <c r="G9">
-        <v>6.7544877529144204E-2</v>
+        <v>0.69134807600000003</v>
       </c>
       <c r="H9">
-        <v>1.04331811890006E-2</v>
+        <v>5.649917E-3</v>
       </c>
       <c r="I9">
-        <v>3.9978139102458898E-2</v>
+        <v>1.3937433000000001E-2</v>
       </c>
       <c r="J9">
-        <v>2.7565123513340901E-2</v>
+        <v>1.6968411999999999E-2</v>
       </c>
       <c r="K9">
-        <v>9.2235773801803506E-2</v>
+        <v>1.7142636999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -15362,34 +15362,34 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2.3805556818842801E-2</v>
+        <v>5.236508E-3</v>
       </c>
       <c r="C10">
-        <v>1.0194641537964301E-2</v>
+        <v>5.1675180000000003E-3</v>
       </c>
       <c r="D10">
-        <v>1.89940314739942E-2</v>
+        <v>1.4548858E-2</v>
       </c>
       <c r="E10">
-        <v>0.33779448270797702</v>
+        <v>3.8012209999999998E-2</v>
       </c>
       <c r="F10">
-        <v>1.1802672408521101E-2</v>
+        <v>7.6116300000000003E-3</v>
       </c>
       <c r="G10">
-        <v>1.3728413730859699E-2</v>
+        <v>4.2353989999999999E-3</v>
       </c>
       <c r="H10">
-        <v>0.46291732788085899</v>
+        <v>0.90319514300000003</v>
       </c>
       <c r="I10">
-        <v>1.4604731462895801E-2</v>
+        <v>9.0739010000000005E-3</v>
       </c>
       <c r="J10">
-        <v>8.3064585924148504E-2</v>
+        <v>4.98614E-3</v>
       </c>
       <c r="K10">
-        <v>2.3093553259968699E-2</v>
+        <v>7.9327779999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -15397,34 +15397,34 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0.17209802567958801</v>
+        <v>1.247006E-2</v>
       </c>
       <c r="C11">
-        <v>1.0550062172114801E-2</v>
+        <v>6.2906500000000001E-3</v>
       </c>
       <c r="D11">
-        <v>1.5231736935675101E-2</v>
+        <v>5.2275710000000003E-3</v>
       </c>
       <c r="E11">
-        <v>7.8756928443908594E-2</v>
+        <v>0.17964993400000001</v>
       </c>
       <c r="F11">
-        <v>1.1782527901232199E-2</v>
+        <v>1.6678864000000002E-2</v>
       </c>
       <c r="G11">
-        <v>9.8538594320416398E-3</v>
+        <v>5.0548529999999998E-3</v>
       </c>
       <c r="H11">
-        <v>0.56464207172393799</v>
+        <v>0.75083941200000004</v>
       </c>
       <c r="I11">
-        <v>0.100891724228858</v>
+        <v>1.1772499000000001E-2</v>
       </c>
       <c r="J11">
-        <v>1.82787384837865E-2</v>
+        <v>6.3405079999999999E-3</v>
       </c>
       <c r="K11">
-        <v>1.7914324998855501E-2</v>
+        <v>5.6756380000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -15432,34 +15432,34 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>1.10402824357151E-2</v>
+        <v>8.3524029999999996E-3</v>
       </c>
       <c r="C12">
-        <v>7.2783809155225702E-3</v>
+        <v>8.8923460000000006E-3</v>
       </c>
       <c r="D12">
-        <v>9.7934687510132703E-3</v>
+        <v>0.11200877300000001</v>
       </c>
       <c r="E12">
-        <v>3.9754625409841503E-2</v>
+        <v>9.7616783999999998E-2</v>
       </c>
       <c r="F12">
-        <v>1.02752493694424E-2</v>
+        <v>1.7068222000000001E-2</v>
       </c>
       <c r="G12">
-        <v>7.9481806606054306E-3</v>
+        <v>1.2355491999999999E-2</v>
       </c>
       <c r="H12">
-        <v>0.734785556793212</v>
+        <v>0.65137565100000006</v>
       </c>
       <c r="I12">
-        <v>9.6646640449762292E-3</v>
+        <v>2.6848407000000001E-2</v>
       </c>
       <c r="J12">
-        <v>0.153493836522102</v>
+        <v>1.277608E-2</v>
       </c>
       <c r="K12">
-        <v>1.5965789556503199E-2</v>
+        <v>5.2705879999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -15467,34 +15467,34 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.16911056637763899</v>
+        <v>3.4124070000000001E-3</v>
       </c>
       <c r="C13">
-        <v>1.0546600446105E-2</v>
+        <v>8.7867959999999995E-3</v>
       </c>
       <c r="D13">
-        <v>1.8806412816047599E-2</v>
+        <v>4.8530750000000001E-3</v>
       </c>
       <c r="E13">
-        <v>6.7188628017902305E-2</v>
+        <v>0.93863707799999996</v>
       </c>
       <c r="F13">
-        <v>1.2895712628960601E-2</v>
+        <v>7.3794430000000003E-3</v>
       </c>
       <c r="G13">
-        <v>1.1369495652616E-2</v>
+        <v>5.436392E-3</v>
       </c>
       <c r="H13">
-        <v>0.61042475700378396</v>
+        <v>1.0894434999999999E-2</v>
       </c>
       <c r="I13">
-        <v>5.5315107107162399E-2</v>
+        <v>6.8530580000000004E-3</v>
       </c>
       <c r="J13">
-        <v>2.0657379180192899E-2</v>
+        <v>1.0607504E-2</v>
       </c>
       <c r="K13">
-        <v>2.3685334250330901E-2</v>
+        <v>3.139752E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -15502,34 +15502,34 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.53538310527801503</v>
+        <v>1.3244255999999999E-2</v>
       </c>
       <c r="C14">
-        <v>3.25592644512653E-2</v>
+        <v>0.689713299</v>
       </c>
       <c r="D14">
-        <v>5.6418225169181803E-2</v>
+        <v>1.5821299E-2</v>
       </c>
       <c r="E14">
-        <v>3.3441331237554502E-2</v>
+        <v>0.12973660200000001</v>
       </c>
       <c r="F14">
-        <v>5.2418954670429202E-2</v>
+        <v>2.2221769999999998E-2</v>
       </c>
       <c r="G14">
-        <v>2.60253008455038E-2</v>
+        <v>2.4370855E-2</v>
       </c>
       <c r="H14">
-        <v>0.169504299759864</v>
+        <v>1.9504797000000001E-2</v>
       </c>
       <c r="I14">
-        <v>4.1825052350759499E-2</v>
+        <v>1.5315764000000001E-2</v>
       </c>
       <c r="J14">
-        <v>1.82410795241594E-2</v>
+        <v>5.8397122000000003E-2</v>
       </c>
       <c r="K14">
-        <v>3.4183457493782002E-2</v>
+        <v>1.1674202E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -15537,34 +15537,34 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>3.4332533832639399E-3</v>
+        <v>2.9031899999999999E-3</v>
       </c>
       <c r="C15">
-        <v>4.9254917539656102E-3</v>
+        <v>7.4193920000000003E-3</v>
       </c>
       <c r="D15">
-        <v>1.05567146092653E-2</v>
+        <v>7.3291989999999998E-3</v>
       </c>
       <c r="E15">
-        <v>3.0502064619213299E-3</v>
+        <v>3.9901939999999999E-3</v>
       </c>
       <c r="F15">
-        <v>3.46154882572591E-3</v>
+        <v>5.4834150000000002E-3</v>
       </c>
       <c r="G15">
-        <v>0.95431345701217596</v>
+        <v>0.93279856400000005</v>
       </c>
       <c r="H15">
-        <v>6.4266221597790701E-3</v>
+        <v>3.3042380000000001E-3</v>
       </c>
       <c r="I15">
-        <v>3.7761700805276602E-3</v>
+        <v>6.4203790000000004E-3</v>
       </c>
       <c r="J15">
-        <v>6.4755040220916202E-3</v>
+        <v>2.4537185E-2</v>
       </c>
       <c r="K15">
-        <v>3.5810410045087298E-3</v>
+        <v>5.8142080000000004E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -15572,34 +15572,34 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.31111320853233299</v>
+        <v>1.9144120000000001E-2</v>
       </c>
       <c r="C16">
-        <v>5.7569969445466898E-2</v>
+        <v>9.9184219999999997E-3</v>
       </c>
       <c r="D16">
-        <v>7.0853248238563496E-2</v>
+        <v>0.506264567</v>
       </c>
       <c r="E16">
-        <v>2.5088923051953298E-2</v>
+        <v>2.4851549000000001E-2</v>
       </c>
       <c r="F16">
-        <v>1.89351215958595E-2</v>
+        <v>1.1693217000000001E-2</v>
       </c>
       <c r="G16">
-        <v>3.0947504565119702E-2</v>
+        <v>1.1858825999999999E-2</v>
       </c>
       <c r="H16">
-        <v>1.9911797717213599E-2</v>
+        <v>6.7896797999999994E-2</v>
       </c>
       <c r="I16">
-        <v>0.29401645064353898</v>
+        <v>2.0575304999999999E-2</v>
       </c>
       <c r="J16">
-        <v>1.9091950729489299E-2</v>
+        <v>1.6020624000000001E-2</v>
       </c>
       <c r="K16">
-        <v>0.15247182548046101</v>
+        <v>0.31177657800000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -15607,34 +15607,34 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>9.2953601852059295E-3</v>
+        <v>1.6865311000000001E-2</v>
       </c>
       <c r="C17">
-        <v>2.2239267826080301E-2</v>
+        <v>6.0297257999999999E-2</v>
       </c>
       <c r="D17">
-        <v>0.76920926570892301</v>
+        <v>0.56284731600000004</v>
       </c>
       <c r="E17">
-        <v>6.2288157641887602E-2</v>
+        <v>0.25002965300000002</v>
       </c>
       <c r="F17">
-        <v>1.2190247885882801E-2</v>
+        <v>1.8620092000000001E-2</v>
       </c>
       <c r="G17">
-        <v>1.2031298130750601E-2</v>
+        <v>2.0510454000000001E-2</v>
       </c>
       <c r="H17">
-        <v>2.96094678342342E-2</v>
+        <v>9.6771870000000003E-3</v>
       </c>
       <c r="I17">
-        <v>8.1657776609063096E-3</v>
+        <v>2.0113659999999998E-2</v>
       </c>
       <c r="J17">
-        <v>5.0217103213071802E-2</v>
+        <v>1.970063E-2</v>
       </c>
       <c r="K17">
-        <v>2.47539803385734E-2</v>
+        <v>2.1338413000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -15642,34 +15642,34 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>1.12240640446543E-2</v>
+        <v>1.7351949999999999E-3</v>
       </c>
       <c r="C18">
-        <v>2.7018340304493901E-2</v>
+        <v>3.2208860000000001E-3</v>
       </c>
       <c r="D18">
-        <v>4.1983552277088103E-2</v>
+        <v>2.218411E-3</v>
       </c>
       <c r="E18">
-        <v>8.3547811955213495E-3</v>
+        <v>1.613904E-3</v>
       </c>
       <c r="F18">
-        <v>4.0700256824493401E-2</v>
+        <v>2.664366E-3</v>
       </c>
       <c r="G18">
-        <v>0.82016444206237704</v>
+        <v>0.980567038</v>
       </c>
       <c r="H18">
-        <v>1.4967694878578099E-2</v>
+        <v>1.4444810000000001E-3</v>
       </c>
       <c r="I18">
-        <v>1.05254864320158E-2</v>
+        <v>2.1722830000000001E-3</v>
       </c>
       <c r="J18">
-        <v>1.24032711610198E-2</v>
+        <v>1.811687E-3</v>
       </c>
       <c r="K18">
-        <v>1.26581015065312E-2</v>
+        <v>2.5517999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -15677,34 +15677,34 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>3.96282225847244E-3</v>
+        <v>1.2004704999999999E-2</v>
       </c>
       <c r="C19">
-        <v>0.96196764707565297</v>
+        <v>0.96184521899999997</v>
       </c>
       <c r="D19">
-        <v>7.6725063845515199E-3</v>
+        <v>2.7530440000000001E-3</v>
       </c>
       <c r="E19">
-        <v>3.40183544903993E-3</v>
+        <v>4.3553289999999998E-3</v>
       </c>
       <c r="F19">
-        <v>3.1974997837096401E-3</v>
+        <v>3.0731410000000002E-3</v>
       </c>
       <c r="G19">
-        <v>5.5171023122966203E-3</v>
+        <v>3.410354E-3</v>
       </c>
       <c r="H19">
-        <v>2.9905189294367998E-3</v>
+        <v>4.001068E-3</v>
       </c>
       <c r="I19">
-        <v>5.2756131626665497E-3</v>
+        <v>3.7600760000000002E-3</v>
       </c>
       <c r="J19">
-        <v>2.1385152358561698E-3</v>
+        <v>2.6851790000000002E-3</v>
       </c>
       <c r="K19">
-        <v>3.8758255541324598E-3</v>
+        <v>2.1119609999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -15712,34 +15712,34 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>7.9666502773761694E-2</v>
+        <v>8.2789913000000007E-2</v>
       </c>
       <c r="C20">
-        <v>0.12779569625854401</v>
+        <v>0.13573771700000001</v>
       </c>
       <c r="D20">
-        <v>0.26103261113166798</v>
+        <v>9.0650572999999998E-2</v>
       </c>
       <c r="E20">
-        <v>3.5147644579410497E-2</v>
+        <v>0.34538382299999998</v>
       </c>
       <c r="F20">
-        <v>0.393543720245361</v>
+        <v>0.22668619500000001</v>
       </c>
       <c r="G20">
-        <v>2.34992615878582E-2</v>
+        <v>2.4646972999999999E-2</v>
       </c>
       <c r="H20">
-        <v>2.0972514525055799E-2</v>
+        <v>1.5821181E-2</v>
       </c>
       <c r="I20">
-        <v>2.1686699241399699E-2</v>
+        <v>3.1376152999999997E-2</v>
       </c>
       <c r="J20">
-        <v>1.5851974487304601E-2</v>
+        <v>2.9180833999999999E-2</v>
       </c>
       <c r="K20">
-        <v>2.08034124225378E-2</v>
+        <v>1.7726623E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -15747,34 +15747,34 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0.21097020804882</v>
+        <v>0.92935931699999996</v>
       </c>
       <c r="C21">
-        <v>6.13189004361629E-2</v>
+        <v>1.2462119000000001E-2</v>
       </c>
       <c r="D21">
-        <v>0.117429666221141</v>
+        <v>9.0129939999999999E-3</v>
       </c>
       <c r="E21">
-        <v>0.123148262500762</v>
+        <v>4.9153790000000001E-3</v>
       </c>
       <c r="F21">
-        <v>1.98147594928741E-2</v>
+        <v>2.3252386999999999E-2</v>
       </c>
       <c r="G21">
-        <v>3.0397400259971601E-2</v>
+        <v>4.6570980000000001E-3</v>
       </c>
       <c r="H21">
-        <v>0.31457123160362199</v>
+        <v>3.8401899999999998E-3</v>
       </c>
       <c r="I21">
-        <v>4.50314916670322E-2</v>
+        <v>4.7100639999999999E-3</v>
       </c>
       <c r="J21">
-        <v>5.8534789830446202E-2</v>
+        <v>4.7064949999999998E-3</v>
       </c>
       <c r="K21">
-        <v>1.8783224746584799E-2</v>
+        <v>3.0839489999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -15782,34 +15782,34 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>2.22150841727852E-3</v>
+        <v>4.3791380000000003E-3</v>
       </c>
       <c r="C22">
-        <v>2.3914563935250001E-3</v>
+        <v>5.5476789999999998E-3</v>
       </c>
       <c r="D22">
-        <v>3.3961327280849201E-3</v>
+        <v>5.3371540000000002E-3</v>
       </c>
       <c r="E22">
-        <v>3.5298364236950801E-3</v>
+        <v>3.3756226E-2</v>
       </c>
       <c r="F22">
-        <v>2.2148594725876999E-3</v>
+        <v>3.3619029999999999E-3</v>
       </c>
       <c r="G22">
-        <v>3.7115802988409901E-3</v>
+        <v>5.5195829999999998E-3</v>
       </c>
       <c r="H22">
-        <v>4.1049360297620296E-3</v>
+        <v>7.1607620000000002E-3</v>
       </c>
       <c r="I22">
-        <v>2.0839942153543199E-3</v>
+        <v>4.7233500000000003E-3</v>
       </c>
       <c r="J22">
-        <v>0.97328352928161599</v>
+        <v>0.92684960400000005</v>
       </c>
       <c r="K22">
-        <v>3.0620845500379801E-3</v>
+        <v>3.3647669999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -15817,34 +15817,34 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>0.128813415765762</v>
+        <v>1.4315766000000001E-2</v>
       </c>
       <c r="C23">
-        <v>5.4018046706914902E-2</v>
+        <v>1.0493819999999999E-2</v>
       </c>
       <c r="D23">
-        <v>2.7192492038011499E-2</v>
+        <v>1.8827718E-2</v>
       </c>
       <c r="E23">
-        <v>9.2715568840503595E-2</v>
+        <v>4.6816649999999998E-3</v>
       </c>
       <c r="F23">
-        <v>2.2951457649469299E-2</v>
+        <v>7.3591100000000003E-3</v>
       </c>
       <c r="G23">
-        <v>1.4895099215209401E-2</v>
+        <v>5.1223400000000004E-3</v>
       </c>
       <c r="H23">
-        <v>0.298940569162368</v>
+        <v>5.1877249999999998E-3</v>
       </c>
       <c r="I23">
-        <v>0.31222459673881497</v>
+        <v>0.91237771499999998</v>
       </c>
       <c r="J23">
-        <v>3.1939238309860202E-2</v>
+        <v>5.2785159999999996E-3</v>
       </c>
       <c r="K23">
-        <v>1.63095220923423E-2</v>
+        <v>1.6355603999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -15852,34 +15852,34 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>3.87272960506379E-3</v>
+        <v>0.29088208100000001</v>
       </c>
       <c r="C24">
-        <v>4.9133137799799399E-3</v>
+        <v>1.3123516999999999E-2</v>
       </c>
       <c r="D24">
-        <v>8.7152849882841093E-3</v>
+        <v>3.8331116999999998E-2</v>
       </c>
       <c r="E24">
-        <v>0.88935416936874301</v>
+        <v>6.4926416000000001E-2</v>
       </c>
       <c r="F24">
-        <v>4.8301286995410898E-2</v>
+        <v>0.54196769</v>
       </c>
       <c r="G24">
-        <v>4.6501667238771898E-3</v>
+        <v>9.0009479999999999E-3</v>
       </c>
       <c r="H24">
-        <v>2.1851971745491E-2</v>
+        <v>1.2552934999999999E-2</v>
       </c>
       <c r="I24">
-        <v>6.0298638418316798E-3</v>
+        <v>8.2162090000000004E-3</v>
       </c>
       <c r="J24">
-        <v>7.3789027519524097E-3</v>
+        <v>1.0151884999999999E-2</v>
       </c>
       <c r="K24">
-        <v>4.9323085695505099E-3</v>
+        <v>1.0847239999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -15887,34 +15887,34 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>2.86094564944505E-2</v>
+        <v>1.7497954999999999E-2</v>
       </c>
       <c r="C25">
-        <v>6.7952331155538498E-3</v>
+        <v>7.8179310000000002E-3</v>
       </c>
       <c r="D25">
-        <v>1.5914015471935199E-2</v>
+        <v>2.0839795000000001E-2</v>
       </c>
       <c r="E25">
-        <v>9.4316117465495994E-3</v>
+        <v>7.2961290000000002E-3</v>
       </c>
       <c r="F25">
-        <v>0.83971452713012695</v>
+        <v>1.1437975E-2</v>
       </c>
       <c r="G25">
-        <v>8.1412373110651901E-3</v>
+        <v>7.7354720000000002E-3</v>
       </c>
       <c r="H25">
-        <v>3.87844182550907E-2</v>
+        <v>4.3930239999999997E-3</v>
       </c>
       <c r="I25">
-        <v>1.00844427943229E-2</v>
+        <v>5.8682509999999997E-3</v>
       </c>
       <c r="J25">
-        <v>6.6524157300591399E-3</v>
+        <v>1.2263761E-2</v>
       </c>
       <c r="K25">
-        <v>3.5872630774974802E-2</v>
+        <v>0.90484976800000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -15922,34 +15922,34 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>7.42364069446921E-3</v>
+        <v>2.4609469999999998E-3</v>
       </c>
       <c r="C26">
-        <v>5.1375320181250503E-3</v>
+        <v>2.4648270000000002E-3</v>
       </c>
       <c r="D26">
-        <v>8.1616565585136396E-3</v>
+        <v>2.675963E-3</v>
       </c>
       <c r="E26">
-        <v>3.8424246013164499E-3</v>
+        <v>1.9071719999999999E-3</v>
       </c>
       <c r="F26">
-        <v>5.2282670512795396E-3</v>
+        <v>1.2796249999999999E-3</v>
       </c>
       <c r="G26">
-        <v>3.9030066691338999E-3</v>
+        <v>2.4658950000000001E-3</v>
       </c>
       <c r="H26">
-        <v>3.1201920937746698E-3</v>
+        <v>2.156771E-3</v>
       </c>
       <c r="I26">
-        <v>0.95069825649261397</v>
+        <v>0.97956812400000004</v>
       </c>
       <c r="J26">
-        <v>3.3370833843946401E-3</v>
+        <v>1.5487879999999999E-3</v>
       </c>
       <c r="K26">
-        <v>9.1478824615478498E-3</v>
+        <v>3.4719180000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -15957,34 +15957,34 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.81294620037078802</v>
+        <v>0.15493331799999999</v>
       </c>
       <c r="C27">
-        <v>2.2107379510998702E-2</v>
+        <v>2.8987099999999998E-2</v>
       </c>
       <c r="D27">
-        <v>7.6783034019172096E-3</v>
+        <v>5.5800214000000001E-2</v>
       </c>
       <c r="E27">
-        <v>7.6061473228037297E-3</v>
+        <v>1.4612108E-2</v>
       </c>
       <c r="F27">
-        <v>4.0213119238615001E-2</v>
+        <v>5.3361381999999999E-2</v>
       </c>
       <c r="G27">
-        <v>1.5458851121366E-2</v>
+        <v>1.7989525999999999E-2</v>
       </c>
       <c r="H27">
-        <v>1.20261888951063E-2</v>
+        <v>7.2701880000000003E-3</v>
       </c>
       <c r="I27">
-        <v>5.3207527846097898E-2</v>
+        <v>3.3665944000000003E-2</v>
       </c>
       <c r="J27">
-        <v>7.6600080356001802E-3</v>
+        <v>2.5596526000000001E-2</v>
       </c>
       <c r="K27">
-        <v>2.1096291020512501E-2</v>
+        <v>0.60778367499999997</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -15992,34 +15992,34 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>3.33845764398574E-2</v>
+        <v>0.64048922100000005</v>
       </c>
       <c r="C28">
-        <v>1.40769397839903E-2</v>
+        <v>4.1298601999999997E-2</v>
       </c>
       <c r="D28">
-        <v>7.1221673861145904E-3</v>
+        <v>1.8284075E-2</v>
       </c>
       <c r="E28">
-        <v>1.7706865444779299E-2</v>
+        <v>9.1297246999999998E-2</v>
       </c>
       <c r="F28">
-        <v>0.83467489480972201</v>
+        <v>0.13745981500000001</v>
       </c>
       <c r="G28">
-        <v>9.2636337503790803E-3</v>
+        <v>1.2049888E-2</v>
       </c>
       <c r="H28">
-        <v>1.71936843544244E-2</v>
+        <v>1.8296475999999999E-2</v>
       </c>
       <c r="I28">
-        <v>5.4225154221057802E-2</v>
+        <v>1.1367606000000001E-2</v>
       </c>
       <c r="J28">
-        <v>8.1182327121496201E-3</v>
+        <v>1.5901189E-2</v>
       </c>
       <c r="K28">
-        <v>4.2339279316365701E-3</v>
+        <v>1.3555872E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -16027,34 +16027,34 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>1.9830690696835501E-2</v>
+        <v>8.2905389999999995E-3</v>
       </c>
       <c r="C29">
-        <v>9.3672079965472204E-3</v>
+        <v>3.4015299999999998E-3</v>
       </c>
       <c r="D29">
-        <v>0.847068190574646</v>
+        <v>0.96042251599999995</v>
       </c>
       <c r="E29">
-        <v>7.1711745113134297E-3</v>
+        <v>3.641053E-3</v>
       </c>
       <c r="F29">
-        <v>1.35753201320767E-2</v>
+        <v>3.4363969999999999E-3</v>
       </c>
       <c r="G29">
-        <v>1.34898461401462E-2</v>
+        <v>2.6983240000000002E-3</v>
       </c>
       <c r="H29">
-        <v>1.26838497817516E-2</v>
+        <v>3.9433319999999999E-3</v>
       </c>
       <c r="I29">
-        <v>1.15543948486447E-2</v>
+        <v>5.9817969999999996E-3</v>
       </c>
       <c r="J29">
-        <v>6.3686100766062702E-3</v>
+        <v>2.6966120000000001E-3</v>
       </c>
       <c r="K29">
-        <v>5.8890722692012697E-2</v>
+        <v>5.4879439999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -16062,34 +16062,34 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>0.68507289886474598</v>
+        <v>0.36256667999999997</v>
       </c>
       <c r="C30">
-        <v>2.0981254056096001E-2</v>
+        <v>1.6905116000000001E-2</v>
       </c>
       <c r="D30">
-        <v>2.9390646144747699E-2</v>
+        <v>0.39642891299999999</v>
       </c>
       <c r="E30">
-        <v>1.0668751783668899E-2</v>
+        <v>1.2684889E-2</v>
       </c>
       <c r="F30">
-        <v>5.0260983407497399E-2</v>
+        <v>6.1414233999999998E-2</v>
       </c>
       <c r="G30">
-        <v>2.06756200641393E-2</v>
+        <v>1.5264547999999999E-2</v>
       </c>
       <c r="H30">
-        <v>4.3705143034458098E-2</v>
+        <v>4.3824658000000002E-2</v>
       </c>
       <c r="I30">
-        <v>5.86954988539218E-2</v>
+        <v>5.9562194999999998E-2</v>
       </c>
       <c r="J30">
-        <v>9.5303896814584697E-3</v>
+        <v>1.1831056E-2</v>
       </c>
       <c r="K30">
-        <v>7.1018822491168906E-2</v>
+        <v>1.9517697000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -16097,34 +16097,34 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>0.123641550540924</v>
+        <v>4.5630295000000001E-2</v>
       </c>
       <c r="C31">
-        <v>1.5035588294267601E-2</v>
+        <v>1.1194984E-2</v>
       </c>
       <c r="D31">
-        <v>0.107814483344554</v>
+        <v>5.6198943000000001E-2</v>
       </c>
       <c r="E31">
-        <v>5.5305112153291702E-2</v>
+        <v>0.239350438</v>
       </c>
       <c r="F31">
-        <v>5.9558995068073203E-2</v>
+        <v>8.9500699999999992E-3</v>
       </c>
       <c r="G31">
-        <v>1.70785654336214E-2</v>
+        <v>9.2861209999999996E-3</v>
       </c>
       <c r="H31">
-        <v>0.455343067646026</v>
+        <v>2.2672579000000002E-2</v>
       </c>
       <c r="I31">
-        <v>0.12167686969041799</v>
+        <v>1.5222141999999999E-2</v>
       </c>
       <c r="J31">
-        <v>3.2158203423023203E-2</v>
+        <v>0.57728874699999999</v>
       </c>
       <c r="K31">
-        <v>1.23875681310892E-2</v>
+        <v>1.4205604E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -16132,34 +16132,34 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>2.2940845228731602E-3</v>
+        <v>8.9184769999999993E-3</v>
       </c>
       <c r="C32">
-        <v>3.3956211991608099E-3</v>
+        <v>6.0899379999999996E-3</v>
       </c>
       <c r="D32">
-        <v>3.7872854154556899E-3</v>
+        <v>1.228663E-2</v>
       </c>
       <c r="E32">
-        <v>0.9661226272583</v>
+        <v>0.70110166100000004</v>
       </c>
       <c r="F32">
-        <v>3.0216651502996601E-3</v>
+        <v>7.5821830000000002E-3</v>
       </c>
       <c r="G32">
-        <v>2.4750232696533199E-3</v>
+        <v>1.0938867E-2</v>
       </c>
       <c r="H32">
-        <v>6.2236315570771599E-3</v>
+        <v>0.22471012200000001</v>
       </c>
       <c r="I32">
-        <v>2.8175911866128401E-3</v>
+        <v>1.0307026E-2</v>
       </c>
       <c r="J32">
-        <v>7.1469177491962901E-3</v>
+        <v>9.6849459999999998E-3</v>
       </c>
       <c r="K32">
-        <v>2.7155634015798499E-3</v>
+        <v>8.3801959999999995E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -16167,34 +16167,34 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>4.6861567534506304E-3</v>
+        <v>8.3474940000000004E-3</v>
       </c>
       <c r="C33">
-        <v>5.7620406150817802E-3</v>
+        <v>5.9707299999999996E-3</v>
       </c>
       <c r="D33">
-        <v>6.1271819286048404E-3</v>
+        <v>5.8333839999999996E-3</v>
       </c>
       <c r="E33">
-        <v>0.93758493661880404</v>
+        <v>0.91260880200000005</v>
       </c>
       <c r="F33">
-        <v>4.8777833580970703E-3</v>
+        <v>6.9205990000000004E-3</v>
       </c>
       <c r="G33">
-        <v>5.22051192820072E-3</v>
+        <v>7.804872E-3</v>
       </c>
       <c r="H33">
-        <v>1.27007635310292E-2</v>
+        <v>2.4923582E-2</v>
       </c>
       <c r="I33">
-        <v>4.6938629820942801E-3</v>
+        <v>7.2578520000000004E-3</v>
       </c>
       <c r="J33">
-        <v>1.4276175759732701E-2</v>
+        <v>1.6188199E-2</v>
       </c>
       <c r="K33">
-        <v>4.0705590508878196E-3</v>
+        <v>4.1445259999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -16202,34 +16202,34 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0.35683524608611999</v>
+        <v>5.6906730000000003E-3</v>
       </c>
       <c r="C34">
-        <v>0.52496975660324097</v>
+        <v>0.96301215900000003</v>
       </c>
       <c r="D34">
-        <v>1.04442555457353E-2</v>
+        <v>4.9447479999999997E-3</v>
       </c>
       <c r="E34">
-        <v>1.21850613504648E-2</v>
+        <v>6.1504649999999999E-3</v>
       </c>
       <c r="F34">
-        <v>1.2423867359757401E-2</v>
+        <v>3.0563230000000001E-3</v>
       </c>
       <c r="G34">
-        <v>1.10879922285676E-2</v>
+        <v>3.7909630000000001E-3</v>
       </c>
       <c r="H34">
-        <v>1.23024880886077E-2</v>
+        <v>2.020076E-3</v>
       </c>
       <c r="I34">
-        <v>3.1709212809801102E-2</v>
+        <v>3.6805029999999999E-3</v>
       </c>
       <c r="J34">
-        <v>9.4085270538926107E-3</v>
+        <v>3.784277E-3</v>
       </c>
       <c r="K34">
-        <v>1.8633704632520599E-2</v>
+        <v>3.8697789999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -16237,34 +16237,34 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>9.6724862232804298E-3</v>
+        <v>2.277453E-3</v>
       </c>
       <c r="C35">
-        <v>7.1905823424458504E-3</v>
+        <v>4.0670840000000003E-3</v>
       </c>
       <c r="D35">
-        <v>9.6994349732994999E-3</v>
+        <v>1.9793480000000001E-3</v>
       </c>
       <c r="E35">
-        <v>1.05474358424544E-2</v>
+        <v>3.2019180000000002E-3</v>
       </c>
       <c r="F35">
-        <v>6.3488753512501699E-3</v>
+        <v>2.5917549999999998E-3</v>
       </c>
       <c r="G35">
-        <v>0.88714152574539096</v>
+        <v>0.975781381</v>
       </c>
       <c r="H35">
-        <v>8.1829391419887508E-3</v>
+        <v>2.7662849999999998E-3</v>
       </c>
       <c r="I35">
-        <v>7.5611132197081999E-3</v>
+        <v>2.4714160000000002E-3</v>
       </c>
       <c r="J35">
-        <v>4.6009417623281403E-2</v>
+        <v>2.7688560000000001E-3</v>
       </c>
       <c r="K35">
-        <v>7.6461285352706901E-3</v>
+        <v>2.094486E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -16272,34 +16272,34 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>0.18869596719741799</v>
+        <v>0.36197456700000002</v>
       </c>
       <c r="C36">
-        <v>1.42656601965427E-2</v>
+        <v>1.5184998999999999E-2</v>
       </c>
       <c r="D36">
-        <v>2.0997522398829401E-2</v>
+        <v>2.3486340000000001E-2</v>
       </c>
       <c r="E36">
-        <v>1.5626652166247298E-2</v>
+        <v>0.396873474</v>
       </c>
       <c r="F36">
-        <v>9.7541380673646892E-3</v>
+        <v>1.5974451000000001E-2</v>
       </c>
       <c r="G36">
-        <v>1.3465244323015199E-2</v>
+        <v>1.2377765000000001E-2</v>
       </c>
       <c r="H36">
-        <v>0.70201903581619196</v>
+        <v>0.12981609999999999</v>
       </c>
       <c r="I36">
-        <v>1.35754076763987E-2</v>
+        <v>1.4501072E-2</v>
       </c>
       <c r="J36">
-        <v>1.04626612737774E-2</v>
+        <v>1.6656343000000001E-2</v>
       </c>
       <c r="K36">
-        <v>1.1137668043375E-2</v>
+        <v>1.3154938E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -16307,34 +16307,34 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>6.4858973026275593E-2</v>
+        <v>1.8136225999999998E-2</v>
       </c>
       <c r="C37">
-        <v>1.26555413007736E-2</v>
+        <v>1.2137426999999999E-2</v>
       </c>
       <c r="D37">
-        <v>0.72654116153716997</v>
+        <v>0.865847111</v>
       </c>
       <c r="E37">
-        <v>1.14614516496658E-2</v>
+        <v>2.0465049999999999E-2</v>
       </c>
       <c r="F37">
-        <v>1.7143253237009E-2</v>
+        <v>3.5670253999999998E-2</v>
       </c>
       <c r="G37">
-        <v>1.21848257258534E-2</v>
+        <v>6.4279949999999997E-3</v>
       </c>
       <c r="H37">
-        <v>9.2143058776855399E-2</v>
+        <v>1.4517733E-2</v>
       </c>
       <c r="I37">
-        <v>3.5063635557889897E-2</v>
+        <v>1.3358963999999999E-2</v>
       </c>
       <c r="J37">
-        <v>1.2578371912240901E-2</v>
+        <v>8.5250259999999998E-3</v>
       </c>
       <c r="K37">
-        <v>1.53696807101368E-2</v>
+        <v>4.9141339999999997E-3</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -16342,34 +16342,34 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>1.32077597081661E-2</v>
+        <v>2.893531E-3</v>
       </c>
       <c r="C38">
-        <v>5.5016195401549296E-3</v>
+        <v>5.660315E-3</v>
       </c>
       <c r="D38">
-        <v>5.0467081367969499E-2</v>
+        <v>2.4282779999999999E-3</v>
       </c>
       <c r="E38">
-        <v>4.4431528076529503E-3</v>
+        <v>2.5971610000000002E-3</v>
       </c>
       <c r="F38">
-        <v>7.0012146607041298E-3</v>
+        <v>3.1520760000000002E-3</v>
       </c>
       <c r="G38">
-        <v>0.87891155481338501</v>
+        <v>0.97162795099999999</v>
       </c>
       <c r="H38">
-        <v>6.5631605684757198E-3</v>
+        <v>2.5761130000000001E-3</v>
       </c>
       <c r="I38">
-        <v>8.3828866481781006E-3</v>
+        <v>3.9002030000000001E-3</v>
       </c>
       <c r="J38">
-        <v>1.6579423099756199E-2</v>
+        <v>2.2554889999999998E-3</v>
       </c>
       <c r="K38">
-        <v>8.9420471340417793E-3</v>
+        <v>2.9088719999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -16377,34 +16377,34 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>5.1444140262901696E-3</v>
+        <v>9.5349010000000001E-3</v>
       </c>
       <c r="C39">
-        <v>0.91772574186324996</v>
+        <v>0.16140101900000001</v>
       </c>
       <c r="D39">
-        <v>7.0184655487537297E-3</v>
+        <v>1.2338338000000001E-2</v>
       </c>
       <c r="E39">
-        <v>2.8923025354743E-2</v>
+        <v>3.4551986E-2</v>
       </c>
       <c r="F39">
-        <v>5.3421356715261901E-3</v>
+        <v>1.1181048000000001E-2</v>
       </c>
       <c r="G39">
-        <v>1.3287536799907599E-2</v>
+        <v>0.72610139799999995</v>
       </c>
       <c r="H39">
-        <v>4.7720237635076003E-3</v>
+        <v>1.1233895000000001E-2</v>
       </c>
       <c r="I39">
-        <v>5.6184143759310202E-3</v>
+        <v>9.5558029999999999E-3</v>
       </c>
       <c r="J39">
-        <v>7.1043265052139698E-3</v>
+        <v>1.6116854E-2</v>
       </c>
       <c r="K39">
-        <v>5.0638602115213802E-3</v>
+        <v>7.9847089999999996E-3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -16412,34 +16412,34 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>5.7546622119843899E-3</v>
+        <v>8.5920860000000005E-3</v>
       </c>
       <c r="C40">
-        <v>4.2408313602208996E-3</v>
+        <v>4.1728349999999997E-3</v>
       </c>
       <c r="D40">
-        <v>3.9406754076480796E-3</v>
+        <v>3.3913329999999998E-3</v>
       </c>
       <c r="E40">
-        <v>4.2011206969618797E-3</v>
+        <v>2.164245E-3</v>
       </c>
       <c r="F40">
-        <v>0.96758425235748202</v>
+        <v>0.97033375499999996</v>
       </c>
       <c r="G40">
-        <v>3.2874948810786E-3</v>
+        <v>2.1982989999999999E-3</v>
       </c>
       <c r="H40">
-        <v>3.3115511760115602E-3</v>
+        <v>1.6115019999999999E-3</v>
       </c>
       <c r="I40">
-        <v>2.5382810272276402E-3</v>
+        <v>3.1153940000000001E-3</v>
       </c>
       <c r="J40">
-        <v>2.59365118108689E-3</v>
+        <v>2.2806950000000001E-3</v>
       </c>
       <c r="K40">
-        <v>2.5475230067968299E-3</v>
+        <v>2.139873E-3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -16447,34 +16447,34 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>0.153516605496406</v>
+        <v>0.16475841399999999</v>
       </c>
       <c r="C41">
-        <v>1.0581603273749299E-2</v>
+        <v>5.3719450000000002E-2</v>
       </c>
       <c r="D41">
-        <v>1.1157794855534999E-2</v>
+        <v>3.3687874999999999E-2</v>
       </c>
       <c r="E41">
-        <v>0.73282855749130205</v>
+        <v>0.54572004100000004</v>
       </c>
       <c r="F41">
-        <v>9.1084549203515001E-3</v>
+        <v>3.3953819000000003E-2</v>
       </c>
       <c r="G41">
-        <v>9.6132373437285406E-3</v>
+        <v>1.4111830000000001E-2</v>
       </c>
       <c r="H41">
-        <v>4.0181137621402699E-2</v>
+        <v>7.8497253000000003E-2</v>
       </c>
       <c r="I41">
-        <v>1.24511728063225E-2</v>
+        <v>2.8561512000000001E-2</v>
       </c>
       <c r="J41">
-        <v>9.5530422404408403E-3</v>
+        <v>1.9847858999999999E-2</v>
       </c>
       <c r="K41">
-        <v>1.10083743929862E-2</v>
+        <v>2.7141912000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -16482,34 +16482,34 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>1.58100500702857E-2</v>
+        <v>6.6942199999999999E-3</v>
       </c>
       <c r="C42">
-        <v>2.1570153534412301E-2</v>
+        <v>1.3583964E-2</v>
       </c>
       <c r="D42">
-        <v>6.7800328135490404E-2</v>
+        <v>1.1774055E-2</v>
       </c>
       <c r="E42">
-        <v>2.61117368936538E-2</v>
+        <v>5.5723730000000003E-3</v>
       </c>
       <c r="F42">
-        <v>2.0171180367469701E-2</v>
+        <v>1.0887824000000001E-2</v>
       </c>
       <c r="G42">
-        <v>0.63204258680343595</v>
+        <v>0.79449492700000002</v>
       </c>
       <c r="H42">
-        <v>4.74443361163139E-2</v>
+        <v>1.1559431E-2</v>
       </c>
       <c r="I42">
-        <v>7.80727388337254E-3</v>
+        <v>8.5152430000000005E-3</v>
       </c>
       <c r="J42">
-        <v>6.3245378434657995E-2</v>
+        <v>0.12542925799999999</v>
       </c>
       <c r="K42">
-        <v>9.7996965050697299E-2</v>
+        <v>1.1488745999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -16517,34 +16517,34 @@
         <v>7</v>
       </c>
       <c r="B43">
-        <v>3.7339299917221E-2</v>
+        <v>7.1919599999999998E-3</v>
       </c>
       <c r="C43">
-        <v>1.6910184174776001E-2</v>
+        <v>3.7496180000000001E-3</v>
       </c>
       <c r="D43">
-        <v>2.3352513089776001E-2</v>
+        <v>1.1232779E-2</v>
       </c>
       <c r="E43">
-        <v>1.90714485943317E-2</v>
+        <v>2.879286E-3</v>
       </c>
       <c r="F43">
-        <v>1.28164999186992E-2</v>
+        <v>6.1191470000000001E-3</v>
       </c>
       <c r="G43">
-        <v>7.0313853211700899E-3</v>
+        <v>4.1580949999999997E-3</v>
       </c>
       <c r="H43">
-        <v>1.4374534599482999E-2</v>
+        <v>4.6292920000000001E-3</v>
       </c>
       <c r="I43">
-        <v>0.57584875822067205</v>
+        <v>0.93469208500000001</v>
       </c>
       <c r="J43">
-        <v>1.38516444712877E-2</v>
+        <v>3.639186E-3</v>
       </c>
       <c r="K43">
-        <v>0.279403805732727</v>
+        <v>2.1708535000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -16552,34 +16552,34 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>0.27258843183517401</v>
+        <v>0.76106596000000004</v>
       </c>
       <c r="C44">
-        <v>2.60058250278234E-2</v>
+        <v>1.0848287E-2</v>
       </c>
       <c r="D44">
-        <v>3.5475209355354302E-2</v>
+        <v>1.3811087999999999E-2</v>
       </c>
       <c r="E44">
-        <v>7.2543554008006994E-2</v>
+        <v>1.3896344E-2</v>
       </c>
       <c r="F44">
-        <v>0.35280695557594299</v>
+        <v>0.14038287099999999</v>
       </c>
       <c r="G44">
-        <v>2.0736094564199399E-2</v>
+        <v>8.0855500000000004E-3</v>
       </c>
       <c r="H44">
-        <v>0.16731297969818101</v>
+        <v>1.7236043E-2</v>
       </c>
       <c r="I44">
-        <v>1.3034504838287801E-2</v>
+        <v>8.9553859999999992E-3</v>
       </c>
       <c r="J44">
-        <v>2.2000784054398499E-2</v>
+        <v>8.3280320000000008E-3</v>
       </c>
       <c r="K44">
-        <v>1.7495714128017401E-2</v>
+        <v>1.7390445000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -16587,34 +16587,34 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>9.7822174429893494E-2</v>
+        <v>1.1885125999999999E-2</v>
       </c>
       <c r="C45">
-        <v>9.0741803869604995E-3</v>
+        <v>3.6124849999999999E-3</v>
       </c>
       <c r="D45">
-        <v>0.29406681656837402</v>
+        <v>1.097222E-2</v>
       </c>
       <c r="E45">
-        <v>0.25748875737190202</v>
+        <v>6.0041749999999996E-3</v>
       </c>
       <c r="F45">
-        <v>2.3979537189006798E-2</v>
+        <v>8.7403719999999997E-3</v>
       </c>
       <c r="G45">
-        <v>1.7980666831135701E-2</v>
+        <v>5.2704960000000004E-3</v>
       </c>
       <c r="H45">
-        <v>4.5062497258186299E-2</v>
+        <v>2.2414275000000001E-2</v>
       </c>
       <c r="I45">
-        <v>1.89770851284265E-2</v>
+        <v>7.1886340000000002E-3</v>
       </c>
       <c r="J45">
-        <v>3.4333311021327903E-2</v>
+        <v>9.7572370000000002E-3</v>
       </c>
       <c r="K45">
-        <v>0.201214969158172</v>
+        <v>0.91415500599999999</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -16622,34 +16622,34 @@
         <v>7</v>
       </c>
       <c r="B46">
-        <v>8.0890394747257205E-2</v>
+        <v>5.3614480000000004E-3</v>
       </c>
       <c r="C46">
-        <v>2.6392005383968301E-2</v>
+        <v>4.2946199999999999E-3</v>
       </c>
       <c r="D46">
-        <v>6.8899892270565005E-2</v>
+        <v>8.7025790000000002E-3</v>
       </c>
       <c r="E46">
-        <v>2.4514961987733799E-2</v>
+        <v>2.0352819999999998E-3</v>
       </c>
       <c r="F46">
-        <v>1.89115181565284E-2</v>
+        <v>5.4155640000000003E-3</v>
       </c>
       <c r="G46">
-        <v>1.08463559299707E-2</v>
+        <v>4.1972219999999996E-3</v>
       </c>
       <c r="H46">
-        <v>2.95894350856542E-2</v>
+        <v>5.0384660000000001E-3</v>
       </c>
       <c r="I46">
-        <v>0.169007867574691</v>
+        <v>0.94878536499999999</v>
       </c>
       <c r="J46">
-        <v>1.9475275650620402E-2</v>
+        <v>3.4702589999999998E-3</v>
       </c>
       <c r="K46">
-        <v>0.55147224664688099</v>
+        <v>1.2699232E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -16657,34 +16657,34 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>6.9592343643307599E-3</v>
+        <v>0.48902842400000002</v>
       </c>
       <c r="C47">
-        <v>7.3105376213788899E-3</v>
+        <v>2.1996886E-2</v>
       </c>
       <c r="D47">
-        <v>8.3028972148895194E-3</v>
+        <v>4.8651773000000002E-2</v>
       </c>
       <c r="E47">
-        <v>0.88704478740692105</v>
+        <v>2.6870226000000001E-2</v>
       </c>
       <c r="F47">
-        <v>1.5003023669123599E-2</v>
+        <v>8.3313942000000002E-2</v>
       </c>
       <c r="G47">
-        <v>8.0069554969668302E-3</v>
+        <v>1.8908793E-2</v>
       </c>
       <c r="H47">
-        <v>2.97384057193994E-2</v>
+        <v>3.7419867000000002E-2</v>
       </c>
       <c r="I47">
-        <v>8.4994388744235004E-3</v>
+        <v>5.7833582000000001E-2</v>
       </c>
       <c r="J47">
-        <v>2.3514593020081499E-2</v>
+        <v>1.3637702999999999E-2</v>
       </c>
       <c r="K47">
-        <v>5.6199855171144E-3</v>
+        <v>0.20233877</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -16692,34 +16692,34 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.25723803043365401</v>
+        <v>2.9049657E-2</v>
       </c>
       <c r="C48">
-        <v>1.46310040727257E-2</v>
+        <v>2.7552610000000002E-2</v>
       </c>
       <c r="D48">
-        <v>2.4197923019528299E-2</v>
+        <v>2.0208212E-2</v>
       </c>
       <c r="E48">
-        <v>0.416571795940399</v>
+        <v>0.56970822799999998</v>
       </c>
       <c r="F48">
-        <v>2.0449113100767101E-2</v>
+        <v>2.8645654999999999E-2</v>
       </c>
       <c r="G48">
-        <v>1.5907498076558099E-2</v>
+        <v>1.1782552E-2</v>
       </c>
       <c r="H48">
-        <v>0.20699846744537301</v>
+        <v>0.206032515</v>
       </c>
       <c r="I48">
-        <v>1.68118830770254E-2</v>
+        <v>2.4320794E-2</v>
       </c>
       <c r="J48">
-        <v>1.71449556946754E-2</v>
+        <v>3.7384516999999999E-2</v>
       </c>
       <c r="K48">
-        <v>1.00493850186467E-2</v>
+        <v>4.5315266E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -16727,34 +16727,34 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>2.0011799409985501E-2</v>
+        <v>3.7122297999999998E-2</v>
       </c>
       <c r="C49">
-        <v>4.1892174631357098E-3</v>
+        <v>5.8206589999999997E-3</v>
       </c>
       <c r="D49">
-        <v>1.1686243116855601E-2</v>
+        <v>0.89134991200000002</v>
       </c>
       <c r="E49">
-        <v>0.92957317829132002</v>
+        <v>7.3651330000000003E-3</v>
       </c>
       <c r="F49">
-        <v>4.7411439009010696E-3</v>
+        <v>2.9991950000000001E-3</v>
       </c>
       <c r="G49">
-        <v>6.1161410994827704E-3</v>
+        <v>9.5593689999999999E-3</v>
       </c>
       <c r="H49">
-        <v>7.3296464979648503E-3</v>
+        <v>1.6006671E-2</v>
       </c>
       <c r="I49">
-        <v>4.9816882237791998E-3</v>
+        <v>8.7221350000000007E-3</v>
       </c>
       <c r="J49">
-        <v>8.3549842238426208E-3</v>
+        <v>1.3130189E-2</v>
       </c>
       <c r="K49">
-        <v>3.0159403104335E-3</v>
+        <v>7.9244439999999992E-3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -16762,34 +16762,34 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>0.12996622920036299</v>
+        <v>3.382782E-3</v>
       </c>
       <c r="C50">
-        <v>9.1881062835454906E-3</v>
+        <v>4.3489380000000001E-3</v>
       </c>
       <c r="D50">
-        <v>2.5448959320783601E-2</v>
+        <v>4.9175540000000002E-3</v>
       </c>
       <c r="E50">
-        <v>0.29280394315719599</v>
+        <v>2.7190460000000001E-3</v>
       </c>
       <c r="F50">
-        <v>1.8612109124660398E-2</v>
+        <v>2.5066139999999999E-3</v>
       </c>
       <c r="G50">
-        <v>1.46857108920812E-2</v>
+        <v>2.7068790000000001E-3</v>
       </c>
       <c r="H50">
-        <v>0.45905300974845797</v>
+        <v>0.96666949999999996</v>
       </c>
       <c r="I50">
-        <v>1.28090856596827E-2</v>
+        <v>2.7127840000000002E-3</v>
       </c>
       <c r="J50">
-        <v>2.6270506903529101E-2</v>
+        <v>6.1606569999999999E-3</v>
       </c>
       <c r="K50">
-        <v>1.11623955890536E-2</v>
+        <v>3.8752370000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -16797,34 +16797,34 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>2.2523717954754802E-2</v>
+        <v>0.29334533200000001</v>
       </c>
       <c r="C51">
-        <v>1.1326111853122701E-2</v>
+        <v>1.9746603000000001E-2</v>
       </c>
       <c r="D51">
-        <v>9.1890143230557407E-3</v>
+        <v>2.1906380999999999E-2</v>
       </c>
       <c r="E51">
-        <v>0.52560293674468905</v>
+        <v>2.2413282E-2</v>
       </c>
       <c r="F51">
-        <v>1.5101592987775799E-2</v>
+        <v>3.0637296000000001E-2</v>
       </c>
       <c r="G51">
-        <v>1.14043010398745E-2</v>
+        <v>1.1060047E-2</v>
       </c>
       <c r="H51">
-        <v>0.35039380192756597</v>
+        <v>0.52775478399999998</v>
       </c>
       <c r="I51">
-        <v>1.43375052139163E-2</v>
+        <v>2.4670381000000002E-2</v>
       </c>
       <c r="J51">
-        <v>3.1538128852844197E-2</v>
+        <v>9.3083829999999999E-3</v>
       </c>
       <c r="K51">
-        <v>8.58283415436744E-3</v>
+        <v>3.9157588E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -16832,34 +16832,34 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>0.28410148620605402</v>
+        <v>4.5995849999999998E-2</v>
       </c>
       <c r="C52">
-        <v>6.81312195956707E-3</v>
+        <v>6.3348299999999996E-3</v>
       </c>
       <c r="D52">
-        <v>2.13050637394189E-2</v>
+        <v>1.0733243E-2</v>
       </c>
       <c r="E52">
-        <v>6.9056011736392905E-2</v>
+        <v>4.8487529999999999E-3</v>
       </c>
       <c r="F52">
-        <v>9.56338923424482E-3</v>
+        <v>4.9959699999999998E-3</v>
       </c>
       <c r="G52">
-        <v>1.2789390049874699E-2</v>
+        <v>5.0589839999999999E-3</v>
       </c>
       <c r="H52">
-        <v>0.55525368452072099</v>
+        <v>0.89875847099999995</v>
       </c>
       <c r="I52">
-        <v>1.26994755119085E-2</v>
+        <v>9.4653440000000005E-3</v>
       </c>
       <c r="J52">
-        <v>1.42894759774208E-2</v>
+        <v>5.0660719999999996E-3</v>
       </c>
       <c r="K52">
-        <v>1.4128840528428501E-2</v>
+        <v>8.7425569999999998E-3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -16867,34 +16867,34 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>6.4298085868358598E-2</v>
+        <v>9.4018030000000002E-3</v>
       </c>
       <c r="C53">
-        <v>8.5794059559702804E-3</v>
+        <v>8.5195659999999993E-3</v>
       </c>
       <c r="D53">
-        <v>2.4979820474982199E-2</v>
+        <v>1.0995464E-2</v>
       </c>
       <c r="E53">
-        <v>0.26213753223419101</v>
+        <v>7.4385379999999997E-3</v>
       </c>
       <c r="F53">
-        <v>1.2290398590266699E-2</v>
+        <v>5.1784379999999996E-3</v>
       </c>
       <c r="G53">
-        <v>1.4336525462567799E-2</v>
+        <v>7.1435739999999998E-3</v>
       </c>
       <c r="H53">
-        <v>0.47350189089775002</v>
+        <v>0.87583935300000004</v>
       </c>
       <c r="I53">
-        <v>1.91874261945486E-2</v>
+        <v>7.0968120000000001E-3</v>
       </c>
       <c r="J53">
-        <v>9.5809727907180703E-2</v>
+        <v>5.1492839999999998E-2</v>
       </c>
       <c r="K53">
-        <v>2.4879086762666699E-2</v>
+        <v>1.6893710999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -16902,34 +16902,34 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>3.5273108631372403E-2</v>
+        <v>1.2702804E-2</v>
       </c>
       <c r="C54">
-        <v>0.74182772636413497</v>
+        <v>0.77912873000000005</v>
       </c>
       <c r="D54">
-        <v>5.4755363613366997E-2</v>
+        <v>3.3537254000000002E-2</v>
       </c>
       <c r="E54">
-        <v>7.6215498149394906E-2</v>
+        <v>4.4699139999999998E-2</v>
       </c>
       <c r="F54">
-        <v>7.4380375444888999E-3</v>
+        <v>9.3303359999999998E-3</v>
       </c>
       <c r="G54">
-        <v>1.04070268571376E-2</v>
+        <v>1.8064518000000002E-2</v>
       </c>
       <c r="H54">
-        <v>2.9806081205606402E-2</v>
+        <v>3.2080880999999999E-2</v>
       </c>
       <c r="I54">
-        <v>1.48030407726764E-2</v>
+        <v>2.3077886999999998E-2</v>
       </c>
       <c r="J54">
-        <v>2.12168935686349E-2</v>
+        <v>3.6641634999999999E-2</v>
       </c>
       <c r="K54">
-        <v>8.2572512328624708E-3</v>
+        <v>1.0736821000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -16937,34 +16937,34 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>2.5872059632092701E-3</v>
+        <v>2.625095E-3</v>
       </c>
       <c r="C55">
-        <v>6.3398974016308698E-3</v>
+        <v>4.8057070000000002E-3</v>
       </c>
       <c r="D55">
-        <v>2.7998429723083899E-3</v>
+        <v>4.0941149999999997E-3</v>
       </c>
       <c r="E55">
-        <v>3.5756172146648099E-3</v>
+        <v>2.5501590000000002E-3</v>
       </c>
       <c r="F55">
-        <v>2.8887800872325802E-3</v>
+        <v>3.0496080000000001E-3</v>
       </c>
       <c r="G55">
-        <v>0.96691775321960405</v>
+        <v>0.96797657000000004</v>
       </c>
       <c r="H55">
-        <v>3.42247891239821E-3</v>
+        <v>2.647192E-3</v>
       </c>
       <c r="I55">
-        <v>2.8855006676167202E-3</v>
+        <v>4.0905330000000004E-3</v>
       </c>
       <c r="J55">
-        <v>5.0690625794231796E-3</v>
+        <v>4.7009959999999998E-3</v>
       </c>
       <c r="K55">
-        <v>3.5138903185725199E-3</v>
+        <v>3.4600310000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -16972,34 +16972,34 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>0.90744918584823597</v>
+        <v>0.54806399299999997</v>
       </c>
       <c r="C56">
-        <v>3.44014377333223E-3</v>
+        <v>9.8224790000000003E-3</v>
       </c>
       <c r="D56">
-        <v>3.0770828947424798E-2</v>
+        <v>0.22674198400000001</v>
       </c>
       <c r="E56">
-        <v>1.15686301141977E-2</v>
+        <v>8.0947989999999997E-3</v>
       </c>
       <c r="F56">
-        <v>7.3319948278367502E-3</v>
+        <v>1.6996997999999999E-2</v>
       </c>
       <c r="G56">
-        <v>4.7778435982763698E-3</v>
+        <v>1.4108178000000001E-2</v>
       </c>
       <c r="H56">
-        <v>1.23960217460989E-2</v>
+        <v>5.2964509E-2</v>
       </c>
       <c r="I56">
-        <v>3.7223987746983702E-3</v>
+        <v>1.6822143000000001E-2</v>
       </c>
       <c r="J56">
-        <v>7.58481258526444E-3</v>
+        <v>1.5925951000000001E-2</v>
       </c>
       <c r="K56">
-        <v>1.0958291590213699E-2</v>
+        <v>9.0458967000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -17007,34 +17007,34 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>1.0877151973545499E-2</v>
+        <v>9.5514310000000009E-3</v>
       </c>
       <c r="C57">
-        <v>7.0360838435590198E-3</v>
+        <v>3.0292309999999999E-3</v>
       </c>
       <c r="D57">
-        <v>0.94753938913345304</v>
+        <v>0.94007414600000005</v>
       </c>
       <c r="E57">
-        <v>6.8278582766652099E-3</v>
+        <v>4.6419160000000003E-3</v>
       </c>
       <c r="F57">
-        <v>4.4764420017599999E-3</v>
+        <v>4.2507919999999998E-3</v>
       </c>
       <c r="G57">
-        <v>3.8667013868689498E-3</v>
+        <v>4.3827709999999997E-3</v>
       </c>
       <c r="H57">
-        <v>4.13377257063984E-3</v>
+        <v>5.0995939999999998E-3</v>
       </c>
       <c r="I57">
-        <v>4.1888589039444897E-3</v>
+        <v>5.0945260000000003E-3</v>
       </c>
       <c r="J57">
-        <v>3.9530931971967203E-3</v>
+        <v>3.8155730000000001E-3</v>
       </c>
       <c r="K57">
-        <v>7.1006747893988999E-3</v>
+        <v>2.0059965999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -17042,34 +17042,34 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>2.89558782242238E-3</v>
+        <v>2.190474E-3</v>
       </c>
       <c r="C58">
-        <v>3.3147931098937902E-3</v>
+        <v>2.6389590000000002E-3</v>
       </c>
       <c r="D58">
-        <v>3.2612243667244898E-3</v>
+        <v>6.1527689999999998E-3</v>
       </c>
       <c r="E58">
-        <v>3.6168536171317101E-3</v>
+        <v>1.7495919999999999E-3</v>
       </c>
       <c r="F58">
-        <v>2.7959009166806902E-3</v>
+        <v>3.1522880000000001E-3</v>
       </c>
       <c r="G58">
-        <v>0.96572721004485995</v>
+        <v>0.968748689</v>
       </c>
       <c r="H58">
-        <v>4.1584912687540002E-3</v>
+        <v>2.966509E-3</v>
       </c>
       <c r="I58">
-        <v>2.2380340378731398E-3</v>
+        <v>2.4303699999999998E-3</v>
       </c>
       <c r="J58">
-        <v>6.5038483589887602E-3</v>
+        <v>5.9042809999999999E-3</v>
       </c>
       <c r="K58">
-        <v>5.4881195537745901E-3</v>
+        <v>4.06618E-3</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
@@ -17077,34 +17077,34 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>4.3357550166547298E-3</v>
+        <v>5.9504081E-2</v>
       </c>
       <c r="C59">
-        <v>0.96522140502929599</v>
+        <v>0.81196332000000004</v>
       </c>
       <c r="D59">
-        <v>5.47271547839045E-3</v>
+        <v>1.5559345E-2</v>
       </c>
       <c r="E59">
-        <v>3.9514466188848001E-3</v>
+        <v>1.0521302999999999E-2</v>
       </c>
       <c r="F59">
-        <v>2.2774019744247198E-3</v>
+        <v>3.7946767999999999E-2</v>
       </c>
       <c r="G59">
-        <v>3.6662793718278399E-3</v>
+        <v>1.0746624E-2</v>
       </c>
       <c r="H59">
-        <v>3.4020694438368E-3</v>
+        <v>1.0846577E-2</v>
       </c>
       <c r="I59">
-        <v>3.6790105514228301E-3</v>
+        <v>2.7306104000000001E-2</v>
       </c>
       <c r="J59">
-        <v>4.1616912931203799E-3</v>
+        <v>8.3857989999999993E-3</v>
       </c>
       <c r="K59">
-        <v>3.8323285989463299E-3</v>
+        <v>7.2201390000000004E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -17112,34 +17112,34 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>0.83273786306381203</v>
+        <v>0.74812984500000002</v>
       </c>
       <c r="C60">
-        <v>1.0270018130540799E-2</v>
+        <v>1.4179324E-2</v>
       </c>
       <c r="D60">
-        <v>1.11887650564312E-2</v>
+        <v>3.0900409E-2</v>
       </c>
       <c r="E60">
-        <v>1.7867911607026998E-2</v>
+        <v>1.6234419999999999E-2</v>
       </c>
       <c r="F60">
-        <v>5.2183665335178299E-2</v>
+        <v>5.2465759000000001E-2</v>
       </c>
       <c r="G60">
-        <v>1.02581931278109E-2</v>
+        <v>9.5668509999999995E-3</v>
       </c>
       <c r="H60">
-        <v>4.0630310773849397E-2</v>
+        <v>1.9384656E-2</v>
       </c>
       <c r="I60">
-        <v>7.4678538367152197E-3</v>
+        <v>4.1974504000000003E-2</v>
       </c>
       <c r="J60">
-        <v>8.8742217049002595E-3</v>
+        <v>1.2815725E-2</v>
       </c>
       <c r="K60">
-        <v>8.5211582481861097E-3</v>
+        <v>5.4348551000000002E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -17147,34 +17147,34 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>2.1561277098953698E-3</v>
+        <v>4.7939677E-2</v>
       </c>
       <c r="C61">
-        <v>0.98406660556793202</v>
+        <v>0.89148998300000004</v>
       </c>
       <c r="D61">
-        <v>1.63569662254303E-3</v>
+        <v>8.1913650000000008E-3</v>
       </c>
       <c r="E61">
-        <v>1.37892446946352E-3</v>
+        <v>6.3071400000000001E-3</v>
       </c>
       <c r="F61">
-        <v>1.1156721739098399E-3</v>
+        <v>7.1924780000000004E-3</v>
       </c>
       <c r="G61">
-        <v>2.3157212417572702E-3</v>
+        <v>3.8431699999999999E-3</v>
       </c>
       <c r="H61">
-        <v>1.74063874874264E-3</v>
+        <v>6.1212890000000002E-3</v>
       </c>
       <c r="I61">
-        <v>2.4873556103557301E-3</v>
+        <v>1.8466394000000001E-2</v>
       </c>
       <c r="J61">
-        <v>1.24661484733223E-3</v>
+        <v>5.1712989999999999E-3</v>
       </c>
       <c r="K61">
-        <v>1.8566884100437099E-3</v>
+        <v>5.2772599999999998E-3</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -17182,34 +17182,34 @@
         <v>8</v>
       </c>
       <c r="B62">
-        <v>8.9153513312339699E-2</v>
+        <v>8.5546979999999995E-3</v>
       </c>
       <c r="C62">
-        <v>0.42860105633735601</v>
+        <v>7.8302279999999998E-3</v>
       </c>
       <c r="D62">
-        <v>0.10738042742013899</v>
+        <v>4.3190260000000001E-3</v>
       </c>
       <c r="E62">
-        <v>9.9974805489182403E-3</v>
+        <v>3.7600099999999998E-3</v>
       </c>
       <c r="F62">
-        <v>2.06456389278173E-2</v>
+        <v>1.1533016E-2</v>
       </c>
       <c r="G62">
-        <v>1.3450301252305501E-2</v>
+        <v>7.7645370000000002E-3</v>
       </c>
       <c r="H62">
-        <v>0.12876380980014801</v>
+        <v>5.5185269999999996E-3</v>
       </c>
       <c r="I62">
-        <v>0.176596298813819</v>
+        <v>2.444706E-3</v>
       </c>
       <c r="J62">
-        <v>1.02237155660986E-2</v>
+        <v>0.94260621099999997</v>
       </c>
       <c r="K62">
-        <v>1.51877710595726E-2</v>
+        <v>5.6690639999999997E-3</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -17217,34 +17217,34 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>2.8532486408948898E-2</v>
+        <v>6.5210924000000003E-2</v>
       </c>
       <c r="C63">
-        <v>1.52838295325636E-2</v>
+        <v>1.4206313999999999E-2</v>
       </c>
       <c r="D63">
-        <v>0.26050937175750699</v>
+        <v>0.238503084</v>
       </c>
       <c r="E63">
-        <v>0.106301799416542</v>
+        <v>3.6556735999999999E-2</v>
       </c>
       <c r="F63">
-        <v>0.40114572644233698</v>
+        <v>2.7468546999999999E-2</v>
       </c>
       <c r="G63">
-        <v>1.29296388477087E-2</v>
+        <v>1.3030287999999999E-2</v>
       </c>
       <c r="H63">
-        <v>6.5994180738925906E-2</v>
+        <v>0.51311421400000001</v>
       </c>
       <c r="I63">
-        <v>2.8000144287943798E-2</v>
+        <v>1.0778869999999999E-2</v>
       </c>
       <c r="J63">
-        <v>5.2779771387577001E-2</v>
+        <v>6.7148476999999998E-2</v>
       </c>
       <c r="K63">
-        <v>2.8523059561848599E-2</v>
+        <v>1.3982537E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -17252,34 +17252,34 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>4.9460441805422297E-3</v>
+        <v>1.8887379999999999E-2</v>
       </c>
       <c r="C64">
-        <v>3.27464914880692E-3</v>
+        <v>1.4991974E-2</v>
       </c>
       <c r="D64">
-        <v>1.95594388060271E-3</v>
+        <v>7.000493E-3</v>
       </c>
       <c r="E64">
-        <v>2.19612359069287E-3</v>
+        <v>6.5234742999999998E-2</v>
       </c>
       <c r="F64">
-        <v>0.97383874654769897</v>
+        <v>0.80860048500000004</v>
       </c>
       <c r="G64">
-        <v>3.3684279769658999E-3</v>
+        <v>1.0565112999999999E-2</v>
       </c>
       <c r="H64">
-        <v>1.7281897598877499E-3</v>
+        <v>1.7028703999999999E-2</v>
       </c>
       <c r="I64">
-        <v>1.8229713896289401E-3</v>
+        <v>8.0934149999999996E-3</v>
       </c>
       <c r="J64">
-        <v>2.7354261837899598E-3</v>
+        <v>4.1726064E-2</v>
       </c>
       <c r="K64">
-        <v>4.1334028355777203E-3</v>
+        <v>7.8716849999999998E-3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
@@ -17287,34 +17287,34 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>0.78657567501068104</v>
+        <v>1.6140226000000001E-2</v>
       </c>
       <c r="C65">
-        <v>1.01788416504859E-2</v>
+        <v>1.2845904999999999E-2</v>
       </c>
       <c r="D65">
-        <v>1.15121277049183E-2</v>
+        <v>4.1527819000000001E-2</v>
       </c>
       <c r="E65">
-        <v>6.8815615959465504E-3</v>
+        <v>8.0511639999999995E-3</v>
       </c>
       <c r="F65">
-        <v>1.34336166083812E-2</v>
+        <v>7.4636959999999997E-3</v>
       </c>
       <c r="G65">
-        <v>9.5005584880709596E-3</v>
+        <v>7.183806E-3</v>
       </c>
       <c r="H65">
-        <v>9.72780026495456E-3</v>
+        <v>7.8970680000000001E-3</v>
       </c>
       <c r="I65">
-        <v>2.9088482260703999E-2</v>
+        <v>0.82573676100000004</v>
       </c>
       <c r="J65">
-        <v>6.8407244980335201E-3</v>
+        <v>7.2498770000000001E-3</v>
       </c>
       <c r="K65">
-        <v>0.116260625422</v>
+        <v>6.5903730999999993E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -17322,34 +17322,34 @@
         <v>7</v>
       </c>
       <c r="B66">
-        <v>8.3363324403762804E-2</v>
+        <v>5.1149200000000002E-3</v>
       </c>
       <c r="C66">
-        <v>6.8809434771537697E-2</v>
+        <v>1.8039787000000002E-2</v>
       </c>
       <c r="D66">
-        <v>1.3912057504057799E-2</v>
+        <v>3.424594E-3</v>
       </c>
       <c r="E66">
-        <v>5.5072838440537401E-3</v>
+        <v>3.3896059999999999E-3</v>
       </c>
       <c r="F66">
-        <v>1.1450449004769299E-2</v>
+        <v>4.6253830000000003E-3</v>
       </c>
       <c r="G66">
-        <v>1.9447555765509598E-2</v>
+        <v>3.493342E-3</v>
       </c>
       <c r="H66">
-        <v>1.02821039035916E-2</v>
+        <v>3.291141E-3</v>
       </c>
       <c r="I66">
-        <v>0.77210569381713801</v>
+        <v>0.95303916899999996</v>
       </c>
       <c r="J66">
-        <v>6.11192546784877E-3</v>
+        <v>2.4981579999999999E-3</v>
       </c>
       <c r="K66">
-        <v>9.0102432295679994E-3</v>
+        <v>3.0839449999999998E-3</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -17357,34 +17357,34 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>0.246645733714103</v>
+        <v>5.9196559999999997E-3</v>
       </c>
       <c r="C67">
-        <v>9.7151752561330795E-3</v>
+        <v>4.1167929999999997E-3</v>
       </c>
       <c r="D67">
-        <v>1.7287598922848701E-2</v>
+        <v>7.6214480000000003E-3</v>
       </c>
       <c r="E67">
-        <v>7.5685717165470097E-3</v>
+        <v>4.0246220000000003E-3</v>
       </c>
       <c r="F67">
-        <v>1.53290480375289E-2</v>
+        <v>3.5680920000000001E-3</v>
       </c>
       <c r="G67">
-        <v>1.10089452937245E-2</v>
+        <v>3.6061230000000001E-3</v>
       </c>
       <c r="H67">
-        <v>1.4345920644700499E-2</v>
+        <v>5.6053049999999997E-3</v>
       </c>
       <c r="I67">
-        <v>0.636690974235534</v>
+        <v>7.5319150000000001E-3</v>
       </c>
       <c r="J67">
-        <v>9.64327622205019E-3</v>
+        <v>3.7891520000000001E-3</v>
       </c>
       <c r="K67">
-        <v>3.1764812767505597E-2</v>
+        <v>0.95421683800000001</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
@@ -17392,34 +17392,34 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>0.152411773800849</v>
+        <v>3.758997E-3</v>
       </c>
       <c r="C68">
-        <v>3.6297608166932997E-2</v>
+        <v>3.5428410000000001E-3</v>
       </c>
       <c r="D68">
-        <v>4.1084613651037202E-2</v>
+        <v>3.680399E-3</v>
       </c>
       <c r="E68">
-        <v>0.123767934739589</v>
+        <v>0.96484684899999995</v>
       </c>
       <c r="F68">
-        <v>0.54500818252563399</v>
+        <v>2.9516949999999998E-3</v>
       </c>
       <c r="G68">
-        <v>1.25192990526556E-2</v>
+        <v>2.334502E-3</v>
       </c>
       <c r="H68">
-        <v>1.69021654874086E-2</v>
+        <v>3.3915690000000001E-3</v>
       </c>
       <c r="I68">
-        <v>2.45547741651535E-2</v>
+        <v>2.8419410000000002E-3</v>
       </c>
       <c r="J68">
-        <v>2.1773597225546799E-2</v>
+        <v>9.9163819999999996E-3</v>
       </c>
       <c r="K68">
-        <v>2.56800446659326E-2</v>
+        <v>2.734822E-3</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -17427,34 +17427,34 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>0.76503485441207797</v>
+        <v>0.722318232</v>
       </c>
       <c r="C69">
-        <v>8.0723064020276E-3</v>
+        <v>1.0445408E-2</v>
       </c>
       <c r="D69">
-        <v>1.4023743569850901E-2</v>
+        <v>0.106192231</v>
       </c>
       <c r="E69">
-        <v>8.8828746229410102E-3</v>
+        <v>1.0699668000000001E-2</v>
       </c>
       <c r="F69">
-        <v>0.13251265883445701</v>
+        <v>1.1068164E-2</v>
       </c>
       <c r="G69">
-        <v>1.06714162975549E-2</v>
+        <v>9.4007280000000006E-3</v>
       </c>
       <c r="H69">
-        <v>9.4643235206604004E-3</v>
+        <v>4.0227801000000001E-2</v>
       </c>
       <c r="I69">
-        <v>7.6213586144149303E-3</v>
+        <v>2.9623382E-2</v>
       </c>
       <c r="J69">
-        <v>1.07851708307862E-2</v>
+        <v>8.8024230000000002E-3</v>
       </c>
       <c r="K69">
-        <v>3.2931353896856301E-2</v>
+        <v>5.1221850999999999E-2</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
@@ -17462,34 +17462,34 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>3.5399489104747703E-2</v>
+        <v>3.9785798999999997E-2</v>
       </c>
       <c r="C70">
-        <v>4.2636435478925698E-2</v>
+        <v>2.8253271999999999E-2</v>
       </c>
       <c r="D70">
-        <v>8.2546032965183203E-2</v>
+        <v>1.3211972000000001E-2</v>
       </c>
       <c r="E70">
-        <v>3.1275663524866097E-2</v>
+        <v>0.154380828</v>
       </c>
       <c r="F70">
-        <v>3.78031693398952E-2</v>
+        <v>6.3427068000000003E-2</v>
       </c>
       <c r="G70">
-        <v>1.1411351151764299E-2</v>
+        <v>1.1971134E-2</v>
       </c>
       <c r="H70">
-        <v>0.41121086478233299</v>
+        <v>0.25362837300000002</v>
       </c>
       <c r="I70">
-        <v>1.29712829366326E-2</v>
+        <v>1.3546152000000001E-2</v>
       </c>
       <c r="J70">
-        <v>0.314541816711425</v>
+        <v>0.406675756</v>
       </c>
       <c r="K70">
-        <v>2.02038418501615E-2</v>
+        <v>1.5119623E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
@@ -17497,34 +17497,34 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>0.23079781234264299</v>
+        <v>4.7794050999999997E-2</v>
       </c>
       <c r="C71">
-        <v>1.46896643564105E-2</v>
+        <v>1.0861549999999999E-2</v>
       </c>
       <c r="D71">
-        <v>7.2270303964614799E-2</v>
+        <v>2.2380517999999999E-2</v>
       </c>
       <c r="E71">
-        <v>1.85560397803783E-2</v>
+        <v>0.44314083500000001</v>
       </c>
       <c r="F71">
-        <v>7.7006742358207703E-2</v>
+        <v>0.28557884700000002</v>
       </c>
       <c r="G71">
-        <v>9.8432973027229292E-3</v>
+        <v>1.237454E-2</v>
       </c>
       <c r="H71">
-        <v>3.2832272350788103E-2</v>
+        <v>8.0251716000000001E-2</v>
       </c>
       <c r="I71">
-        <v>0.51565647125244096</v>
+        <v>2.0417543E-2</v>
       </c>
       <c r="J71">
-        <v>1.01359989494085E-2</v>
+        <v>3.0975797999999999E-2</v>
       </c>
       <c r="K71">
-        <v>1.8211439251899698E-2</v>
+        <v>4.6224620000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
@@ -17532,34 +17532,34 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>2.9993779957294402E-2</v>
+        <v>2.4894303E-2</v>
       </c>
       <c r="C72">
-        <v>0.28562325239181502</v>
+        <v>2.3412187000000001E-2</v>
       </c>
       <c r="D72">
-        <v>9.7219534218311296E-2</v>
+        <v>8.7268050000000007E-3</v>
       </c>
       <c r="E72">
-        <v>0.28496989607810902</v>
+        <v>1.3144072E-2</v>
       </c>
       <c r="F72">
-        <v>1.8676370382308901E-2</v>
+        <v>1.7071915999999999E-2</v>
       </c>
       <c r="G72">
-        <v>2.7822071686387E-2</v>
+        <v>9.2418919999999998E-3</v>
       </c>
       <c r="H72">
-        <v>4.2951498180627802E-2</v>
+        <v>6.9295958000000005E-2</v>
       </c>
       <c r="I72">
-        <v>1.7309762537479401E-2</v>
+        <v>8.1676279999999997E-3</v>
       </c>
       <c r="J72">
-        <v>0.17130123078823001</v>
+        <v>0.81751441999999996</v>
       </c>
       <c r="K72">
-        <v>2.41326261311769E-2</v>
+        <v>8.5308459999999999E-3</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
@@ -17567,34 +17567,34 @@
         <v>8</v>
       </c>
       <c r="B73">
-        <v>5.2085772156715303E-2</v>
+        <v>1.2297328999999999E-2</v>
       </c>
       <c r="C73">
-        <v>1.8023079261183701E-2</v>
+        <v>1.1428498E-2</v>
       </c>
       <c r="D73">
-        <v>0.80906885862350397</v>
+        <v>1.9877268E-2</v>
       </c>
       <c r="E73">
-        <v>9.0123368427157402E-3</v>
+        <v>6.1769080000000001E-3</v>
       </c>
       <c r="F73">
-        <v>1.9523374736308999E-2</v>
+        <v>1.7228535999999999E-2</v>
       </c>
       <c r="G73">
-        <v>3.4800786525011E-2</v>
+        <v>1.3953437000000001E-2</v>
       </c>
       <c r="H73">
-        <v>1.0950563475489601E-2</v>
+        <v>1.6628957999999999E-2</v>
       </c>
       <c r="I73">
-        <v>2.24582478404045E-2</v>
+        <v>4.2183999999999998E-3</v>
       </c>
       <c r="J73">
-        <v>1.0862622410058901E-2</v>
+        <v>0.89144414699999996</v>
       </c>
       <c r="K73">
-        <v>1.32143441587686E-2</v>
+        <v>6.7465379999999998E-3</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
@@ -17602,34 +17602,34 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>7.9358361661434104E-2</v>
+        <v>2.1960493000000001E-2</v>
       </c>
       <c r="C74">
-        <v>0.83217763900756803</v>
+        <v>0.13123072699999999</v>
       </c>
       <c r="D74">
-        <v>1.10505614429712E-2</v>
+        <v>1.9869690999999998E-2</v>
       </c>
       <c r="E74">
-        <v>4.33102948591113E-3</v>
+        <v>8.5104780000000001E-3</v>
       </c>
       <c r="F74">
-        <v>6.7764692939817897E-3</v>
+        <v>9.1296299999999997E-3</v>
       </c>
       <c r="G74">
-        <v>8.2978829741477897E-3</v>
+        <v>8.7328820000000008E-3</v>
       </c>
       <c r="H74">
-        <v>8.3374809473752906E-3</v>
+        <v>9.7171110000000005E-3</v>
       </c>
       <c r="I74">
-        <v>3.9057269692420897E-2</v>
+        <v>0.75618255099999998</v>
       </c>
       <c r="J74">
-        <v>4.0071019902825303E-3</v>
+        <v>7.2073700000000003E-3</v>
       </c>
       <c r="K74">
-        <v>6.6062700934708101E-3</v>
+        <v>2.7459081E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -17637,34 +17637,34 @@
         <v>5</v>
       </c>
       <c r="B75">
-        <v>2.2420426830649298E-3</v>
+        <v>1.8145100000000001E-3</v>
       </c>
       <c r="C75">
-        <v>4.9894880503416001E-3</v>
+        <v>3.460093E-3</v>
       </c>
       <c r="D75">
-        <v>5.21966628730297E-3</v>
+        <v>3.601913E-3</v>
       </c>
       <c r="E75">
-        <v>2.36166617833077E-3</v>
+        <v>2.1287150000000002E-3</v>
       </c>
       <c r="F75">
-        <v>2.6274779811501499E-3</v>
+        <v>2.0053319999999999E-3</v>
       </c>
       <c r="G75">
-        <v>0.97049272060394198</v>
+        <v>0.97672802199999997</v>
       </c>
       <c r="H75">
-        <v>3.1023039482533901E-3</v>
+        <v>2.9163779999999999E-3</v>
       </c>
       <c r="I75">
-        <v>3.1668962910771301E-3</v>
+        <v>2.1594159999999999E-3</v>
       </c>
       <c r="J75">
-        <v>2.74971849285066E-3</v>
+        <v>2.9713840000000001E-3</v>
       </c>
       <c r="K75">
-        <v>3.0480630230158498E-3</v>
+        <v>2.2141169999999998E-3</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
@@ -17672,34 +17672,34 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>7.50118643045425E-2</v>
+        <v>0.94107383499999997</v>
       </c>
       <c r="C76">
-        <v>0.695007383823394</v>
+        <v>9.7594440000000008E-3</v>
       </c>
       <c r="D76">
-        <v>1.91439110785722E-2</v>
+        <v>3.7545920000000002E-3</v>
       </c>
       <c r="E76">
-        <v>1.44016547128558E-2</v>
+        <v>3.1447509999999999E-3</v>
       </c>
       <c r="F76">
-        <v>0.133843898773193</v>
+        <v>1.1463839E-2</v>
       </c>
       <c r="G76">
-        <v>1.0077831335365699E-2</v>
+        <v>3.5688709999999999E-3</v>
       </c>
       <c r="H76">
-        <v>1.4085627160966299E-2</v>
+        <v>1.2692887999999999E-2</v>
       </c>
       <c r="I76">
-        <v>1.2385380454361401E-2</v>
+        <v>3.036656E-3</v>
       </c>
       <c r="J76">
-        <v>1.5413480810821001E-2</v>
+        <v>6.1004060000000001E-3</v>
       </c>
       <c r="K76">
-        <v>1.06289479881525E-2</v>
+        <v>5.4046709999999998E-3</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
@@ -17707,34 +17707,34 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>1.0713062249124E-2</v>
+        <v>2.1023990999999999E-2</v>
       </c>
       <c r="C77">
-        <v>1.8027473241090702E-2</v>
+        <v>1.8221837000000001E-2</v>
       </c>
       <c r="D77">
-        <v>0.721174836158752</v>
+        <v>0.44599097999999998</v>
       </c>
       <c r="E77">
-        <v>1.0085628367960399E-2</v>
+        <v>9.7568700000000008E-3</v>
       </c>
       <c r="F77">
-        <v>8.6601031944155693E-3</v>
+        <v>1.0097214E-2</v>
       </c>
       <c r="G77">
-        <v>8.3872638642787899E-3</v>
+        <v>2.0923290000000001E-2</v>
       </c>
       <c r="H77">
-        <v>0.181718900799751</v>
+        <v>0.42499309800000001</v>
       </c>
       <c r="I77">
-        <v>2.4062905460596001E-2</v>
+        <v>1.101165E-2</v>
       </c>
       <c r="J77">
-        <v>7.4771610088646403E-3</v>
+        <v>1.3432108999999999E-2</v>
       </c>
       <c r="K77">
-        <v>9.6926698461174896E-3</v>
+        <v>2.4548976E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
@@ -17742,34 +17742,34 @@
         <v>5</v>
       </c>
       <c r="B78">
-        <v>1.8933060346171199E-3</v>
+        <v>1.6344039999999999E-3</v>
       </c>
       <c r="C78">
-        <v>2.4163860362023102E-3</v>
+        <v>2.7043499999999999E-3</v>
       </c>
       <c r="D78">
-        <v>3.91791807487607E-3</v>
+        <v>3.3629829999999999E-3</v>
       </c>
       <c r="E78">
-        <v>1.7184646567329699E-3</v>
+        <v>2.4649540000000001E-3</v>
       </c>
       <c r="F78">
-        <v>2.8073170688003302E-3</v>
+        <v>2.2684509999999999E-3</v>
       </c>
       <c r="G78">
-        <v>0.97504097223281805</v>
+        <v>0.97653275699999997</v>
       </c>
       <c r="H78">
-        <v>2.658975077793E-3</v>
+        <v>2.8253470000000002E-3</v>
       </c>
       <c r="I78">
-        <v>3.1942245550453602E-3</v>
+        <v>2.4048279999999999E-3</v>
       </c>
       <c r="J78">
-        <v>2.1442237775772801E-3</v>
+        <v>2.8378909999999999E-3</v>
       </c>
       <c r="K78">
-        <v>4.2081894353032103E-3</v>
+        <v>2.9640550000000002E-3</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -17777,34 +17777,34 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>4.8478818498551802E-3</v>
+        <v>5.3056550000000003E-3</v>
       </c>
       <c r="C79">
-        <v>0.97408479452133101</v>
+        <v>0.95766794700000002</v>
       </c>
       <c r="D79">
-        <v>3.0626098159700602E-3</v>
+        <v>4.6056760000000004E-3</v>
       </c>
       <c r="E79">
-        <v>1.41887937206774E-3</v>
+        <v>3.3873969999999999E-3</v>
       </c>
       <c r="F79">
-        <v>2.1159497555345201E-3</v>
+        <v>4.6047179999999998E-3</v>
       </c>
       <c r="G79">
-        <v>2.7443112339824399E-3</v>
+        <v>2.9026920000000001E-3</v>
       </c>
       <c r="H79">
-        <v>2.9697397258132601E-3</v>
+        <v>2.625194E-3</v>
       </c>
       <c r="I79">
-        <v>5.3257984109222802E-3</v>
+        <v>1.2962054000000001E-2</v>
       </c>
       <c r="J79">
-        <v>1.23652513138949E-3</v>
+        <v>2.8589959999999999E-3</v>
       </c>
       <c r="K79">
-        <v>2.1934565156698201E-3</v>
+        <v>3.0796880000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -17812,34 +17812,34 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>0.56097924709320002</v>
+        <v>0.31261917900000002</v>
       </c>
       <c r="C80">
-        <v>0.141029447317123</v>
+        <v>2.7689695E-2</v>
       </c>
       <c r="D80">
-        <v>7.2436325252056094E-2</v>
+        <v>8.5081440000000005E-3</v>
       </c>
       <c r="E80">
-        <v>1.2205853126943099E-2</v>
+        <v>9.3675800000000004E-3</v>
       </c>
       <c r="F80">
-        <v>7.1592889726161901E-2</v>
+        <v>0.56963568899999995</v>
       </c>
       <c r="G80">
-        <v>1.22497109696269E-2</v>
+        <v>1.0789363E-2</v>
       </c>
       <c r="H80">
-        <v>2.9058294370770399E-2</v>
+        <v>1.3382709E-2</v>
       </c>
       <c r="I80">
-        <v>6.4756125211715698E-2</v>
+        <v>9.7871450000000006E-3</v>
       </c>
       <c r="J80">
-        <v>1.5082720667123699E-2</v>
+        <v>2.5200112E-2</v>
       </c>
       <c r="K80">
-        <v>2.0609304308891199E-2</v>
+        <v>1.3020296000000001E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
@@ -17847,34 +17847,34 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>9.8595991730690002E-2</v>
+        <v>0.33358949399999999</v>
       </c>
       <c r="C81">
-        <v>1.9443232566118199E-2</v>
+        <v>2.5895946E-2</v>
       </c>
       <c r="D81">
-        <v>0.14613449573516801</v>
+        <v>0.104554459</v>
       </c>
       <c r="E81">
-        <v>4.4447109103202799E-2</v>
+        <v>3.7505861000000001E-2</v>
       </c>
       <c r="F81">
-        <v>0.53374487161636297</v>
+        <v>0.34263724099999998</v>
       </c>
       <c r="G81">
-        <v>1.46830240264534E-2</v>
+        <v>1.8308008000000001E-2</v>
       </c>
       <c r="H81">
-        <v>2.4476068094372701E-2</v>
+        <v>5.4495084999999999E-2</v>
       </c>
       <c r="I81">
-        <v>2.6917031034827201E-2</v>
+        <v>1.4407705999999999E-2</v>
       </c>
       <c r="J81">
-        <v>5.9986263513565003E-3</v>
+        <v>5.222239E-2</v>
       </c>
       <c r="K81">
-        <v>8.5559479892253806E-2</v>
+        <v>1.6383812000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -17882,34 +17882,34 @@
         <v>8</v>
       </c>
       <c r="B82">
-        <v>1.18182143196463E-2</v>
+        <v>1.6353108000000002E-2</v>
       </c>
       <c r="C82">
-        <v>1.48371933028101E-2</v>
+        <v>1.2216276E-2</v>
       </c>
       <c r="D82">
-        <v>1.8182991072535501E-2</v>
+        <v>7.7607757999999999E-2</v>
       </c>
       <c r="E82">
-        <v>2.57680397480726E-2</v>
+        <v>6.3819378999999996E-2</v>
       </c>
       <c r="F82">
-        <v>7.3243537917733097E-3</v>
+        <v>1.353495E-2</v>
       </c>
       <c r="G82">
-        <v>0.82757866382598799</v>
+        <v>0.27732211400000001</v>
       </c>
       <c r="H82">
-        <v>1.0690963827073499E-2</v>
+        <v>3.3931136000000001E-2</v>
       </c>
       <c r="I82">
-        <v>2.66870371997356E-2</v>
+        <v>2.4355802999999999E-2</v>
       </c>
       <c r="J82">
-        <v>3.6645468324422802E-2</v>
+        <v>0.412483186</v>
       </c>
       <c r="K82">
-        <v>2.0467009395360902E-2</v>
+        <v>6.8376355E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -17917,34 +17917,34 @@
         <v>7</v>
       </c>
       <c r="B83">
-        <v>1.5671445056796001E-2</v>
+        <v>0.11337415100000001</v>
       </c>
       <c r="C83">
-        <v>0.16989983618259399</v>
+        <v>4.9037229000000002E-2</v>
       </c>
       <c r="D83">
-        <v>0.35637444257736201</v>
+        <v>4.8310049000000001E-2</v>
       </c>
       <c r="E83">
-        <v>1.61436107009649E-2</v>
+        <v>0.154363006</v>
       </c>
       <c r="F83">
-        <v>3.1941860914230298E-2</v>
+        <v>2.1523071000000001E-2</v>
       </c>
       <c r="G83">
-        <v>7.0693492889404297E-2</v>
+        <v>1.2759271000000001E-2</v>
       </c>
       <c r="H83">
-        <v>1.6639797016978201E-2</v>
+        <v>0.147379279</v>
       </c>
       <c r="I83">
-        <v>0.2510986328125</v>
+        <v>1.9686535000000002E-2</v>
       </c>
       <c r="J83">
-        <v>6.1378944665193502E-2</v>
+        <v>0.40335115799999999</v>
       </c>
       <c r="K83">
-        <v>1.0157987475395199E-2</v>
+        <v>3.0216247000000002E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
@@ -17952,34 +17952,34 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>0.11048287898302001</v>
+        <v>4.7475456999999999E-2</v>
       </c>
       <c r="C84">
-        <v>5.69054447114467E-2</v>
+        <v>1.7203789000000001E-2</v>
       </c>
       <c r="D84">
-        <v>7.6008036732673603E-2</v>
+        <v>3.8627874E-2</v>
       </c>
       <c r="E84">
-        <v>0.247474700212478</v>
+        <v>3.9916113000000003E-2</v>
       </c>
       <c r="F84">
-        <v>0.32212021946906999</v>
+        <v>1.6651083000000001E-2</v>
       </c>
       <c r="G84">
-        <v>2.3926539346575699E-2</v>
+        <v>7.1397780000000003E-3</v>
       </c>
       <c r="H84">
-        <v>2.5076724588870999E-2</v>
+        <v>0.797945499</v>
       </c>
       <c r="I84">
-        <v>2.2883746773004501E-2</v>
+        <v>1.1748418E-2</v>
       </c>
       <c r="J84">
-        <v>9.7222983837127602E-2</v>
+        <v>1.4556092E-2</v>
       </c>
       <c r="K84">
-        <v>1.78987756371498E-2</v>
+        <v>8.7358420000000006E-3</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
@@ -17987,34 +17987,34 @@
         <v>9</v>
       </c>
       <c r="B85">
-        <v>7.9890690743923104E-2</v>
+        <v>2.3777409999999999E-2</v>
       </c>
       <c r="C85">
-        <v>1.2536509893834501E-2</v>
+        <v>5.827748E-2</v>
       </c>
       <c r="D85">
-        <v>0.46247741580009399</v>
+        <v>0.15401648000000001</v>
       </c>
       <c r="E85">
-        <v>1.8264753744006101E-2</v>
+        <v>1.2567369E-2</v>
       </c>
       <c r="F85">
-        <v>1.3800336979329499E-2</v>
+        <v>1.380784E-2</v>
       </c>
       <c r="G85">
-        <v>4.44827601313591E-2</v>
+        <v>2.3980556E-2</v>
       </c>
       <c r="H85">
-        <v>5.9839721769094398E-2</v>
+        <v>6.2522724000000002E-2</v>
       </c>
       <c r="I85">
-        <v>0.17589040100574399</v>
+        <v>0.33971738800000001</v>
       </c>
       <c r="J85">
-        <v>7.4061132967471993E-2</v>
+        <v>3.0201735E-2</v>
       </c>
       <c r="K85">
-        <v>5.8756262063980103E-2</v>
+        <v>0.28113099899999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -18022,34 +18022,34 @@
         <v>7</v>
       </c>
       <c r="B86">
-        <v>3.8987176958471502E-3</v>
+        <v>1.5676570000000001E-3</v>
       </c>
       <c r="C86">
-        <v>4.4409106485545601E-3</v>
+        <v>1.9704929999999998E-3</v>
       </c>
       <c r="D86">
-        <v>4.1046277619898302E-3</v>
+        <v>1.5316730000000001E-3</v>
       </c>
       <c r="E86">
-        <v>2.9919699300080499E-3</v>
+        <v>1.5790380000000001E-3</v>
       </c>
       <c r="F86">
-        <v>2.1601659245788999E-3</v>
+        <v>1.3552919999999999E-3</v>
       </c>
       <c r="G86">
-        <v>2.1466945763677298E-3</v>
+        <v>1.4856229999999999E-3</v>
       </c>
       <c r="H86">
-        <v>3.60579136759042E-3</v>
+        <v>1.647971E-3</v>
       </c>
       <c r="I86">
-        <v>0.96993094682693404</v>
+        <v>0.98569089200000004</v>
       </c>
       <c r="J86">
-        <v>3.2233388628810601E-3</v>
+        <v>1.692933E-3</v>
       </c>
       <c r="K86">
-        <v>3.4966729581356001E-3</v>
+        <v>1.478406E-3</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -18057,34 +18057,34 @@
         <v>9</v>
       </c>
       <c r="B87">
-        <v>3.3639427274465498E-2</v>
+        <v>5.6571939999999999E-3</v>
       </c>
       <c r="C87">
-        <v>8.0029228702187503E-3</v>
+        <v>6.3536479999999999E-3</v>
       </c>
       <c r="D87">
-        <v>4.9651410430669701E-2</v>
+        <v>7.4500859999999999E-3</v>
       </c>
       <c r="E87">
-        <v>9.0198917314410192E-3</v>
+        <v>3.3458339999999998E-3</v>
       </c>
       <c r="F87">
-        <v>2.2495474666356999E-2</v>
+        <v>3.6533149999999999E-3</v>
       </c>
       <c r="G87">
-        <v>1.35700572282075E-2</v>
+        <v>4.7065919999999999E-3</v>
       </c>
       <c r="H87">
-        <v>1.75281595438718E-2</v>
+        <v>4.8093440000000001E-3</v>
       </c>
       <c r="I87">
-        <v>0.123755417764186</v>
+        <v>1.4978932E-2</v>
       </c>
       <c r="J87">
-        <v>1.05642098933458E-2</v>
+        <v>3.7458309999999998E-3</v>
       </c>
       <c r="K87">
-        <v>0.71177297830581598</v>
+        <v>0.94529932699999997</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
@@ -18092,34 +18092,34 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>2.97143571078777E-2</v>
+        <v>2.1626052999999999E-2</v>
       </c>
       <c r="C88">
-        <v>1.6335403546690899E-2</v>
+        <v>2.0763677000000001E-2</v>
       </c>
       <c r="D88">
-        <v>0.22794048488140101</v>
+        <v>7.0509344000000002E-2</v>
       </c>
       <c r="E88">
-        <v>8.1015944480895996E-2</v>
+        <v>3.4802633999999999E-2</v>
       </c>
       <c r="F88">
-        <v>1.72829702496528E-2</v>
+        <v>2.2623857000000001E-2</v>
       </c>
       <c r="G88">
-        <v>2.55454741418361E-2</v>
+        <v>1.3658307E-2</v>
       </c>
       <c r="H88">
-        <v>0.37349274754524198</v>
+        <v>0.406716138</v>
       </c>
       <c r="I88">
-        <v>4.7708474099636002E-2</v>
+        <v>1.1384382E-2</v>
       </c>
       <c r="J88">
-        <v>0.13297170400619501</v>
+        <v>0.37658616900000003</v>
       </c>
       <c r="K88">
-        <v>4.79924753308296E-2</v>
+        <v>2.1329577999999998E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
@@ -18127,34 +18127,34 @@
         <v>2</v>
       </c>
       <c r="B89">
-        <v>8.41995924711227E-2</v>
+        <v>4.3967343999999998E-2</v>
       </c>
       <c r="C89">
-        <v>1.50406388565897E-2</v>
+        <v>2.9423985999999999E-2</v>
       </c>
       <c r="D89">
-        <v>0.67484265565872104</v>
+        <v>0.26934403200000001</v>
       </c>
       <c r="E89">
-        <v>2.5489311665296499E-2</v>
+        <v>0.28396782300000001</v>
       </c>
       <c r="F89">
-        <v>1.6558300703763899E-2</v>
+        <v>2.2919881999999999E-2</v>
       </c>
       <c r="G89">
-        <v>1.8357390537857999E-2</v>
+        <v>1.8589551999999999E-2</v>
       </c>
       <c r="H89">
-        <v>3.2033614814281401E-2</v>
+        <v>0.169179827</v>
       </c>
       <c r="I89">
-        <v>1.38129815459251E-2</v>
+        <v>1.5767070000000001E-2</v>
       </c>
       <c r="J89">
-        <v>8.2255870103836004E-2</v>
+        <v>0.11011224999999999</v>
       </c>
       <c r="K89">
-        <v>3.7409648299217203E-2</v>
+        <v>3.6728262999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
@@ -18162,34 +18162,34 @@
         <v>6</v>
       </c>
       <c r="B90">
-        <v>2.5392822921275999E-2</v>
+        <v>6.0641318999999999E-2</v>
       </c>
       <c r="C90">
-        <v>9.8291166126728002E-2</v>
+        <v>6.5825745000000005E-2</v>
       </c>
       <c r="D90">
-        <v>3.6447782069444601E-2</v>
+        <v>1.5538151E-2</v>
       </c>
       <c r="E90">
-        <v>7.6093554496765095E-2</v>
+        <v>4.0804971000000002E-2</v>
       </c>
       <c r="F90">
-        <v>2.86048632115125E-2</v>
+        <v>5.5005318999999997E-2</v>
       </c>
       <c r="G90">
-        <v>3.09815574437379E-2</v>
+        <v>1.4991974999999999E-2</v>
       </c>
       <c r="H90">
-        <v>5.5874656885862302E-2</v>
+        <v>0.177069739</v>
       </c>
       <c r="I90">
-        <v>6.6879041492938995E-2</v>
+        <v>1.399647E-2</v>
       </c>
       <c r="J90">
-        <v>0.57081001996993996</v>
+        <v>0.507310331</v>
       </c>
       <c r="K90">
-        <v>1.0624543763697101E-2</v>
+        <v>4.8815951000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
@@ -18197,34 +18197,34 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>2.6235740631818699E-2</v>
+        <v>1.1540985E-2</v>
       </c>
       <c r="C91">
-        <v>7.0616103708743994E-2</v>
+        <v>8.9682119999999997E-3</v>
       </c>
       <c r="D91">
-        <v>0.72931307554244995</v>
+        <v>1.5521406999999999E-2</v>
       </c>
       <c r="E91">
-        <v>4.05904911458492E-2</v>
+        <v>0.29005077499999998</v>
       </c>
       <c r="F91">
-        <v>2.4070860818028401E-2</v>
+        <v>1.32669E-2</v>
       </c>
       <c r="G91">
-        <v>2.5499984622001599E-2</v>
+        <v>1.5625024000000001E-2</v>
       </c>
       <c r="H91">
-        <v>1.7315961420536E-2</v>
+        <v>1.9073326000000002E-2</v>
       </c>
       <c r="I91">
-        <v>1.55193582177162E-2</v>
+        <v>1.4448615999999999E-2</v>
       </c>
       <c r="J91">
-        <v>3.6455288529396002E-2</v>
+        <v>0.58830708300000001</v>
       </c>
       <c r="K91">
-        <v>1.43831921741366E-2</v>
+        <v>2.3197651E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
@@ -18232,34 +18232,34 @@
         <v>6</v>
       </c>
       <c r="B92">
-        <v>4.3063025921583099E-2</v>
+        <v>1.8019401000000001E-2</v>
       </c>
       <c r="C92">
-        <v>1.99060346931219E-2</v>
+        <v>1.7902942000000002E-2</v>
       </c>
       <c r="D92">
-        <v>2.6394236832857101E-2</v>
+        <v>2.557794E-2</v>
       </c>
       <c r="E92">
-        <v>9.66633930802345E-2</v>
+        <v>2.6832247E-2</v>
       </c>
       <c r="F92">
-        <v>2.0833671092987002E-2</v>
+        <v>6.929663E-3</v>
       </c>
       <c r="G92">
-        <v>2.78007145971059E-2</v>
+        <v>6.7508539999999997E-3</v>
       </c>
       <c r="H92">
-        <v>0.24262891709804499</v>
+        <v>0.81039971099999997</v>
       </c>
       <c r="I92">
-        <v>2.2399066016077902E-2</v>
+        <v>7.6435039999999997E-3</v>
       </c>
       <c r="J92">
-        <v>0.47370842099189697</v>
+        <v>5.8777454999999999E-2</v>
       </c>
       <c r="K92">
-        <v>2.6602555066347101E-2</v>
+        <v>2.1166265E-2</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -18267,34 +18267,34 @@
         <v>8</v>
       </c>
       <c r="B93">
-        <v>1.56240658834576E-2</v>
+        <v>1.3142737999999999E-2</v>
       </c>
       <c r="C93">
-        <v>1.0789620690047699E-2</v>
+        <v>1.1253852E-2</v>
       </c>
       <c r="D93">
-        <v>3.6269441246986299E-2</v>
+        <v>1.8442435E-2</v>
       </c>
       <c r="E93">
-        <v>0.159382194280624</v>
+        <v>0.52224612199999998</v>
       </c>
       <c r="F93">
-        <v>1.23804872855544E-2</v>
+        <v>9.8802100000000004E-3</v>
       </c>
       <c r="G93">
-        <v>1.5467324294149799E-2</v>
+        <v>1.1340115E-2</v>
       </c>
       <c r="H93">
-        <v>2.58208438754081E-2</v>
+        <v>3.7538882000000003E-2</v>
       </c>
       <c r="I93">
-        <v>1.3855618424713599E-2</v>
+        <v>1.5455083999999999E-2</v>
       </c>
       <c r="J93">
-        <v>0.69088679552078203</v>
+        <v>0.34190636899999999</v>
       </c>
       <c r="K93">
-        <v>1.95236522704362E-2</v>
+        <v>1.8794182999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -18302,34 +18302,34 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>1.8462585285305901E-2</v>
+        <v>7.5832080000000001E-3</v>
       </c>
       <c r="C94">
-        <v>0.83587098121643</v>
+        <v>0.96366429300000001</v>
       </c>
       <c r="D94">
-        <v>1.4997213147580599E-2</v>
+        <v>3.4601530000000001E-3</v>
       </c>
       <c r="E94">
-        <v>4.2842552065849297E-2</v>
+        <v>2.010033E-3</v>
       </c>
       <c r="F94">
-        <v>2.4418031796813001E-2</v>
+        <v>3.7160610000000001E-3</v>
       </c>
       <c r="G94">
-        <v>1.7828550189733498E-2</v>
+        <v>3.299794E-3</v>
       </c>
       <c r="H94">
-        <v>7.1293343789875499E-3</v>
+        <v>4.7862190000000004E-3</v>
       </c>
       <c r="I94">
-        <v>9.01217572391033E-3</v>
+        <v>3.0153580000000001E-3</v>
       </c>
       <c r="J94">
-        <v>2.2885141894221299E-2</v>
+        <v>3.787215E-3</v>
       </c>
       <c r="K94">
-        <v>6.5534845925867497E-3</v>
+        <v>4.6776609999999996E-3</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
@@ -18337,34 +18337,34 @@
         <v>5</v>
       </c>
       <c r="B95">
-        <v>4.6777552925050198E-3</v>
+        <v>3.9149909999999996E-3</v>
       </c>
       <c r="C95">
-        <v>5.8571672998368697E-3</v>
+        <v>6.5350520000000004E-3</v>
       </c>
       <c r="D95">
-        <v>3.0874169897288002E-3</v>
+        <v>4.2875559999999997E-3</v>
       </c>
       <c r="E95">
-        <v>3.0484721064567501E-3</v>
+        <v>4.6399379999999997E-3</v>
       </c>
       <c r="F95">
-        <v>3.1512652058154301E-3</v>
+        <v>4.9121989999999999E-3</v>
       </c>
       <c r="G95">
-        <v>0.96890777349472001</v>
+        <v>0.95224791799999997</v>
       </c>
       <c r="H95">
-        <v>2.4555479176342401E-3</v>
+        <v>4.1009999999999996E-3</v>
       </c>
       <c r="I95">
-        <v>2.7965668123215398E-3</v>
+        <v>3.7519860000000001E-3</v>
       </c>
       <c r="J95">
-        <v>3.6761071532964702E-3</v>
+        <v>1.1093057E-2</v>
       </c>
       <c r="K95">
-        <v>2.34195427037775E-3</v>
+        <v>4.5162199999999996E-3</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -18372,34 +18372,34 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>0.73162037134170499</v>
+        <v>0.170800284</v>
       </c>
       <c r="C96">
-        <v>8.8033974170684797E-3</v>
+        <v>4.5771681000000002E-2</v>
       </c>
       <c r="D96">
-        <v>4.7275289893150302E-2</v>
+        <v>2.0669235000000001E-2</v>
       </c>
       <c r="E96">
-        <v>1.25798769295215E-2</v>
+        <v>2.2740290999999999E-2</v>
       </c>
       <c r="F96">
-        <v>3.0893711373209901E-2</v>
+        <v>0.23449847099999999</v>
       </c>
       <c r="G96">
-        <v>1.1968503706157201E-2</v>
+        <v>2.2358378000000002E-2</v>
       </c>
       <c r="H96">
-        <v>1.55712151899933E-2</v>
+        <v>2.8432457000000001E-2</v>
       </c>
       <c r="I96">
-        <v>1.25586604699492E-2</v>
+        <v>1.4135538E-2</v>
       </c>
       <c r="J96">
-        <v>6.1741131357848601E-3</v>
+        <v>1.9670868000000001E-2</v>
       </c>
       <c r="K96">
-        <v>0.122554823756217</v>
+        <v>0.42092278599999999</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
@@ -18407,34 +18407,34 @@
         <v>2</v>
       </c>
       <c r="B97">
-        <v>9.8807588219642604E-3</v>
+        <v>6.0578309999999996E-3</v>
       </c>
       <c r="C97">
-        <v>6.4694439060985999E-3</v>
+        <v>6.2112280000000001E-3</v>
       </c>
       <c r="D97">
-        <v>0.938876152038574</v>
+        <v>0.92695081199999996</v>
       </c>
       <c r="E97">
-        <v>3.8656429387629002E-3</v>
+        <v>6.2321909999999998E-3</v>
       </c>
       <c r="F97">
-        <v>5.1924311555921997E-3</v>
+        <v>4.0965029999999996E-3</v>
       </c>
       <c r="G97">
-        <v>5.4011251777410499E-3</v>
+        <v>4.6212919999999999E-3</v>
       </c>
       <c r="H97">
-        <v>7.5652496889233502E-3</v>
+        <v>1.885736E-2</v>
       </c>
       <c r="I97">
-        <v>5.1999283023178499E-3</v>
+        <v>4.5334709999999999E-3</v>
       </c>
       <c r="J97">
-        <v>9.1511281207203796E-3</v>
+        <v>1.7481545000000001E-2</v>
       </c>
       <c r="K97">
-        <v>8.3981035277247394E-3</v>
+        <v>4.9578000000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
@@ -18442,34 +18442,34 @@
         <v>5</v>
       </c>
       <c r="B98">
-        <v>3.38542205281555E-3</v>
+        <v>2.0329179999999999E-3</v>
       </c>
       <c r="C98">
-        <v>4.1631134226918203E-3</v>
+        <v>3.330076E-3</v>
       </c>
       <c r="D98">
-        <v>5.2151652052998499E-3</v>
+        <v>2.362159E-3</v>
       </c>
       <c r="E98">
-        <v>2.4700742214918102E-3</v>
+        <v>2.5266899999999998E-3</v>
       </c>
       <c r="F98">
-        <v>4.3504037894308498E-3</v>
+        <v>3.1437269999999998E-3</v>
       </c>
       <c r="G98">
-        <v>0.96838837862014704</v>
+        <v>0.97607839100000005</v>
       </c>
       <c r="H98">
-        <v>2.2518469486385501E-3</v>
+        <v>1.924657E-3</v>
       </c>
       <c r="I98">
-        <v>3.7510569673031499E-3</v>
+        <v>2.7393230000000001E-3</v>
       </c>
       <c r="J98">
-        <v>2.6171195786446298E-3</v>
+        <v>2.8110209999999999E-3</v>
       </c>
       <c r="K98">
-        <v>3.4075195435434502E-3</v>
+        <v>3.0510450000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
@@ -18477,34 +18477,34 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>3.0617390293627899E-3</v>
+        <v>0.101340763</v>
       </c>
       <c r="C99">
-        <v>0.97767692804336503</v>
+        <v>0.58807855799999997</v>
       </c>
       <c r="D99">
-        <v>2.7945435140281898E-3</v>
+        <v>4.8399653000000001E-2</v>
       </c>
       <c r="E99">
-        <v>2.51527852378785E-3</v>
+        <v>4.1771032E-2</v>
       </c>
       <c r="F99">
-        <v>2.5272299535572498E-3</v>
+        <v>4.3919607999999999E-2</v>
       </c>
       <c r="G99">
-        <v>2.44930130429565E-3</v>
+        <v>1.7696857E-2</v>
       </c>
       <c r="H99">
-        <v>2.53695901483297E-3</v>
+        <v>6.2368855000000001E-2</v>
       </c>
       <c r="I99">
-        <v>2.7449429035186698E-3</v>
+        <v>1.6464723000000001E-2</v>
       </c>
       <c r="J99">
-        <v>1.92254548892378E-3</v>
+        <v>4.7221715999999997E-2</v>
       </c>
       <c r="K99">
-        <v>1.77059310954064E-3</v>
+        <v>3.2738186000000002E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -18512,34 +18512,34 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>3.1351104378700201E-2</v>
+        <v>0.23964345500000001</v>
       </c>
       <c r="C100">
-        <v>1.48136150091886E-2</v>
+        <v>8.8570318999999995E-2</v>
       </c>
       <c r="D100">
-        <v>9.3655012547969804E-2</v>
+        <v>3.319275E-2</v>
       </c>
       <c r="E100">
-        <v>2.9014587402343701E-2</v>
+        <v>1.9729679E-2</v>
       </c>
       <c r="F100">
-        <v>0.66589277982711703</v>
+        <v>6.4061857999999999E-2</v>
       </c>
       <c r="G100">
-        <v>1.7494941130280401E-2</v>
+        <v>1.2570223E-2</v>
       </c>
       <c r="H100">
-        <v>1.1522905901074401E-2</v>
+        <v>0.37671726900000002</v>
       </c>
       <c r="I100">
-        <v>7.1490570902824402E-2</v>
+        <v>3.0487060999999999E-2</v>
       </c>
       <c r="J100">
-        <v>9.6133621409535408E-3</v>
+        <v>1.4506025000000001E-2</v>
       </c>
       <c r="K100">
-        <v>5.5151168256998E-2</v>
+        <v>0.120521329</v>
       </c>
     </row>
   </sheetData>
